--- a/projection/2026_team_projection.xlsx
+++ b/projection/2026_team_projection.xlsx
@@ -5410,7 +5410,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -9943,8 +9943,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H141"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="E84" sqref="E84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -10866,6 +10866,9 @@
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A36" s="2">
+        <v>35</v>
+      </c>
       <c r="B36" s="2" t="s">
         <v>1132</v>
       </c>
@@ -10890,7 +10893,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>446</v>
@@ -10916,7 +10919,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B38" s="36" t="s">
         <v>452</v>
@@ -10942,7 +10945,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B39" s="36" t="s">
         <v>449</v>
@@ -10968,7 +10971,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>444</v>
@@ -10994,7 +10997,7 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>447</v>
@@ -11020,7 +11023,7 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B42" s="36" t="s">
         <v>450</v>
@@ -11046,7 +11049,7 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>443</v>
@@ -11072,7 +11075,7 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B44" s="36" t="s">
         <v>448</v>
@@ -11098,7 +11101,7 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>442</v>
@@ -11124,7 +11127,7 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B46" s="36" t="s">
         <v>451</v>
@@ -11150,7 +11153,7 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>445</v>
@@ -11176,7 +11179,7 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>614</v>
@@ -11202,7 +11205,7 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A49" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>398</v>
@@ -11228,7 +11231,7 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A50" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>400</v>
@@ -11253,6 +11256,9 @@
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A51" s="2">
+        <v>50</v>
+      </c>
       <c r="B51" s="2" t="s">
         <v>1133</v>
       </c>
@@ -11277,7 +11283,7 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A52" s="2">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B52" s="36" t="s">
         <v>471</v>
@@ -11303,7 +11309,7 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A53" s="2">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B53" s="36" t="s">
         <v>467</v>
@@ -11329,7 +11335,7 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A54" s="2">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>468</v>
@@ -11355,7 +11361,7 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A55" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B55" s="36" t="s">
         <v>470</v>
@@ -11381,7 +11387,7 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A56" s="2">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>554</v>
@@ -11407,7 +11413,7 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A57" s="2">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>427</v>
@@ -11433,7 +11439,7 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A58" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>469</v>
@@ -11458,8 +11464,8 @@
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A59" s="36">
-        <v>136</v>
+      <c r="A59" s="2">
+        <v>58</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>744</v>
@@ -11485,7 +11491,7 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A60" s="2">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>434</v>
@@ -11511,7 +11517,7 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A61" s="2">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>433</v>
@@ -11537,7 +11543,7 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A62" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>432</v>
@@ -11563,7 +11569,7 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A63" s="2">
-        <v>136</v>
+        <v>62</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>1120</v>
@@ -11589,7 +11595,7 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A64" s="2">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>402</v>
@@ -11615,7 +11621,7 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A65" s="2">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>399</v>
@@ -11641,7 +11647,7 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A66" s="2">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>407</v>
@@ -11667,7 +11673,7 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A67" s="2">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B67" s="36" t="s">
         <v>520</v>
@@ -11693,7 +11699,7 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A68" s="2">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B68" s="36" t="s">
         <v>519</v>
@@ -11719,7 +11725,7 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A69" s="2">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B69" s="36" t="s">
         <v>517</v>
@@ -11745,7 +11751,7 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A70" s="2">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B70" s="36" t="s">
         <v>518</v>
@@ -11771,7 +11777,7 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A71" s="2">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B71" s="36" t="s">
         <v>522</v>
@@ -11797,7 +11803,7 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A72" s="2">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>512</v>
@@ -11823,7 +11829,7 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A73" s="2">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>514</v>
@@ -11849,7 +11855,7 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A74" s="2">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>515</v>
@@ -11875,7 +11881,7 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A75" s="2">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>513</v>
@@ -11901,7 +11907,7 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A76" s="2">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B76" s="36" t="s">
         <v>521</v>
@@ -11927,7 +11933,7 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A77" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B77" s="36" t="s">
         <v>523</v>
@@ -11953,7 +11959,7 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A78" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>511</v>
@@ -11979,7 +11985,7 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A79" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>516</v>
@@ -12005,7 +12011,7 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A80" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B80" s="36" t="s">
         <v>420</v>
@@ -12031,7 +12037,7 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A81" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>431</v>
@@ -12056,8 +12062,8 @@
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A82" s="36">
-        <v>136</v>
+      <c r="A82" s="2">
+        <v>81</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>1111</v>
@@ -12083,7 +12089,7 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A83" s="2">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B83" s="36" t="s">
         <v>524</v>
@@ -12109,7 +12115,7 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A84" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>510</v>
@@ -12135,7 +12141,7 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A85" s="2">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B85" s="36" t="s">
         <v>410</v>
@@ -12161,7 +12167,7 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A86" s="2">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>507</v>
@@ -12187,7 +12193,7 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A87" s="2">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>504</v>
@@ -12213,7 +12219,7 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A88" s="2">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>505</v>
@@ -12239,7 +12245,7 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A89" s="2">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>503</v>
@@ -12265,7 +12271,7 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A90" s="2">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>502</v>
@@ -12291,7 +12297,7 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A91" s="2">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B91" s="36" t="s">
         <v>508</v>
@@ -12317,7 +12323,7 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A92" s="2">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>506</v>
@@ -12343,7 +12349,7 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A93" s="2">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B93" s="36" t="s">
         <v>509</v>
@@ -12369,7 +12375,7 @@
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A94" s="2">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B94" s="36" t="s">
         <v>425</v>
@@ -12395,7 +12401,7 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A95" s="2">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>501</v>
@@ -12421,7 +12427,7 @@
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A96" s="2">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>406</v>
@@ -12447,7 +12453,7 @@
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A97" s="2">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>491</v>
@@ -12473,7 +12479,7 @@
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A98" s="2">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>494</v>
@@ -12499,7 +12505,7 @@
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A99" s="2">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>488</v>
@@ -12525,7 +12531,7 @@
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A100" s="2">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>495</v>
@@ -12551,7 +12557,7 @@
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A101" s="2">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>496</v>
@@ -12577,7 +12583,7 @@
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A102" s="2">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>487</v>
@@ -12603,7 +12609,7 @@
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A103" s="2">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>493</v>
@@ -12629,7 +12635,7 @@
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A104" s="2">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>492</v>
@@ -12655,7 +12661,7 @@
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A105" s="2">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>489</v>
@@ -12681,7 +12687,7 @@
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A106" s="2">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>497</v>
@@ -12707,7 +12713,7 @@
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A107" s="2">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>490</v>
@@ -12733,7 +12739,7 @@
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A108" s="2">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>383</v>
@@ -12759,7 +12765,7 @@
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A109" s="2">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B109" s="36" t="s">
         <v>500</v>
@@ -12785,7 +12791,7 @@
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A110" s="2">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B110" s="36" t="s">
         <v>498</v>
@@ -12811,7 +12817,7 @@
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A111" s="2">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B111" s="36" t="s">
         <v>499</v>
@@ -12837,7 +12843,7 @@
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A112" s="2">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B112" s="36" t="s">
         <v>532</v>
@@ -12863,7 +12869,7 @@
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A113" s="2">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B113" s="36" t="s">
         <v>530</v>
@@ -12889,7 +12895,7 @@
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A114" s="2">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B114" s="36" t="s">
         <v>526</v>
@@ -12915,7 +12921,7 @@
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A115" s="2">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B115" s="36" t="s">
         <v>533</v>
@@ -12941,7 +12947,7 @@
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A116" s="2">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B116" s="36" t="s">
         <v>531</v>
@@ -12967,7 +12973,7 @@
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A117" s="2">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B117" s="36" t="s">
         <v>527</v>
@@ -12993,7 +12999,7 @@
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A118" s="2">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="B118" s="36" t="s">
         <v>528</v>
@@ -13019,7 +13025,7 @@
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A119" s="2">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="B119" s="36" t="s">
         <v>529</v>
@@ -13045,7 +13051,7 @@
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A120" s="2">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B120" s="36" t="s">
         <v>525</v>
@@ -13071,7 +13077,7 @@
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A121" s="2">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="B121" s="36" t="s">
         <v>534</v>
@@ -13097,7 +13103,7 @@
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A122" s="2">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>394</v>
@@ -13123,7 +13129,7 @@
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A123" s="2">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>396</v>
@@ -13149,7 +13155,7 @@
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A124" s="2">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>404</v>
@@ -13175,7 +13181,7 @@
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A125" s="2">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="B125" s="36" t="s">
         <v>411</v>
@@ -13201,7 +13207,7 @@
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A126" s="2">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="B126" s="36" t="s">
         <v>482</v>
@@ -13227,7 +13233,7 @@
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A127" s="2">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B127" s="36" t="s">
         <v>485</v>
@@ -13253,7 +13259,7 @@
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A128" s="2">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>479</v>
@@ -13279,7 +13285,7 @@
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A129" s="2">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>477</v>
@@ -13305,7 +13311,7 @@
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A130" s="2">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="B130" s="36" t="s">
         <v>481</v>
@@ -13331,7 +13337,7 @@
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A131" s="2">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B131" s="36" t="s">
         <v>480</v>
@@ -13357,7 +13363,7 @@
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A132" s="2">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="B132" s="36" t="s">
         <v>483</v>
@@ -13383,7 +13389,7 @@
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A133" s="2">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>478</v>
@@ -13409,7 +13415,7 @@
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A134" s="2">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="B134" s="36" t="s">
         <v>484</v>
@@ -13435,7 +13441,7 @@
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A135" s="2">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="B135" s="36" t="s">
         <v>486</v>
@@ -13461,7 +13467,7 @@
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A136" s="2">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="B136" s="2" t="s">
         <v>387</v>
@@ -13487,7 +13493,7 @@
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A137" s="2">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="B137" s="36" t="s">
         <v>385</v>
@@ -13512,8 +13518,8 @@
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A138" s="36">
-        <v>132</v>
+      <c r="A138" s="2">
+        <v>137</v>
       </c>
       <c r="B138" s="36" t="s">
         <v>424</v>
@@ -13538,8 +13544,8 @@
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A139" s="36">
-        <v>133</v>
+      <c r="A139" s="2">
+        <v>138</v>
       </c>
       <c r="B139" s="36" t="s">
         <v>476</v>
@@ -13564,8 +13570,8 @@
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A140" s="36">
-        <v>134</v>
+      <c r="A140" s="2">
+        <v>139</v>
       </c>
       <c r="B140" s="36" t="s">
         <v>555</v>
@@ -13590,8 +13596,8 @@
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A141" s="36">
-        <v>135</v>
+      <c r="A141" s="2">
+        <v>140</v>
       </c>
       <c r="B141" s="36" t="s">
         <v>615</v>

--- a/projection/2026_team_projection.xlsx
+++ b/projection/2026_team_projection.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="21795" windowHeight="12975" firstSheet="12" activeTab="13"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="21795" windowHeight="12975" firstSheet="12" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="KIA" sheetId="1" r:id="rId1"/>
@@ -260,7 +260,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3500" uniqueCount="1142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3505" uniqueCount="1147">
   <si>
     <t>김도영</t>
   </si>
@@ -4724,6 +4724,26 @@
   </si>
   <si>
     <t>4년 48억</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이민호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>투수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025.08.29 사회복무요원</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5410,7 +5430,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -9943,7 +9963,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+    <sheetView topLeftCell="A67" workbookViewId="0">
       <selection activeCell="E84" sqref="E84"/>
     </sheetView>
   </sheetViews>
@@ -13634,10 +13654,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:G105"/>
   <sheetViews>
-    <sheetView topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="D102" sqref="D102"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -14134,46 +14154,46 @@
       <c r="A22" s="36">
         <v>9</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>617</v>
+      <c r="B22" s="36" t="s">
+        <v>1142</v>
       </c>
       <c r="C22" s="2">
-        <v>22</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>412</v>
+        <v>25</v>
+      </c>
+      <c r="D22" s="36" t="s">
+        <v>1143</v>
+      </c>
+      <c r="E22" s="36" t="s">
+        <v>1144</v>
       </c>
       <c r="F22" s="36" t="s">
-        <v>587</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>580</v>
+        <v>1145</v>
+      </c>
+      <c r="G22" s="36" t="s">
+        <v>1146</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="36">
         <v>10</v>
       </c>
-      <c r="B23" s="36" t="s">
-        <v>621</v>
+      <c r="B23" s="2" t="s">
+        <v>617</v>
       </c>
       <c r="C23" s="2">
-        <v>20</v>
-      </c>
-      <c r="D23" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="E23" s="36" t="s">
-        <v>413</v>
+      <c r="E23" s="2" t="s">
+        <v>412</v>
       </c>
       <c r="F23" s="36" t="s">
         <v>587</v>
       </c>
-      <c r="G23" s="36" t="s">
-        <v>584</v>
+      <c r="G23" s="2" t="s">
+        <v>580</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
@@ -14181,7 +14201,7 @@
         <v>11</v>
       </c>
       <c r="B24" s="36" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="C24" s="2">
         <v>20</v>
@@ -14190,7 +14210,7 @@
         <v>198</v>
       </c>
       <c r="E24" s="36" t="s">
-        <v>386</v>
+        <v>413</v>
       </c>
       <c r="F24" s="36" t="s">
         <v>587</v>
@@ -14204,21 +14224,21 @@
         <v>12</v>
       </c>
       <c r="B25" s="36" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="C25" s="2">
-        <v>22</v>
-      </c>
-      <c r="D25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25" s="36" t="s">
         <v>198</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="E25" s="36" t="s">
         <v>386</v>
       </c>
       <c r="F25" s="36" t="s">
         <v>587</v>
       </c>
-      <c r="G25" s="2" t="s">
+      <c r="G25" s="36" t="s">
         <v>584</v>
       </c>
     </row>
@@ -14226,17 +14246,17 @@
       <c r="A26" s="36">
         <v>13</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>618</v>
+      <c r="B26" s="36" t="s">
+        <v>619</v>
       </c>
       <c r="C26" s="2">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>198</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="F26" s="36" t="s">
         <v>587</v>
@@ -14247,105 +14267,105 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="36">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>657</v>
+        <v>618</v>
       </c>
       <c r="C27" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>586</v>
+        <v>384</v>
+      </c>
+      <c r="F27" s="36" t="s">
+        <v>587</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>666</v>
+        <v>584</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="C28" s="2">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>193</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>586</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="C29" s="2">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>193</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>386</v>
+        <v>413</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>586</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>549</v>
+        <v>665</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="36">
-        <v>4</v>
-      </c>
-      <c r="B30" s="36" t="s">
-        <v>660</v>
+        <v>3</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>659</v>
       </c>
       <c r="C30" s="2">
-        <v>24</v>
-      </c>
-      <c r="D30" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="E30" s="36" t="s">
+      <c r="E30" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="F30" s="36" t="s">
+      <c r="F30" s="2" t="s">
         <v>586</v>
       </c>
-      <c r="G30" s="36" t="s">
+      <c r="G30" s="2" t="s">
         <v>549</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="36">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B31" s="36" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C31" s="2">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D31" s="36" t="s">
         <v>193</v>
@@ -14357,70 +14377,70 @@
         <v>586</v>
       </c>
       <c r="G31" s="36" t="s">
-        <v>664</v>
+        <v>549</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="36">
-        <v>6</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>658</v>
+        <v>5</v>
+      </c>
+      <c r="B32" s="36" t="s">
+        <v>661</v>
       </c>
       <c r="C32" s="2">
-        <v>21</v>
-      </c>
-      <c r="D32" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D32" s="36" t="s">
         <v>193</v>
       </c>
-      <c r="E32" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="F32" s="2" t="s">
+      <c r="E32" s="36" t="s">
+        <v>386</v>
+      </c>
+      <c r="F32" s="36" t="s">
         <v>586</v>
       </c>
-      <c r="G32" s="2" t="s">
-        <v>548</v>
+      <c r="G32" s="36" t="s">
+        <v>664</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" s="36">
-        <v>7</v>
-      </c>
-      <c r="B33" s="36" t="s">
-        <v>663</v>
+        <v>6</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>658</v>
       </c>
       <c r="C33" s="2">
         <v>21</v>
       </c>
-      <c r="D33" s="36" t="s">
+      <c r="D33" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="E33" s="36" t="s">
-        <v>412</v>
-      </c>
-      <c r="F33" s="36" t="s">
-        <v>587</v>
-      </c>
-      <c r="G33" s="36" t="s">
-        <v>584</v>
+      <c r="E33" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" s="36">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B34" s="36" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="C34" s="2">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D34" s="36" t="s">
         <v>193</v>
       </c>
       <c r="E34" s="36" t="s">
-        <v>386</v>
+        <v>412</v>
       </c>
       <c r="F34" s="36" t="s">
         <v>587</v>
@@ -14431,105 +14451,105 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" s="36">
-        <v>1</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>559</v>
+        <v>8</v>
+      </c>
+      <c r="B35" s="36" t="s">
+        <v>662</v>
       </c>
       <c r="C35" s="2">
-        <v>22</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>586</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>564</v>
+        <v>25</v>
+      </c>
+      <c r="D35" s="36" t="s">
+        <v>193</v>
+      </c>
+      <c r="E35" s="36" t="s">
+        <v>386</v>
+      </c>
+      <c r="F35" s="36" t="s">
+        <v>587</v>
+      </c>
+      <c r="G35" s="36" t="s">
+        <v>584</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" s="36">
-        <v>2</v>
-      </c>
-      <c r="B36" s="36" t="s">
-        <v>563</v>
+        <v>1</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>559</v>
       </c>
       <c r="C36" s="2">
-        <v>26</v>
-      </c>
-      <c r="D36" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="D36" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="E36" s="36" t="s">
+      <c r="E36" s="2" t="s">
         <v>412</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>586</v>
       </c>
-      <c r="G36" s="36" t="s">
-        <v>549</v>
+      <c r="G36" s="2" t="s">
+        <v>564</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" s="36">
-        <v>3</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>560</v>
+        <v>2</v>
+      </c>
+      <c r="B37" s="36" t="s">
+        <v>563</v>
       </c>
       <c r="C37" s="2">
-        <v>22</v>
-      </c>
-      <c r="D37" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D37" s="36" t="s">
         <v>195</v>
       </c>
-      <c r="E37" s="2" t="s">
-        <v>413</v>
+      <c r="E37" s="36" t="s">
+        <v>412</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>586</v>
       </c>
-      <c r="G37" s="2" t="s">
-        <v>565</v>
+      <c r="G37" s="36" t="s">
+        <v>549</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" s="36">
-        <v>4</v>
-      </c>
-      <c r="B38" s="36" t="s">
-        <v>569</v>
+        <v>3</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>560</v>
       </c>
       <c r="C38" s="2">
         <v>22</v>
       </c>
-      <c r="D38" s="36" t="s">
+      <c r="D38" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="E38" s="36" t="s">
-        <v>386</v>
+      <c r="E38" s="2" t="s">
+        <v>413</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>586</v>
       </c>
-      <c r="G38" s="36" t="s">
-        <v>568</v>
+      <c r="G38" s="2" t="s">
+        <v>565</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" s="36">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B39" s="36" t="s">
-        <v>562</v>
+        <v>569</v>
       </c>
       <c r="C39" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D39" s="36" t="s">
         <v>195</v>
@@ -14541,41 +14561,41 @@
         <v>586</v>
       </c>
       <c r="G39" s="36" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" s="36">
-        <v>6</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>561</v>
+        <v>5</v>
+      </c>
+      <c r="B40" s="36" t="s">
+        <v>562</v>
       </c>
       <c r="C40" s="2">
-        <v>24</v>
-      </c>
-      <c r="D40" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D40" s="36" t="s">
         <v>195</v>
       </c>
-      <c r="E40" s="2" t="s">
+      <c r="E40" s="36" t="s">
         <v>386</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>586</v>
       </c>
-      <c r="G40" s="2" t="s">
-        <v>566</v>
+      <c r="G40" s="36" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" s="36">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="C41" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>195</v>
@@ -14587,41 +14607,41 @@
         <v>586</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>546</v>
+        <v>566</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" s="36">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>596</v>
+        <v>558</v>
       </c>
       <c r="C42" s="2">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>195</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>412</v>
+        <v>386</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>587</v>
-      </c>
-      <c r="G42" s="36" t="s">
-        <v>584</v>
+        <v>586</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>546</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" s="36">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>591</v>
+        <v>596</v>
       </c>
       <c r="C43" s="2">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>195</v>
@@ -14632,42 +14652,42 @@
       <c r="F43" s="2" t="s">
         <v>587</v>
       </c>
-      <c r="G43" s="2" t="s">
-        <v>580</v>
+      <c r="G43" s="36" t="s">
+        <v>584</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" s="36">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="C44" s="2">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>195</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>587</v>
       </c>
-      <c r="G44" s="36" t="s">
-        <v>584</v>
+      <c r="G44" s="2" t="s">
+        <v>580</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" s="36">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="C45" s="2">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>195</v>
@@ -14684,19 +14704,19 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" s="36">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="C46" s="2">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>195</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>386</v>
+        <v>413</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>587</v>
@@ -14707,13 +14727,13 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" s="36">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="C47" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>195</v>
@@ -14730,18 +14750,18 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" s="36">
-        <v>14</v>
-      </c>
-      <c r="B48" s="36" t="s">
-        <v>588</v>
+        <v>13</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>595</v>
       </c>
       <c r="C48" s="2">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="E48" s="36" t="s">
+      <c r="E48" s="2" t="s">
         <v>386</v>
       </c>
       <c r="F48" s="2" t="s">
@@ -14753,36 +14773,36 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49" s="36">
-        <v>15</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>592</v>
+        <v>14</v>
+      </c>
+      <c r="B49" s="36" t="s">
+        <v>588</v>
       </c>
       <c r="C49" s="2">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="E49" s="2" t="s">
+      <c r="E49" s="36" t="s">
         <v>386</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>587</v>
       </c>
-      <c r="G49" s="2" t="s">
-        <v>580</v>
+      <c r="G49" s="36" t="s">
+        <v>584</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50" s="36">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="C50" s="2">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>195</v>
@@ -14793,25 +14813,25 @@
       <c r="F50" s="2" t="s">
         <v>587</v>
       </c>
-      <c r="G50" s="36" t="s">
-        <v>584</v>
+      <c r="G50" s="2" t="s">
+        <v>580</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51" s="36">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="C51" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>195</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>587</v>
@@ -14822,21 +14842,21 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52" s="36">
-        <v>18</v>
-      </c>
-      <c r="B52" s="36" t="s">
-        <v>598</v>
+        <v>17</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>597</v>
       </c>
       <c r="C52" s="2">
-        <v>20</v>
-      </c>
-      <c r="D52" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="D52" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="E52" s="36" t="s">
+      <c r="E52" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="F52" s="36" t="s">
+      <c r="F52" s="2" t="s">
         <v>587</v>
       </c>
       <c r="G52" s="36" t="s">
@@ -14845,33 +14865,33 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53" s="36">
-        <v>1</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>602</v>
+        <v>18</v>
+      </c>
+      <c r="B53" s="36" t="s">
+        <v>598</v>
       </c>
       <c r="C53" s="2">
-        <v>22</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>586</v>
-      </c>
-      <c r="G53" s="2" t="s">
-        <v>613</v>
+        <v>20</v>
+      </c>
+      <c r="D53" s="36" t="s">
+        <v>195</v>
+      </c>
+      <c r="E53" s="36" t="s">
+        <v>384</v>
+      </c>
+      <c r="F53" s="36" t="s">
+        <v>587</v>
+      </c>
+      <c r="G53" s="36" t="s">
+        <v>584</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54" s="36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C54" s="2">
         <v>22</v>
@@ -14880,7 +14900,7 @@
         <v>197</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>586</v>
@@ -14891,10 +14911,10 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55" s="36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="C55" s="2">
         <v>22</v>
@@ -14909,38 +14929,38 @@
         <v>586</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56" s="36">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="C56" s="2">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>197</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>386</v>
+        <v>413</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>586</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>549</v>
+        <v>611</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57" s="36">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C57" s="2">
         <v>24</v>
@@ -14960,13 +14980,13 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58" s="36">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="C58" s="2">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>197</v>
@@ -14978,15 +14998,15 @@
         <v>586</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>612</v>
+        <v>549</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A59" s="36">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="C59" s="2">
         <v>26</v>
@@ -14995,44 +15015,44 @@
         <v>197</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>586</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>546</v>
+        <v>612</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60" s="36">
-        <v>8</v>
-      </c>
-      <c r="B60" s="36" t="s">
-        <v>610</v>
+        <v>7</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>599</v>
       </c>
       <c r="C60" s="2">
-        <v>21</v>
-      </c>
-      <c r="D60" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="D60" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="E60" s="36" t="s">
-        <v>412</v>
-      </c>
-      <c r="F60" s="36" t="s">
-        <v>587</v>
-      </c>
-      <c r="G60" s="36" t="s">
-        <v>584</v>
+      <c r="E60" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>546</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A61" s="36">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B61" s="36" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="C61" s="2">
         <v>21</v>
@@ -15041,24 +15061,24 @@
         <v>197</v>
       </c>
       <c r="E61" s="36" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F61" s="36" t="s">
         <v>587</v>
       </c>
       <c r="G61" s="36" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A62" s="36">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B62" s="36" t="s">
-        <v>411</v>
+        <v>607</v>
       </c>
       <c r="C62" s="2">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D62" s="36" t="s">
         <v>197</v>
@@ -15070,64 +15090,64 @@
         <v>587</v>
       </c>
       <c r="G62" s="36" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A63" s="36">
-        <v>11</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>606</v>
+        <v>10</v>
+      </c>
+      <c r="B63" s="36" t="s">
+        <v>411</v>
       </c>
       <c r="C63" s="2">
-        <v>21</v>
-      </c>
-      <c r="D63" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D63" s="36" t="s">
         <v>197</v>
       </c>
-      <c r="E63" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="F63" s="2" t="s">
+      <c r="E63" s="36" t="s">
+        <v>413</v>
+      </c>
+      <c r="F63" s="36" t="s">
         <v>587</v>
       </c>
-      <c r="G63" s="2" t="s">
-        <v>580</v>
+      <c r="G63" s="36" t="s">
+        <v>584</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A64" s="36">
-        <v>12</v>
-      </c>
-      <c r="B64" s="36" t="s">
-        <v>608</v>
+        <v>11</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>606</v>
       </c>
       <c r="C64" s="2">
         <v>21</v>
       </c>
-      <c r="D64" s="36" t="s">
+      <c r="D64" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="E64" s="36" t="s">
+      <c r="E64" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="F64" s="36" t="s">
+      <c r="F64" s="2" t="s">
         <v>587</v>
       </c>
-      <c r="G64" s="36" t="s">
+      <c r="G64" s="2" t="s">
         <v>580</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A65" s="36">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B65" s="36" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C65" s="2">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D65" s="36" t="s">
         <v>197</v>
@@ -15139,64 +15159,64 @@
         <v>587</v>
       </c>
       <c r="G65" s="36" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A66" s="36">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B66" s="36" t="s">
-        <v>652</v>
+        <v>609</v>
       </c>
       <c r="C66" s="2">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D66" s="36" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E66" s="36" t="s">
-        <v>412</v>
+        <v>386</v>
       </c>
       <c r="F66" s="36" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="G66" s="36" t="s">
-        <v>655</v>
+        <v>584</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A67" s="36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B67" s="36" t="s">
-        <v>397</v>
+        <v>652</v>
       </c>
       <c r="C67" s="2">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D67" s="36" t="s">
         <v>196</v>
       </c>
-      <c r="E67" s="2" t="s">
-        <v>386</v>
+      <c r="E67" s="36" t="s">
+        <v>412</v>
       </c>
       <c r="F67" s="36" t="s">
         <v>586</v>
       </c>
-      <c r="G67" s="2" t="s">
-        <v>654</v>
+      <c r="G67" s="36" t="s">
+        <v>655</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A68" s="36">
-        <v>3</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>650</v>
+        <v>2</v>
+      </c>
+      <c r="B68" s="36" t="s">
+        <v>397</v>
       </c>
       <c r="C68" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D68" s="36" t="s">
         <v>196</v>
@@ -15208,15 +15228,15 @@
         <v>586</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>546</v>
+        <v>654</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A69" s="36">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C69" s="2">
         <v>22</v>
@@ -15231,153 +15251,153 @@
         <v>586</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A70" s="36">
-        <v>5</v>
-      </c>
-      <c r="B70" s="36" t="s">
-        <v>653</v>
+        <v>4</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>651</v>
       </c>
       <c r="C70" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D70" s="36" t="s">
         <v>196</v>
       </c>
-      <c r="E70" s="36" t="s">
+      <c r="E70" s="2" t="s">
         <v>386</v>
       </c>
       <c r="F70" s="36" t="s">
-        <v>587</v>
-      </c>
-      <c r="G70" s="36" t="s">
-        <v>580</v>
+        <v>586</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>547</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A71" s="36">
-        <v>1</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>672</v>
+        <v>5</v>
+      </c>
+      <c r="B71" s="36" t="s">
+        <v>653</v>
       </c>
       <c r="C71" s="2">
-        <v>22</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>412</v>
+        <v>20</v>
+      </c>
+      <c r="D71" s="36" t="s">
+        <v>196</v>
+      </c>
+      <c r="E71" s="36" t="s">
+        <v>386</v>
       </c>
       <c r="F71" s="36" t="s">
-        <v>586</v>
-      </c>
-      <c r="G71" s="2" t="s">
-        <v>547</v>
+        <v>587</v>
+      </c>
+      <c r="G71" s="36" t="s">
+        <v>580</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A72" s="36">
-        <v>2</v>
-      </c>
-      <c r="B72" s="36" t="s">
-        <v>679</v>
+        <v>1</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>672</v>
       </c>
       <c r="C72" s="2">
-        <v>24</v>
-      </c>
-      <c r="D72" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="D72" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="E72" s="36" t="s">
-        <v>413</v>
+      <c r="E72" s="2" t="s">
+        <v>412</v>
       </c>
       <c r="F72" s="36" t="s">
         <v>586</v>
       </c>
-      <c r="G72" s="36" t="s">
-        <v>549</v>
+      <c r="G72" s="2" t="s">
+        <v>547</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A73" s="36">
-        <v>3</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>673</v>
+        <v>2</v>
+      </c>
+      <c r="B73" s="36" t="s">
+        <v>679</v>
       </c>
       <c r="C73" s="2">
-        <v>22</v>
-      </c>
-      <c r="D73" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D73" s="36" t="s">
         <v>199</v>
       </c>
-      <c r="E73" s="2" t="s">
+      <c r="E73" s="36" t="s">
         <v>413</v>
       </c>
       <c r="F73" s="36" t="s">
         <v>586</v>
       </c>
-      <c r="G73" s="2" t="s">
-        <v>655</v>
+      <c r="G73" s="36" t="s">
+        <v>549</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A74" s="36">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="C74" s="2">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>199</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>386</v>
+        <v>413</v>
       </c>
       <c r="F74" s="36" t="s">
         <v>586</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>681</v>
+        <v>655</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A75" s="36">
-        <v>5</v>
-      </c>
-      <c r="B75" s="36" t="s">
-        <v>677</v>
+        <v>4</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>675</v>
       </c>
       <c r="C75" s="2">
-        <v>22</v>
-      </c>
-      <c r="D75" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="D75" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="E75" s="36" t="s">
+      <c r="E75" s="2" t="s">
         <v>386</v>
       </c>
       <c r="F75" s="36" t="s">
         <v>586</v>
       </c>
-      <c r="G75" s="36" t="s">
-        <v>682</v>
+      <c r="G75" s="2" t="s">
+        <v>681</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A76" s="36">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B76" s="36" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C76" s="2">
         <v>22</v>
@@ -15392,116 +15412,116 @@
         <v>586</v>
       </c>
       <c r="G76" s="36" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A77" s="36">
-        <v>7</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>674</v>
+        <v>6</v>
+      </c>
+      <c r="B77" s="36" t="s">
+        <v>678</v>
       </c>
       <c r="C77" s="2">
         <v>22</v>
       </c>
-      <c r="D77" s="2" t="s">
+      <c r="D77" s="36" t="s">
         <v>199</v>
       </c>
-      <c r="E77" s="2" t="s">
+      <c r="E77" s="36" t="s">
         <v>386</v>
       </c>
       <c r="F77" s="36" t="s">
         <v>586</v>
       </c>
-      <c r="G77" s="2" t="s">
-        <v>680</v>
+      <c r="G77" s="36" t="s">
+        <v>683</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A78" s="36">
-        <v>8</v>
-      </c>
-      <c r="B78" s="36" t="s">
-        <v>676</v>
+        <v>7</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>674</v>
       </c>
       <c r="C78" s="2">
-        <v>24</v>
-      </c>
-      <c r="D78" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="D78" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="E78" s="36" t="s">
+      <c r="E78" s="2" t="s">
         <v>386</v>
       </c>
       <c r="F78" s="36" t="s">
         <v>586</v>
       </c>
-      <c r="G78" s="36" t="s">
-        <v>632</v>
+      <c r="G78" s="2" t="s">
+        <v>680</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A79" s="36">
-        <v>9</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>671</v>
+        <v>8</v>
+      </c>
+      <c r="B79" s="36" t="s">
+        <v>676</v>
       </c>
       <c r="C79" s="2">
-        <v>25</v>
-      </c>
-      <c r="D79" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D79" s="36" t="s">
         <v>199</v>
       </c>
-      <c r="E79" s="2" t="s">
+      <c r="E79" s="36" t="s">
         <v>386</v>
       </c>
       <c r="F79" s="36" t="s">
         <v>586</v>
       </c>
-      <c r="G79" s="2" t="s">
-        <v>546</v>
+      <c r="G79" s="36" t="s">
+        <v>632</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A80" s="36">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>668</v>
+        <v>671</v>
       </c>
       <c r="C80" s="2">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>199</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>412</v>
+        <v>386</v>
       </c>
       <c r="F80" s="36" t="s">
-        <v>587</v>
-      </c>
-      <c r="G80" s="36" t="s">
-        <v>584</v>
+        <v>586</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>546</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A81" s="36">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="C81" s="2">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>199</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>386</v>
+        <v>412</v>
       </c>
       <c r="F81" s="36" t="s">
         <v>587</v>
@@ -15512,13 +15532,13 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A82" s="36">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="C82" s="2">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>199</v>
@@ -15535,13 +15555,13 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A83" s="36">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="C83" s="2">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>199</v>
@@ -15558,59 +15578,59 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A84" s="36">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>541</v>
+        <v>667</v>
       </c>
       <c r="C84" s="2">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="F84" s="2" t="s">
-        <v>586</v>
-      </c>
-      <c r="G84" s="2" t="s">
-        <v>547</v>
+        <v>386</v>
+      </c>
+      <c r="F84" s="36" t="s">
+        <v>587</v>
+      </c>
+      <c r="G84" s="36" t="s">
+        <v>584</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A85" s="36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C85" s="2">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>200</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>386</v>
+        <v>413</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>586</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A86" s="36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="C86" s="2">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>200</v>
@@ -15622,18 +15642,18 @@
         <v>586</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A87" s="36">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="C87" s="2">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>200</v>
@@ -15645,18 +15665,18 @@
         <v>586</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A88" s="36">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="C88" s="2">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>200</v>
@@ -15668,41 +15688,41 @@
         <v>586</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A89" s="36">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>636</v>
+        <v>543</v>
       </c>
       <c r="C89" s="2">
-        <v>27</v>
-      </c>
-      <c r="D89" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="D89" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="E89" s="36" t="s">
+      <c r="E89" s="2" t="s">
         <v>386</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>586</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>637</v>
+        <v>551</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A90" s="36">
-        <v>7</v>
-      </c>
-      <c r="B90" s="36" t="s">
-        <v>544</v>
+        <v>6</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>636</v>
       </c>
       <c r="C90" s="2">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D90" s="36" t="s">
         <v>200</v>
@@ -15713,19 +15733,19 @@
       <c r="F90" s="2" t="s">
         <v>586</v>
       </c>
-      <c r="G90" s="36" t="s">
-        <v>552</v>
+      <c r="G90" s="2" t="s">
+        <v>637</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A91" s="36">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B91" s="36" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C91" s="2">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D91" s="36" t="s">
         <v>200</v>
@@ -15737,38 +15757,38 @@
         <v>586</v>
       </c>
       <c r="G91" s="36" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A92" s="36">
-        <v>9</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>539</v>
+        <v>8</v>
+      </c>
+      <c r="B92" s="36" t="s">
+        <v>545</v>
       </c>
       <c r="C92" s="2">
-        <v>25</v>
-      </c>
-      <c r="D92" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D92" s="36" t="s">
         <v>200</v>
       </c>
-      <c r="E92" s="2" t="s">
-        <v>384</v>
+      <c r="E92" s="36" t="s">
+        <v>386</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>586</v>
       </c>
-      <c r="G92" s="2" t="s">
-        <v>550</v>
+      <c r="G92" s="36" t="s">
+        <v>553</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A93" s="36">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>1119</v>
+        <v>539</v>
       </c>
       <c r="C93" s="2">
         <v>25</v>
@@ -15777,70 +15797,70 @@
         <v>200</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>412</v>
+        <v>384</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>587</v>
-      </c>
-      <c r="G93" s="36" t="s">
-        <v>584</v>
+        <v>586</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>550</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A94" s="36">
-        <v>11</v>
-      </c>
-      <c r="B94" s="36" t="s">
-        <v>638</v>
+        <v>10</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>1119</v>
       </c>
       <c r="C94" s="2">
-        <v>26</v>
-      </c>
-      <c r="D94" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="D94" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="E94" s="36" t="s">
-        <v>386</v>
-      </c>
-      <c r="F94" s="36" t="s">
+      <c r="E94" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="F94" s="2" t="s">
         <v>587</v>
       </c>
       <c r="G94" s="36" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A95" s="36">
-        <v>1</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>576</v>
+        <v>11</v>
+      </c>
+      <c r="B95" s="36" t="s">
+        <v>638</v>
       </c>
       <c r="C95" s="2">
-        <v>22</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="F95" s="2" t="s">
-        <v>586</v>
-      </c>
-      <c r="G95" s="2" t="s">
-        <v>581</v>
+        <v>26</v>
+      </c>
+      <c r="D95" s="36" t="s">
+        <v>200</v>
+      </c>
+      <c r="E95" s="36" t="s">
+        <v>386</v>
+      </c>
+      <c r="F95" s="36" t="s">
+        <v>587</v>
+      </c>
+      <c r="G95" s="36" t="s">
+        <v>580</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A96" s="36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C96" s="2">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>201</v>
@@ -15852,41 +15872,41 @@
         <v>586</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>549</v>
+        <v>581</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A97" s="36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="C97" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>201</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>386</v>
+        <v>412</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>586</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>582</v>
+        <v>549</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A98" s="36">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="C98" s="2">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>201</v>
@@ -15898,18 +15918,18 @@
         <v>586</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A99" s="36">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>574</v>
+        <v>579</v>
       </c>
       <c r="C99" s="2">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>201</v>
@@ -15921,87 +15941,87 @@
         <v>586</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A100" s="36">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="C100" s="2">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D100" s="2" t="s">
         <v>201</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>586</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A101" s="36">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>573</v>
+        <v>578</v>
       </c>
       <c r="C101" s="2">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D101" s="2" t="s">
         <v>201</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>412</v>
+        <v>384</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A102" s="36">
-        <v>8</v>
-      </c>
-      <c r="B102" s="36" t="s">
-        <v>572</v>
+        <v>7</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>573</v>
       </c>
       <c r="C102" s="2">
-        <v>22</v>
-      </c>
-      <c r="D102" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="D102" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="E102" s="36" t="s">
-        <v>413</v>
-      </c>
-      <c r="F102" s="36" t="s">
+      <c r="E102" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="F102" s="2" t="s">
         <v>587</v>
       </c>
-      <c r="G102" s="36" t="s">
+      <c r="G102" s="2" t="s">
         <v>584</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A103" s="36">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B103" s="36" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="C103" s="2">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D103" s="36" t="s">
         <v>201</v>
@@ -16013,29 +16033,52 @@
         <v>587</v>
       </c>
       <c r="G103" s="36" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A104" s="36">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B104" s="36" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C104" s="2">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D104" s="36" t="s">
         <v>201</v>
       </c>
       <c r="E104" s="36" t="s">
-        <v>386</v>
+        <v>413</v>
       </c>
       <c r="F104" s="36" t="s">
         <v>587</v>
       </c>
       <c r="G104" s="36" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A105" s="36">
+        <v>10</v>
+      </c>
+      <c r="B105" s="36" t="s">
+        <v>571</v>
+      </c>
+      <c r="C105" s="2">
+        <v>24</v>
+      </c>
+      <c r="D105" s="36" t="s">
+        <v>201</v>
+      </c>
+      <c r="E105" s="36" t="s">
+        <v>386</v>
+      </c>
+      <c r="F105" s="36" t="s">
+        <v>587</v>
+      </c>
+      <c r="G105" s="36" t="s">
         <v>584</v>
       </c>
     </row>

--- a/projection/2026_team_projection.xlsx
+++ b/projection/2026_team_projection.xlsx
@@ -260,7 +260,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3505" uniqueCount="1147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3510" uniqueCount="1147">
   <si>
     <t>김도영</t>
   </si>
@@ -2224,10 +2224,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2026.06.02 상무</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2026.02.25 현역</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4372,10 +4368,6 @@
   </si>
   <si>
     <t>광주제일고-부산과학기술대</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>좌투좌티</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -4744,6 +4736,14 @@
   </si>
   <si>
     <t>2025.08.29 사회복무요원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>좌투좌타</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025.12.09 상무</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5430,7 +5430,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -9143,7 +9143,7 @@
         <v>14</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="D17" s="9" t="s">
         <v>256</v>
@@ -9164,13 +9164,13 @@
         <v>14</v>
       </c>
       <c r="M17" s="27" t="s">
+        <v>1127</v>
+      </c>
+      <c r="N17" s="9" t="s">
+        <v>1128</v>
+      </c>
+      <c r="O17" s="9" t="s">
         <v>1129</v>
-      </c>
-      <c r="N17" s="9" t="s">
-        <v>1130</v>
-      </c>
-      <c r="O17" s="9" t="s">
-        <v>1131</v>
       </c>
       <c r="P17" s="9" t="s">
         <v>227</v>
@@ -9490,7 +9490,7 @@
         <v>14</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="D26" s="9" t="s">
         <v>256</v>
@@ -9801,7 +9801,7 @@
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A34" s="33" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="B34" s="6" t="s">
         <v>194</v>
@@ -9983,7 +9983,7 @@
         <v>13</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>417</v>
@@ -10890,25 +10890,25 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="C36" s="2">
         <v>38</v>
       </c>
       <c r="D36" s="2" t="s">
+        <v>1132</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>1133</v>
+      </c>
+      <c r="F36" s="2" t="s">
         <v>1134</v>
       </c>
-      <c r="E36" s="2" t="s">
+      <c r="G36" s="2" t="s">
+        <v>1137</v>
+      </c>
+      <c r="H36" s="2" t="s">
         <v>1135</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>1136</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>1139</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>1137</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.35">
@@ -11202,7 +11202,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C48" s="2">
         <v>30</v>
@@ -11280,25 +11280,25 @@
         <v>50</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
       <c r="C51" s="2">
         <v>29</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="F51" s="2" t="s">
+        <v>1134</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>1139</v>
+      </c>
+      <c r="H51" s="2" t="s">
         <v>1136</v>
-      </c>
-      <c r="G51" s="2" t="s">
-        <v>1141</v>
-      </c>
-      <c r="H51" s="2" t="s">
-        <v>1138</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.35">
@@ -11410,7 +11410,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C56" s="2">
         <v>24</v>
@@ -11488,7 +11488,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="C59" s="2">
         <v>36</v>
@@ -11506,7 +11506,7 @@
         <v>382</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.35">
@@ -11592,7 +11592,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="C63" s="2">
         <v>29</v>
@@ -11610,7 +11610,7 @@
         <v>382</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.35">
@@ -12086,7 +12086,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="C82" s="2">
         <v>26</v>
@@ -13594,13 +13594,13 @@
         <v>139</v>
       </c>
       <c r="B140" s="36" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C140" s="2">
         <v>24</v>
       </c>
       <c r="D140" s="36" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E140" s="36" t="s">
         <v>195</v>
@@ -13620,13 +13620,13 @@
         <v>140</v>
       </c>
       <c r="B141" s="36" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C141" s="2">
         <v>26</v>
       </c>
       <c r="D141" s="36" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E141" s="36" t="s">
         <v>197</v>
@@ -13638,7 +13638,7 @@
         <v>382</v>
       </c>
       <c r="H141" s="36" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
   </sheetData>
@@ -13654,10 +13654,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G105"/>
+  <dimension ref="A1:G106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="G94" sqref="G94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -13675,16 +13675,16 @@
         <v>13</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="D1" s="36" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E1" s="36" t="s">
         <v>376</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>378</v>
@@ -13695,7 +13695,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C2" s="2">
         <v>24</v>
@@ -13707,7 +13707,7 @@
         <v>386</v>
       </c>
       <c r="F2" s="36" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>549</v>
@@ -13718,7 +13718,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C3" s="2">
         <v>23</v>
@@ -13730,10 +13730,10 @@
         <v>386</v>
       </c>
       <c r="F3" s="36" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
@@ -13741,7 +13741,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C4" s="2">
         <v>22</v>
@@ -13753,10 +13753,10 @@
         <v>386</v>
       </c>
       <c r="F4" s="36" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
@@ -13764,7 +13764,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C5" s="2">
         <v>22</v>
@@ -13776,10 +13776,10 @@
         <v>386</v>
       </c>
       <c r="F5" s="36" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
@@ -13787,7 +13787,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C6" s="2">
         <v>22</v>
@@ -13799,10 +13799,10 @@
         <v>386</v>
       </c>
       <c r="F6" s="36" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
@@ -13810,7 +13810,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="36" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C7" s="2">
         <v>21</v>
@@ -13822,10 +13822,10 @@
         <v>412</v>
       </c>
       <c r="F7" s="36" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G7" s="36" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
@@ -13833,7 +13833,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="36" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C8" s="2">
         <v>26</v>
@@ -13845,10 +13845,10 @@
         <v>386</v>
       </c>
       <c r="F8" s="36" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G8" s="36" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
@@ -13856,7 +13856,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="36" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C9" s="2">
         <v>21</v>
@@ -13868,10 +13868,10 @@
         <v>386</v>
       </c>
       <c r="F9" s="36" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G9" s="36" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
@@ -13879,7 +13879,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="36" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C10" s="2">
         <v>21</v>
@@ -13891,10 +13891,10 @@
         <v>384</v>
       </c>
       <c r="F10" s="36" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G10" s="36" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
@@ -13902,7 +13902,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C11" s="2">
         <v>26</v>
@@ -13914,7 +13914,7 @@
         <v>412</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>546</v>
@@ -13925,7 +13925,7 @@
         <v>2</v>
       </c>
       <c r="B12" s="36" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="C12" s="2">
         <v>22</v>
@@ -13937,7 +13937,7 @@
         <v>386</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>547</v>
@@ -13948,7 +13948,7 @@
         <v>3</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C13" s="2">
         <v>23</v>
@@ -13960,10 +13960,10 @@
         <v>413</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
@@ -13971,22 +13971,22 @@
         <v>1</v>
       </c>
       <c r="B14" s="36" t="s">
-        <v>625</v>
+        <v>1140</v>
       </c>
       <c r="C14" s="2">
         <v>25</v>
       </c>
       <c r="D14" s="36" t="s">
-        <v>198</v>
+        <v>1141</v>
       </c>
       <c r="E14" s="36" t="s">
-        <v>412</v>
+        <v>1142</v>
       </c>
       <c r="F14" s="36" t="s">
-        <v>586</v>
+        <v>1143</v>
       </c>
       <c r="G14" s="36" t="s">
-        <v>632</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
@@ -13994,22 +13994,22 @@
         <v>2</v>
       </c>
       <c r="B15" s="36" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="C15" s="2">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D15" s="36" t="s">
         <v>198</v>
       </c>
       <c r="E15" s="36" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F15" s="36" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="G15" s="36" t="s">
-        <v>546</v>
+        <v>631</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
@@ -14017,10 +14017,10 @@
         <v>3</v>
       </c>
       <c r="B16" s="36" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="C16" s="2">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D16" s="36" t="s">
         <v>198</v>
@@ -14029,10 +14029,10 @@
         <v>413</v>
       </c>
       <c r="F16" s="36" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="G16" s="36" t="s">
-        <v>630</v>
+        <v>546</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
@@ -14040,22 +14040,22 @@
         <v>4</v>
       </c>
       <c r="B17" s="36" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="C17" s="2">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D17" s="36" t="s">
         <v>198</v>
       </c>
       <c r="E17" s="36" t="s">
-        <v>386</v>
+        <v>413</v>
       </c>
       <c r="F17" s="36" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="G17" s="36" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
@@ -14063,10 +14063,10 @@
         <v>5</v>
       </c>
       <c r="B18" s="36" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="C18" s="2">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D18" s="36" t="s">
         <v>198</v>
@@ -14075,10 +14075,10 @@
         <v>386</v>
       </c>
       <c r="F18" s="36" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="G18" s="36" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
@@ -14086,10 +14086,10 @@
         <v>6</v>
       </c>
       <c r="B19" s="36" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="C19" s="2">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D19" s="36" t="s">
         <v>198</v>
@@ -14098,10 +14098,10 @@
         <v>386</v>
       </c>
       <c r="F19" s="36" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="G19" s="36" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
@@ -14109,10 +14109,10 @@
         <v>7</v>
       </c>
       <c r="B20" s="36" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="C20" s="2">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D20" s="36" t="s">
         <v>198</v>
@@ -14121,10 +14121,10 @@
         <v>386</v>
       </c>
       <c r="F20" s="36" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="G20" s="36" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
@@ -14132,22 +14132,22 @@
         <v>8</v>
       </c>
       <c r="B21" s="36" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="C21" s="2">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D21" s="36" t="s">
         <v>198</v>
       </c>
       <c r="E21" s="36" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="F21" s="36" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="G21" s="36" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
@@ -14155,68 +14155,68 @@
         <v>9</v>
       </c>
       <c r="B22" s="36" t="s">
-        <v>1142</v>
+        <v>628</v>
       </c>
       <c r="C22" s="2">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D22" s="36" t="s">
-        <v>1143</v>
+        <v>198</v>
       </c>
       <c r="E22" s="36" t="s">
-        <v>1144</v>
+        <v>384</v>
       </c>
       <c r="F22" s="36" t="s">
-        <v>1145</v>
+        <v>585</v>
       </c>
       <c r="G22" s="36" t="s">
-        <v>1146</v>
+        <v>634</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="36">
         <v>10</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>617</v>
+      <c r="B23" s="36" t="s">
+        <v>1140</v>
       </c>
       <c r="C23" s="2">
-        <v>22</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>412</v>
+        <v>25</v>
+      </c>
+      <c r="D23" s="36" t="s">
+        <v>1141</v>
+      </c>
+      <c r="E23" s="36" t="s">
+        <v>1142</v>
       </c>
       <c r="F23" s="36" t="s">
-        <v>587</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>580</v>
+        <v>1143</v>
+      </c>
+      <c r="G23" s="36" t="s">
+        <v>1144</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="36">
         <v>11</v>
       </c>
-      <c r="B24" s="36" t="s">
-        <v>621</v>
+      <c r="B24" s="2" t="s">
+        <v>616</v>
       </c>
       <c r="C24" s="2">
-        <v>20</v>
-      </c>
-      <c r="D24" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="E24" s="36" t="s">
-        <v>413</v>
+      <c r="E24" s="2" t="s">
+        <v>412</v>
       </c>
       <c r="F24" s="36" t="s">
-        <v>587</v>
-      </c>
-      <c r="G24" s="36" t="s">
-        <v>584</v>
+        <v>586</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>579</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
@@ -14233,13 +14233,13 @@
         <v>198</v>
       </c>
       <c r="E25" s="36" t="s">
-        <v>386</v>
+        <v>413</v>
       </c>
       <c r="F25" s="36" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G25" s="36" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
@@ -14250,85 +14250,85 @@
         <v>619</v>
       </c>
       <c r="C26" s="2">
-        <v>22</v>
-      </c>
-      <c r="D26" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" s="36" t="s">
         <v>198</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="E26" s="36" t="s">
         <v>386</v>
       </c>
       <c r="F26" s="36" t="s">
-        <v>587</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>584</v>
+        <v>586</v>
+      </c>
+      <c r="G26" s="36" t="s">
+        <v>583</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="36">
         <v>14</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="36" t="s">
         <v>618</v>
       </c>
       <c r="C27" s="2">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>198</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="F27" s="36" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="36">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>657</v>
+        <v>617</v>
       </c>
       <c r="C28" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="F28" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="F28" s="36" t="s">
         <v>586</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>666</v>
+        <v>583</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>656</v>
       </c>
       <c r="C29" s="2">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>193</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>665</v>
@@ -14336,59 +14336,59 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="C30" s="2">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>193</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>386</v>
+        <v>413</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>549</v>
+        <v>664</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="36">
-        <v>4</v>
-      </c>
-      <c r="B31" s="36" t="s">
-        <v>660</v>
+        <v>3</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>658</v>
       </c>
       <c r="C31" s="2">
-        <v>24</v>
-      </c>
-      <c r="D31" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="E31" s="36" t="s">
+      <c r="E31" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="F31" s="36" t="s">
-        <v>586</v>
-      </c>
-      <c r="G31" s="36" t="s">
+      <c r="F31" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="G31" s="2" t="s">
         <v>549</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="36">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B32" s="36" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="C32" s="2">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D32" s="36" t="s">
         <v>193</v>
@@ -14397,182 +14397,182 @@
         <v>386</v>
       </c>
       <c r="F32" s="36" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="G32" s="36" t="s">
-        <v>664</v>
+        <v>549</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" s="36">
-        <v>6</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>658</v>
+        <v>5</v>
+      </c>
+      <c r="B33" s="36" t="s">
+        <v>660</v>
       </c>
       <c r="C33" s="2">
-        <v>21</v>
-      </c>
-      <c r="D33" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D33" s="36" t="s">
         <v>193</v>
       </c>
-      <c r="E33" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>586</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>548</v>
+      <c r="E33" s="36" t="s">
+        <v>386</v>
+      </c>
+      <c r="F33" s="36" t="s">
+        <v>585</v>
+      </c>
+      <c r="G33" s="36" t="s">
+        <v>663</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" s="36">
-        <v>7</v>
-      </c>
-      <c r="B34" s="36" t="s">
-        <v>663</v>
+        <v>6</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>657</v>
       </c>
       <c r="C34" s="2">
         <v>21</v>
       </c>
-      <c r="D34" s="36" t="s">
+      <c r="D34" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="E34" s="36" t="s">
-        <v>412</v>
-      </c>
-      <c r="F34" s="36" t="s">
-        <v>587</v>
-      </c>
-      <c r="G34" s="36" t="s">
-        <v>584</v>
+      <c r="E34" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" s="36">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B35" s="36" t="s">
         <v>662</v>
       </c>
       <c r="C35" s="2">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D35" s="36" t="s">
         <v>193</v>
       </c>
       <c r="E35" s="36" t="s">
-        <v>386</v>
+        <v>412</v>
       </c>
       <c r="F35" s="36" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G35" s="36" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" s="36">
-        <v>1</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>559</v>
+        <v>8</v>
+      </c>
+      <c r="B36" s="36" t="s">
+        <v>661</v>
       </c>
       <c r="C36" s="2">
-        <v>22</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="F36" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D36" s="36" t="s">
+        <v>193</v>
+      </c>
+      <c r="E36" s="36" t="s">
+        <v>386</v>
+      </c>
+      <c r="F36" s="36" t="s">
         <v>586</v>
       </c>
-      <c r="G36" s="2" t="s">
-        <v>564</v>
+      <c r="G36" s="36" t="s">
+        <v>583</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" s="36">
-        <v>2</v>
-      </c>
-      <c r="B37" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="C37" s="2">
+        <v>22</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="G37" s="2" t="s">
         <v>563</v>
-      </c>
-      <c r="C37" s="2">
-        <v>26</v>
-      </c>
-      <c r="D37" s="36" t="s">
-        <v>195</v>
-      </c>
-      <c r="E37" s="36" t="s">
-        <v>412</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>586</v>
-      </c>
-      <c r="G37" s="36" t="s">
-        <v>549</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" s="36">
-        <v>3</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>560</v>
+        <v>2</v>
+      </c>
+      <c r="B38" s="36" t="s">
+        <v>562</v>
       </c>
       <c r="C38" s="2">
-        <v>22</v>
-      </c>
-      <c r="D38" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D38" s="36" t="s">
         <v>195</v>
       </c>
-      <c r="E38" s="2" t="s">
-        <v>413</v>
+      <c r="E38" s="36" t="s">
+        <v>412</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>586</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>565</v>
+        <v>585</v>
+      </c>
+      <c r="G38" s="36" t="s">
+        <v>549</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" s="36">
-        <v>4</v>
-      </c>
-      <c r="B39" s="36" t="s">
-        <v>569</v>
+        <v>3</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>559</v>
       </c>
       <c r="C39" s="2">
         <v>22</v>
       </c>
-      <c r="D39" s="36" t="s">
+      <c r="D39" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="E39" s="36" t="s">
-        <v>386</v>
+      <c r="E39" s="2" t="s">
+        <v>413</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>586</v>
-      </c>
-      <c r="G39" s="36" t="s">
-        <v>568</v>
+        <v>585</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>564</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" s="36">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B40" s="36" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
       <c r="C40" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D40" s="36" t="s">
         <v>195</v>
@@ -14581,7 +14581,7 @@
         <v>386</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="G40" s="36" t="s">
         <v>567</v>
@@ -14589,36 +14589,36 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" s="36">
-        <v>6</v>
-      </c>
-      <c r="B41" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B41" s="36" t="s">
         <v>561</v>
       </c>
       <c r="C41" s="2">
-        <v>24</v>
-      </c>
-      <c r="D41" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D41" s="36" t="s">
         <v>195</v>
       </c>
-      <c r="E41" s="2" t="s">
+      <c r="E41" s="36" t="s">
         <v>386</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>586</v>
-      </c>
-      <c r="G41" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="G41" s="36" t="s">
         <v>566</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" s="36">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="C42" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>195</v>
@@ -14627,44 +14627,44 @@
         <v>386</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>546</v>
+        <v>565</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" s="36">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>596</v>
+        <v>557</v>
       </c>
       <c r="C43" s="2">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>195</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>412</v>
+        <v>386</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>587</v>
-      </c>
-      <c r="G43" s="36" t="s">
-        <v>584</v>
+        <v>585</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>546</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" s="36">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="C44" s="2">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>195</v>
@@ -14673,44 +14673,44 @@
         <v>412</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>587</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>580</v>
+        <v>586</v>
+      </c>
+      <c r="G44" s="36" t="s">
+        <v>583</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" s="36">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>590</v>
       </c>
       <c r="C45" s="2">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>195</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>587</v>
-      </c>
-      <c r="G45" s="36" t="s">
-        <v>584</v>
+        <v>586</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>579</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" s="36">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>589</v>
       </c>
       <c r="C46" s="2">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>195</v>
@@ -14719,44 +14719,44 @@
         <v>413</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G46" s="36" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" s="36">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="C47" s="2">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>195</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>386</v>
+        <v>413</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G47" s="36" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" s="36">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="C48" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>195</v>
@@ -14765,67 +14765,67 @@
         <v>386</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G48" s="36" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49" s="36">
-        <v>14</v>
-      </c>
-      <c r="B49" s="36" t="s">
-        <v>588</v>
+        <v>13</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>594</v>
       </c>
       <c r="C49" s="2">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="E49" s="36" t="s">
+      <c r="E49" s="2" t="s">
         <v>386</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G49" s="36" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50" s="36">
-        <v>15</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>592</v>
+        <v>14</v>
+      </c>
+      <c r="B50" s="36" t="s">
+        <v>587</v>
       </c>
       <c r="C50" s="2">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="E50" s="2" t="s">
+      <c r="E50" s="36" t="s">
         <v>386</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>587</v>
-      </c>
-      <c r="G50" s="2" t="s">
-        <v>580</v>
+        <v>586</v>
+      </c>
+      <c r="G50" s="36" t="s">
+        <v>583</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51" s="36">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="C51" s="2">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>195</v>
@@ -14834,87 +14834,87 @@
         <v>386</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>587</v>
-      </c>
-      <c r="G51" s="36" t="s">
-        <v>584</v>
+        <v>586</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>579</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52" s="36">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="C52" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>195</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G52" s="36" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53" s="36">
-        <v>18</v>
-      </c>
-      <c r="B53" s="36" t="s">
-        <v>598</v>
+        <v>17</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>596</v>
       </c>
       <c r="C53" s="2">
-        <v>20</v>
-      </c>
-      <c r="D53" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="D53" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="E53" s="36" t="s">
+      <c r="E53" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="F53" s="36" t="s">
-        <v>587</v>
+      <c r="F53" s="2" t="s">
+        <v>586</v>
       </c>
       <c r="G53" s="36" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54" s="36">
-        <v>1</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>602</v>
+        <v>18</v>
+      </c>
+      <c r="B54" s="36" t="s">
+        <v>597</v>
       </c>
       <c r="C54" s="2">
-        <v>22</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="F54" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D54" s="36" t="s">
+        <v>195</v>
+      </c>
+      <c r="E54" s="36" t="s">
+        <v>384</v>
+      </c>
+      <c r="F54" s="36" t="s">
         <v>586</v>
       </c>
-      <c r="G54" s="2" t="s">
-        <v>613</v>
+      <c r="G54" s="36" t="s">
+        <v>583</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55" s="36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C55" s="2">
         <v>22</v>
@@ -14923,21 +14923,21 @@
         <v>197</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56" s="36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="C56" s="2">
         <v>22</v>
@@ -14949,41 +14949,41 @@
         <v>413</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57" s="36">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="C57" s="2">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>197</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>386</v>
+        <v>413</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>549</v>
+        <v>610</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58" s="36">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="C58" s="2">
         <v>24</v>
@@ -14995,7 +14995,7 @@
         <v>386</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>549</v>
@@ -15003,13 +15003,13 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A59" s="36">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="C59" s="2">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>197</v>
@@ -15018,18 +15018,18 @@
         <v>386</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>612</v>
+        <v>549</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60" s="36">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="C60" s="2">
         <v>26</v>
@@ -15038,44 +15038,44 @@
         <v>197</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>546</v>
+        <v>611</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A61" s="36">
-        <v>8</v>
-      </c>
-      <c r="B61" s="36" t="s">
-        <v>610</v>
+        <v>7</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>598</v>
       </c>
       <c r="C61" s="2">
-        <v>21</v>
-      </c>
-      <c r="D61" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="D61" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="E61" s="36" t="s">
-        <v>412</v>
-      </c>
-      <c r="F61" s="36" t="s">
-        <v>587</v>
-      </c>
-      <c r="G61" s="36" t="s">
-        <v>584</v>
+      <c r="E61" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>546</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A62" s="36">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B62" s="36" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="C62" s="2">
         <v>21</v>
@@ -15084,24 +15084,24 @@
         <v>197</v>
       </c>
       <c r="E62" s="36" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F62" s="36" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G62" s="36" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A63" s="36">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B63" s="36" t="s">
-        <v>411</v>
+        <v>606</v>
       </c>
       <c r="C63" s="2">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D63" s="36" t="s">
         <v>197</v>
@@ -15110,67 +15110,67 @@
         <v>413</v>
       </c>
       <c r="F63" s="36" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G63" s="36" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A64" s="36">
-        <v>11</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>606</v>
+        <v>10</v>
+      </c>
+      <c r="B64" s="36" t="s">
+        <v>411</v>
       </c>
       <c r="C64" s="2">
-        <v>21</v>
-      </c>
-      <c r="D64" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D64" s="36" t="s">
         <v>197</v>
       </c>
-      <c r="E64" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>587</v>
-      </c>
-      <c r="G64" s="2" t="s">
-        <v>580</v>
+      <c r="E64" s="36" t="s">
+        <v>413</v>
+      </c>
+      <c r="F64" s="36" t="s">
+        <v>586</v>
+      </c>
+      <c r="G64" s="36" t="s">
+        <v>583</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A65" s="36">
-        <v>12</v>
-      </c>
-      <c r="B65" s="36" t="s">
-        <v>608</v>
+        <v>11</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>605</v>
       </c>
       <c r="C65" s="2">
         <v>21</v>
       </c>
-      <c r="D65" s="36" t="s">
+      <c r="D65" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="E65" s="36" t="s">
+      <c r="E65" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="F65" s="36" t="s">
-        <v>587</v>
-      </c>
-      <c r="G65" s="36" t="s">
-        <v>580</v>
+      <c r="F65" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>579</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A66" s="36">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B66" s="36" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="C66" s="2">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D66" s="36" t="s">
         <v>197</v>
@@ -15179,67 +15179,67 @@
         <v>386</v>
       </c>
       <c r="F66" s="36" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G66" s="36" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A67" s="36">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B67" s="36" t="s">
-        <v>652</v>
+        <v>608</v>
       </c>
       <c r="C67" s="2">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D67" s="36" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E67" s="36" t="s">
-        <v>412</v>
+        <v>386</v>
       </c>
       <c r="F67" s="36" t="s">
         <v>586</v>
       </c>
       <c r="G67" s="36" t="s">
-        <v>655</v>
+        <v>583</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A68" s="36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B68" s="36" t="s">
-        <v>397</v>
+        <v>651</v>
       </c>
       <c r="C68" s="2">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D68" s="36" t="s">
         <v>196</v>
       </c>
-      <c r="E68" s="2" t="s">
-        <v>386</v>
+      <c r="E68" s="36" t="s">
+        <v>412</v>
       </c>
       <c r="F68" s="36" t="s">
-        <v>586</v>
-      </c>
-      <c r="G68" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="G68" s="36" t="s">
         <v>654</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A69" s="36">
-        <v>3</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>650</v>
+        <v>2</v>
+      </c>
+      <c r="B69" s="36" t="s">
+        <v>397</v>
       </c>
       <c r="C69" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D69" s="36" t="s">
         <v>196</v>
@@ -15248,18 +15248,18 @@
         <v>386</v>
       </c>
       <c r="F69" s="36" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>546</v>
+        <v>653</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A70" s="36">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="C70" s="2">
         <v>22</v>
@@ -15271,156 +15271,156 @@
         <v>386</v>
       </c>
       <c r="F70" s="36" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A71" s="36">
-        <v>5</v>
-      </c>
-      <c r="B71" s="36" t="s">
-        <v>653</v>
+        <v>4</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>650</v>
       </c>
       <c r="C71" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D71" s="36" t="s">
         <v>196</v>
       </c>
-      <c r="E71" s="36" t="s">
+      <c r="E71" s="2" t="s">
         <v>386</v>
       </c>
       <c r="F71" s="36" t="s">
-        <v>587</v>
-      </c>
-      <c r="G71" s="36" t="s">
-        <v>580</v>
+        <v>585</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>547</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A72" s="36">
-        <v>1</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>672</v>
+        <v>5</v>
+      </c>
+      <c r="B72" s="36" t="s">
+        <v>652</v>
       </c>
       <c r="C72" s="2">
-        <v>22</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>412</v>
+        <v>20</v>
+      </c>
+      <c r="D72" s="36" t="s">
+        <v>196</v>
+      </c>
+      <c r="E72" s="36" t="s">
+        <v>386</v>
       </c>
       <c r="F72" s="36" t="s">
         <v>586</v>
       </c>
-      <c r="G72" s="2" t="s">
-        <v>547</v>
+      <c r="G72" s="36" t="s">
+        <v>579</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A73" s="36">
-        <v>2</v>
-      </c>
-      <c r="B73" s="36" t="s">
-        <v>679</v>
+        <v>1</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>671</v>
       </c>
       <c r="C73" s="2">
-        <v>24</v>
-      </c>
-      <c r="D73" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="D73" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="E73" s="36" t="s">
-        <v>413</v>
+      <c r="E73" s="2" t="s">
+        <v>412</v>
       </c>
       <c r="F73" s="36" t="s">
-        <v>586</v>
-      </c>
-      <c r="G73" s="36" t="s">
-        <v>549</v>
+        <v>585</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>547</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A74" s="36">
-        <v>3</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>673</v>
+        <v>2</v>
+      </c>
+      <c r="B74" s="36" t="s">
+        <v>678</v>
       </c>
       <c r="C74" s="2">
-        <v>22</v>
-      </c>
-      <c r="D74" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D74" s="36" t="s">
         <v>199</v>
       </c>
-      <c r="E74" s="2" t="s">
+      <c r="E74" s="36" t="s">
         <v>413</v>
       </c>
       <c r="F74" s="36" t="s">
-        <v>586</v>
-      </c>
-      <c r="G74" s="2" t="s">
-        <v>655</v>
+        <v>585</v>
+      </c>
+      <c r="G74" s="36" t="s">
+        <v>549</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A75" s="36">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="C75" s="2">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>199</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>386</v>
+        <v>413</v>
       </c>
       <c r="F75" s="36" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>681</v>
+        <v>654</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A76" s="36">
-        <v>5</v>
-      </c>
-      <c r="B76" s="36" t="s">
-        <v>677</v>
+        <v>4</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>674</v>
       </c>
       <c r="C76" s="2">
-        <v>22</v>
-      </c>
-      <c r="D76" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="D76" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="E76" s="36" t="s">
+      <c r="E76" s="2" t="s">
         <v>386</v>
       </c>
       <c r="F76" s="36" t="s">
-        <v>586</v>
-      </c>
-      <c r="G76" s="36" t="s">
-        <v>682</v>
+        <v>585</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>680</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A77" s="36">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B77" s="36" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="C77" s="2">
         <v>22</v>
@@ -15432,136 +15432,136 @@
         <v>386</v>
       </c>
       <c r="F77" s="36" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="G77" s="36" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A78" s="36">
-        <v>7</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>674</v>
+        <v>6</v>
+      </c>
+      <c r="B78" s="36" t="s">
+        <v>677</v>
       </c>
       <c r="C78" s="2">
         <v>22</v>
       </c>
-      <c r="D78" s="2" t="s">
+      <c r="D78" s="36" t="s">
         <v>199</v>
       </c>
-      <c r="E78" s="2" t="s">
+      <c r="E78" s="36" t="s">
         <v>386</v>
       </c>
       <c r="F78" s="36" t="s">
-        <v>586</v>
-      </c>
-      <c r="G78" s="2" t="s">
-        <v>680</v>
+        <v>585</v>
+      </c>
+      <c r="G78" s="36" t="s">
+        <v>682</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A79" s="36">
-        <v>8</v>
-      </c>
-      <c r="B79" s="36" t="s">
-        <v>676</v>
+        <v>7</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>673</v>
       </c>
       <c r="C79" s="2">
-        <v>24</v>
-      </c>
-      <c r="D79" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="D79" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="E79" s="36" t="s">
+      <c r="E79" s="2" t="s">
         <v>386</v>
       </c>
       <c r="F79" s="36" t="s">
-        <v>586</v>
-      </c>
-      <c r="G79" s="36" t="s">
-        <v>632</v>
+        <v>585</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>679</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A80" s="36">
-        <v>9</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>671</v>
+        <v>8</v>
+      </c>
+      <c r="B80" s="36" t="s">
+        <v>675</v>
       </c>
       <c r="C80" s="2">
-        <v>25</v>
-      </c>
-      <c r="D80" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D80" s="36" t="s">
         <v>199</v>
       </c>
-      <c r="E80" s="2" t="s">
+      <c r="E80" s="36" t="s">
         <v>386</v>
       </c>
       <c r="F80" s="36" t="s">
-        <v>586</v>
-      </c>
-      <c r="G80" s="2" t="s">
-        <v>546</v>
+        <v>585</v>
+      </c>
+      <c r="G80" s="36" t="s">
+        <v>631</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A81" s="36">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="C81" s="2">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>199</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>412</v>
+        <v>386</v>
       </c>
       <c r="F81" s="36" t="s">
-        <v>587</v>
-      </c>
-      <c r="G81" s="36" t="s">
-        <v>584</v>
+        <v>585</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>546</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A82" s="36">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="C82" s="2">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>199</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>386</v>
+        <v>412</v>
       </c>
       <c r="F82" s="36" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G82" s="36" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A83" s="36">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>669</v>
       </c>
       <c r="C83" s="2">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>199</v>
@@ -15570,21 +15570,21 @@
         <v>386</v>
       </c>
       <c r="F83" s="36" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G83" s="36" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A84" s="36">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="C84" s="2">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>199</v>
@@ -15593,84 +15593,84 @@
         <v>386</v>
       </c>
       <c r="F84" s="36" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G84" s="36" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A85" s="36">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>541</v>
+        <v>666</v>
       </c>
       <c r="C85" s="2">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="F85" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="F85" s="36" t="s">
         <v>586</v>
       </c>
-      <c r="G85" s="2" t="s">
-        <v>547</v>
+      <c r="G85" s="36" t="s">
+        <v>583</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A86" s="36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>542</v>
+        <v>635</v>
       </c>
       <c r="C86" s="2">
-        <v>29</v>
-      </c>
-      <c r="D86" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D86" s="36" t="s">
         <v>200</v>
       </c>
-      <c r="E86" s="2" t="s">
+      <c r="E86" s="36" t="s">
         <v>386</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>548</v>
+        <v>636</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A87" s="36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="C87" s="2">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>200</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>386</v>
+        <v>413</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>549</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A88" s="36">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>540</v>
@@ -15685,15 +15685,15 @@
         <v>386</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="G88" s="2" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A89" s="36">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>543</v>
@@ -15708,21 +15708,21 @@
         <v>386</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A90" s="36">
-        <v>6</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>636</v>
+        <v>5</v>
+      </c>
+      <c r="B90" s="36" t="s">
+        <v>544</v>
       </c>
       <c r="C90" s="2">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D90" s="36" t="s">
         <v>200</v>
@@ -15731,38 +15731,38 @@
         <v>386</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>586</v>
-      </c>
-      <c r="G90" s="2" t="s">
-        <v>637</v>
+        <v>585</v>
+      </c>
+      <c r="G90" s="36" t="s">
+        <v>551</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A91" s="36">
-        <v>7</v>
-      </c>
-      <c r="B91" s="36" t="s">
-        <v>544</v>
+        <v>6</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>542</v>
       </c>
       <c r="C91" s="2">
-        <v>24</v>
-      </c>
-      <c r="D91" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="D91" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="E91" s="36" t="s">
+      <c r="E91" s="2" t="s">
         <v>386</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>586</v>
-      </c>
-      <c r="G91" s="36" t="s">
-        <v>552</v>
+        <v>585</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A92" s="36">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B92" s="36" t="s">
         <v>545</v>
@@ -15777,18 +15777,18 @@
         <v>386</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="G92" s="36" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A93" s="36">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C93" s="2">
         <v>25</v>
@@ -15797,21 +15797,21 @@
         <v>200</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A94" s="36">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>1119</v>
+        <v>539</v>
       </c>
       <c r="C94" s="2">
         <v>25</v>
@@ -15820,70 +15820,70 @@
         <v>200</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>412</v>
+        <v>384</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>587</v>
-      </c>
-      <c r="G94" s="36" t="s">
-        <v>584</v>
+        <v>585</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>549</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A95" s="36">
-        <v>11</v>
-      </c>
-      <c r="B95" s="36" t="s">
-        <v>638</v>
+        <v>10</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>1117</v>
       </c>
       <c r="C95" s="2">
-        <v>26</v>
-      </c>
-      <c r="D95" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="D95" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="E95" s="36" t="s">
-        <v>386</v>
-      </c>
-      <c r="F95" s="36" t="s">
-        <v>587</v>
+      <c r="E95" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>586</v>
       </c>
       <c r="G95" s="36" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A96" s="36">
-        <v>1</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>576</v>
+        <v>11</v>
+      </c>
+      <c r="B96" s="36" t="s">
+        <v>637</v>
       </c>
       <c r="C96" s="2">
-        <v>22</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="F96" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D96" s="36" t="s">
+        <v>200</v>
+      </c>
+      <c r="E96" s="36" t="s">
+        <v>386</v>
+      </c>
+      <c r="F96" s="36" t="s">
         <v>586</v>
       </c>
-      <c r="G96" s="2" t="s">
-        <v>581</v>
+      <c r="G96" s="36" t="s">
+        <v>579</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A97" s="36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="C97" s="2">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>201</v>
@@ -15892,44 +15892,44 @@
         <v>412</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>549</v>
+        <v>580</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A98" s="36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="C98" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>201</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>386</v>
+        <v>412</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>582</v>
+        <v>549</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A99" s="36">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="C99" s="2">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>201</v>
@@ -15938,21 +15938,21 @@
         <v>386</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A100" s="36">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="C100" s="2">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D100" s="2" t="s">
         <v>201</v>
@@ -15961,90 +15961,90 @@
         <v>386</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A101" s="36">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="C101" s="2">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D101" s="2" t="s">
         <v>201</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A102" s="36">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="C102" s="2">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D102" s="2" t="s">
         <v>201</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>412</v>
+        <v>384</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A103" s="36">
-        <v>8</v>
-      </c>
-      <c r="B103" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="B103" s="2" t="s">
         <v>572</v>
       </c>
       <c r="C103" s="2">
-        <v>22</v>
-      </c>
-      <c r="D103" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="D103" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="E103" s="36" t="s">
-        <v>413</v>
-      </c>
-      <c r="F103" s="36" t="s">
-        <v>587</v>
-      </c>
-      <c r="G103" s="36" t="s">
-        <v>584</v>
+      <c r="E103" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>583</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A104" s="36">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B104" s="36" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="C104" s="2">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D104" s="36" t="s">
         <v>201</v>
@@ -16053,33 +16053,56 @@
         <v>413</v>
       </c>
       <c r="F104" s="36" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G104" s="36" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A105" s="36">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B105" s="36" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C105" s="2">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D105" s="36" t="s">
         <v>201</v>
       </c>
       <c r="E105" s="36" t="s">
+        <v>413</v>
+      </c>
+      <c r="F105" s="36" t="s">
+        <v>586</v>
+      </c>
+      <c r="G105" s="36" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A106" s="36">
+        <v>10</v>
+      </c>
+      <c r="B106" s="36" t="s">
+        <v>570</v>
+      </c>
+      <c r="C106" s="2">
+        <v>24</v>
+      </c>
+      <c r="D106" s="36" t="s">
+        <v>201</v>
+      </c>
+      <c r="E106" s="36" t="s">
         <v>386</v>
       </c>
-      <c r="F105" s="36" t="s">
-        <v>587</v>
-      </c>
-      <c r="G105" s="36" t="s">
-        <v>584</v>
+      <c r="F106" s="36" t="s">
+        <v>586</v>
+      </c>
+      <c r="G106" s="36" t="s">
+        <v>583</v>
       </c>
     </row>
   </sheetData>
@@ -16126,19 +16149,19 @@
         <v>13</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="E1" s="36" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="F1" s="36" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>417</v>
@@ -16155,34 +16178,34 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E2" s="2">
         <v>27</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>386</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
@@ -16190,34 +16213,34 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E3" s="2">
         <v>33</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="G3" s="36" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>386</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
@@ -16225,34 +16248,34 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E4" s="2">
         <v>32</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
@@ -16260,34 +16283,34 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>694</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>695</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>696</v>
       </c>
       <c r="E5" s="2">
         <v>26</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="G5" s="2" t="s">
+        <v>701</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>702</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>703</v>
-      </c>
       <c r="I5" s="2" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>386</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
@@ -16295,34 +16318,34 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E6" s="2">
         <v>28</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>386</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
@@ -16330,34 +16353,34 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E7" s="2">
         <v>31</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
@@ -16365,34 +16388,34 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="E8" s="2">
         <v>27</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="G8" s="2" t="s">
+        <v>701</v>
+      </c>
+      <c r="H8" s="2" t="s">
         <v>702</v>
       </c>
-      <c r="H8" s="2" t="s">
-        <v>703</v>
-      </c>
       <c r="I8" s="2" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>386</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
@@ -16400,34 +16423,34 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>717</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>718</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>719</v>
       </c>
       <c r="E9" s="2">
         <v>29</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="G9" s="2" t="s">
+        <v>701</v>
+      </c>
+      <c r="H9" s="2" t="s">
         <v>702</v>
       </c>
-      <c r="H9" s="2" t="s">
-        <v>703</v>
-      </c>
       <c r="I9" s="2" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>386</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
@@ -16435,34 +16458,34 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E10" s="2">
         <v>32</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>386</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
@@ -16470,34 +16493,34 @@
         <v>10</v>
       </c>
       <c r="B11" s="36" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="C11" s="36" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="D11" s="36" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E11" s="2">
         <v>29</v>
       </c>
       <c r="F11" s="36" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="G11" s="36" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="I11" s="36" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="J11" s="36" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="K11" s="36" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
@@ -16505,34 +16528,34 @@
         <v>11</v>
       </c>
       <c r="B12" s="36" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="C12" s="36" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="D12" s="36" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="E12" s="2">
         <v>32</v>
       </c>
       <c r="F12" s="36" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="G12" s="36" t="s">
+        <v>701</v>
+      </c>
+      <c r="H12" s="2" t="s">
         <v>702</v>
       </c>
-      <c r="H12" s="2" t="s">
-        <v>703</v>
-      </c>
       <c r="I12" s="36" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="J12" s="36" t="s">
         <v>386</v>
       </c>
       <c r="K12" s="36" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
@@ -16540,34 +16563,34 @@
         <v>12</v>
       </c>
       <c r="B13" s="36" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="C13" s="36" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="D13" s="36" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E13" s="2">
         <v>36</v>
       </c>
       <c r="F13" s="36" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="G13" s="36" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="I13" s="36" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="J13" s="36" t="s">
         <v>386</v>
       </c>
       <c r="K13" s="36" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
@@ -16575,34 +16598,34 @@
         <v>13</v>
       </c>
       <c r="B14" s="36" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="C14" s="36" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="D14" s="36" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="E14" s="2">
         <v>33</v>
       </c>
       <c r="F14" s="36" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="G14" s="36" t="s">
+        <v>701</v>
+      </c>
+      <c r="H14" s="2" t="s">
         <v>702</v>
       </c>
-      <c r="H14" s="2" t="s">
-        <v>703</v>
-      </c>
       <c r="I14" s="36" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="J14" s="36" t="s">
         <v>386</v>
       </c>
       <c r="K14" s="36" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
@@ -16610,34 +16633,34 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C15" s="2" t="s">
+        <v>737</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>738</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>739</v>
       </c>
       <c r="E15" s="2">
         <v>33</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="I15" s="36" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.35">
@@ -16645,34 +16668,34 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C16" s="36" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="D16" s="36" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="E16" s="2">
         <v>26</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="G16" s="2" t="s">
+        <v>701</v>
+      </c>
+      <c r="H16" s="2" t="s">
         <v>702</v>
       </c>
-      <c r="H16" s="2" t="s">
-        <v>703</v>
-      </c>
       <c r="I16" s="2" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.35">
@@ -16680,34 +16703,34 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="C17" s="2" t="s">
+        <v>746</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>747</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>748</v>
       </c>
       <c r="E17" s="2">
         <v>31</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="G17" s="2" t="s">
+        <v>701</v>
+      </c>
+      <c r="H17" s="2" t="s">
         <v>702</v>
       </c>
-      <c r="H17" s="2" t="s">
-        <v>703</v>
-      </c>
       <c r="I17" s="2" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="J17" s="2" t="s">
         <v>386</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.35">
@@ -16715,34 +16738,34 @@
         <v>17</v>
       </c>
       <c r="B18" s="36" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="C18" s="36" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="D18" s="36" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="E18" s="2">
         <v>26</v>
       </c>
       <c r="F18" s="36" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="G18" s="36" t="s">
+        <v>701</v>
+      </c>
+      <c r="H18" s="36" t="s">
         <v>702</v>
       </c>
-      <c r="H18" s="36" t="s">
-        <v>703</v>
-      </c>
       <c r="I18" s="36" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="J18" s="36" t="s">
         <v>386</v>
       </c>
       <c r="K18" s="36" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.35">
@@ -16750,34 +16773,34 @@
         <v>18</v>
       </c>
       <c r="B19" s="36" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="C19" s="36" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="D19" s="36" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E19" s="2">
         <v>28</v>
       </c>
       <c r="F19" s="36" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="G19" s="36" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="H19" s="36" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="I19" s="36" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="J19" s="36" t="s">
         <v>386</v>
       </c>
       <c r="K19" s="36" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.35">
@@ -16785,34 +16808,34 @@
         <v>19</v>
       </c>
       <c r="B20" s="36" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="C20" s="36" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="D20" s="36" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="E20" s="2">
         <v>27</v>
       </c>
       <c r="F20" s="36" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="G20" s="36" t="s">
+        <v>701</v>
+      </c>
+      <c r="H20" s="36" t="s">
         <v>702</v>
       </c>
-      <c r="H20" s="36" t="s">
-        <v>703</v>
-      </c>
       <c r="I20" s="36" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="J20" s="36" t="s">
         <v>386</v>
       </c>
       <c r="K20" s="36" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.35">
@@ -16820,34 +16843,34 @@
         <v>20</v>
       </c>
       <c r="B21" s="36" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="C21" s="2" t="s">
+        <v>762</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>763</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>764</v>
       </c>
       <c r="E21" s="2">
         <v>28</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="G21" s="36" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="H21" s="36" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="J21" s="36" t="s">
         <v>386</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.35">
@@ -16855,34 +16878,34 @@
         <v>21</v>
       </c>
       <c r="B22" s="36" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="C22" s="36" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="D22" s="36" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E22" s="2">
         <v>31</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="G22" s="36" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="H22" s="36" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="J22" s="36" t="s">
         <v>386</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.35">
@@ -16890,34 +16913,34 @@
         <v>22</v>
       </c>
       <c r="B23" s="36" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="D23" s="36" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="E23" s="2">
         <v>28</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="G23" s="36" t="s">
+        <v>701</v>
+      </c>
+      <c r="H23" s="36" t="s">
         <v>702</v>
       </c>
-      <c r="H23" s="36" t="s">
-        <v>703</v>
-      </c>
       <c r="I23" s="36" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="J23" s="36" t="s">
         <v>386</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.35">
@@ -16925,34 +16948,34 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="E24" s="2">
         <v>27</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="J24" s="2" t="s">
         <v>386</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.35">
@@ -16960,34 +16983,34 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E25" s="2">
         <v>27</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="J25" s="2" t="s">
         <v>386</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.35">
@@ -16995,34 +17018,34 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="E26" s="2">
         <v>28</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="G26" s="2" t="s">
+        <v>701</v>
+      </c>
+      <c r="H26" s="2" t="s">
         <v>702</v>
       </c>
-      <c r="H26" s="2" t="s">
-        <v>703</v>
-      </c>
       <c r="I26" s="2" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="J26" s="36" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.35">
@@ -17030,34 +17053,34 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="E27" s="2">
         <v>25</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="G27" s="2" t="s">
+        <v>701</v>
+      </c>
+      <c r="H27" s="2" t="s">
         <v>702</v>
       </c>
-      <c r="H27" s="2" t="s">
-        <v>703</v>
-      </c>
       <c r="I27" s="2" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="J27" s="2" t="s">
         <v>386</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
   </sheetData>
@@ -17070,8 +17093,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G144"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16:E29"/>
+    <sheetView topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="G128" sqref="G128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -17089,22 +17112,22 @@
         <v>12</v>
       </c>
       <c r="B1" s="36" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="C1" s="36" t="s">
         <v>13</v>
       </c>
       <c r="D1" s="36" t="s">
+        <v>781</v>
+      </c>
+      <c r="E1" s="36" t="s">
         <v>782</v>
-      </c>
-      <c r="E1" s="36" t="s">
-        <v>783</v>
       </c>
       <c r="F1" s="36" t="s">
         <v>376</v>
       </c>
       <c r="G1" s="36" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
@@ -17112,22 +17135,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="38" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="C2" s="36" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E2" s="36" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="F2" s="36" t="s">
         <v>413</v>
       </c>
       <c r="G2" s="36" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
@@ -17135,22 +17158,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="36" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="C3" s="36" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="D3" s="36" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E3" s="36" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="F3" s="36" t="s">
         <v>386</v>
       </c>
       <c r="G3" s="36" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
@@ -17158,22 +17181,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="36" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="C4" s="36" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="E4" s="36" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="F4" s="36" t="s">
         <v>412</v>
       </c>
       <c r="G4" s="36" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
@@ -17181,22 +17204,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="36" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="D5" s="36" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E5" s="36" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="F5" s="36" t="s">
         <v>412</v>
       </c>
       <c r="G5" s="36" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
@@ -17204,22 +17227,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="36" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="C6" s="36" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="D6" s="36" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="E6" s="36" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="F6" s="36" t="s">
         <v>386</v>
       </c>
       <c r="G6" s="36" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
@@ -17227,22 +17250,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="36" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="C7" s="36" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D7" s="36" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E7" s="36" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="F7" s="36" t="s">
         <v>386</v>
       </c>
       <c r="G7" s="36" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
@@ -17250,22 +17273,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="36" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="C8" s="36" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="D8" s="36" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="E8" s="36" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="F8" s="36" t="s">
         <v>412</v>
       </c>
       <c r="G8" s="36" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
@@ -17273,22 +17296,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="36" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="C9" s="36" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="D9" s="36" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="E9" s="36" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="F9" s="36" t="s">
         <v>413</v>
       </c>
       <c r="G9" s="36" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
@@ -17296,22 +17319,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="36" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="C10" s="36" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D10" s="36" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="E10" s="36" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="F10" s="36" t="s">
         <v>413</v>
       </c>
       <c r="G10" s="36" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
@@ -17319,22 +17342,22 @@
         <v>10</v>
       </c>
       <c r="B11" s="36" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C11" s="36" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D11" s="36" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="E11" s="36" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="F11" s="36" t="s">
         <v>386</v>
       </c>
       <c r="G11" s="36" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
@@ -17342,22 +17365,22 @@
         <v>11</v>
       </c>
       <c r="B12" s="36" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="C12" s="36" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="D12" s="36" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E12" s="36" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="F12" s="36" t="s">
         <v>413</v>
       </c>
       <c r="G12" s="36" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
@@ -17365,22 +17388,22 @@
         <v>12</v>
       </c>
       <c r="B13" s="36" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="C13" s="36" t="s">
         <v>524</v>
       </c>
       <c r="D13" s="36" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="E13" s="36" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="F13" s="36" t="s">
         <v>386</v>
       </c>
       <c r="G13" s="36" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
@@ -17388,22 +17411,22 @@
         <v>13</v>
       </c>
       <c r="B14" s="36" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="C14" s="36" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D14" s="36" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="E14" s="36" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="F14" s="36" t="s">
         <v>413</v>
       </c>
       <c r="G14" s="36" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
@@ -17411,22 +17434,22 @@
         <v>14</v>
       </c>
       <c r="B15" s="36" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="C15" s="36" t="s">
+        <v>825</v>
+      </c>
+      <c r="D15" s="36" t="s">
         <v>826</v>
       </c>
-      <c r="D15" s="36" t="s">
-        <v>827</v>
-      </c>
       <c r="E15" s="36" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="F15" s="36" t="s">
         <v>413</v>
       </c>
       <c r="G15" s="36" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
@@ -17434,22 +17457,22 @@
         <v>1</v>
       </c>
       <c r="B16" s="36" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="C16" s="36" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="D16" s="36" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E16" s="36" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="F16" s="36" t="s">
         <v>386</v>
       </c>
       <c r="G16" s="36" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
@@ -17457,22 +17480,22 @@
         <v>2</v>
       </c>
       <c r="B17" s="36" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="C17" s="36" t="s">
+        <v>835</v>
+      </c>
+      <c r="D17" s="36" t="s">
         <v>836</v>
       </c>
-      <c r="D17" s="36" t="s">
-        <v>837</v>
-      </c>
       <c r="E17" s="36" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="F17" s="36" t="s">
         <v>412</v>
       </c>
       <c r="G17" s="36" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
@@ -17480,22 +17503,22 @@
         <v>3</v>
       </c>
       <c r="B18" s="36" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="C18" s="36" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D18" s="36" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="E18" s="36" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="F18" s="36" t="s">
         <v>412</v>
       </c>
       <c r="G18" s="36" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
@@ -17503,22 +17526,22 @@
         <v>4</v>
       </c>
       <c r="B19" s="36" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="C19" s="36" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D19" s="36" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="E19" s="36" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="F19" s="36" t="s">
         <v>386</v>
       </c>
       <c r="G19" s="36" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
@@ -17526,22 +17549,22 @@
         <v>5</v>
       </c>
       <c r="B20" s="36" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="C20" s="36" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D20" s="36" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="E20" s="36" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="F20" s="36" t="s">
         <v>386</v>
       </c>
       <c r="G20" s="36" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
@@ -17549,22 +17572,22 @@
         <v>6</v>
       </c>
       <c r="B21" s="36" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="C21" s="36" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="D21" s="36" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="E21" s="36" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="F21" s="36" t="s">
         <v>412</v>
       </c>
       <c r="G21" s="36" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
@@ -17572,22 +17595,22 @@
         <v>7</v>
       </c>
       <c r="B22" s="36" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="C22" s="36" t="s">
         <v>396</v>
       </c>
       <c r="D22" s="36" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="E22" s="36" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="F22" s="36" t="s">
         <v>386</v>
       </c>
       <c r="G22" s="36" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
@@ -17595,22 +17618,22 @@
         <v>8</v>
       </c>
       <c r="B23" s="36" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="C23" s="36" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="D23" s="36" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="E23" s="36" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="F23" s="36" t="s">
         <v>386</v>
       </c>
       <c r="G23" s="36" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
@@ -17618,22 +17641,22 @@
         <v>9</v>
       </c>
       <c r="B24" s="36" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="C24" s="36" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D24" s="36" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="E24" s="36" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="F24" s="36" t="s">
         <v>386</v>
       </c>
       <c r="G24" s="36" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
@@ -17641,22 +17664,22 @@
         <v>10</v>
       </c>
       <c r="B25" s="36" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="C25" s="36" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D25" s="36" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="E25" s="36" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="F25" s="36" t="s">
         <v>386</v>
       </c>
       <c r="G25" s="36" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
@@ -17664,22 +17687,22 @@
         <v>11</v>
       </c>
       <c r="B26" s="36" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="C26" s="36" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D26" s="36" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="E26" s="36" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="F26" s="36" t="s">
         <v>412</v>
       </c>
       <c r="G26" s="36" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
@@ -17687,22 +17710,22 @@
         <v>12</v>
       </c>
       <c r="B27" s="36" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="C27" s="36" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="D27" s="36" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="E27" s="36" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="F27" s="36" t="s">
         <v>384</v>
       </c>
       <c r="G27" s="36" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
@@ -17710,22 +17733,22 @@
         <v>13</v>
       </c>
       <c r="B28" s="36" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="C28" s="36" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D28" s="36" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E28" s="36" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="F28" s="36" t="s">
         <v>386</v>
       </c>
       <c r="G28" s="36" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
@@ -17733,22 +17756,22 @@
         <v>14</v>
       </c>
       <c r="B29" s="36" t="s">
+        <v>831</v>
+      </c>
+      <c r="C29" s="36" t="s">
         <v>832</v>
       </c>
-      <c r="C29" s="36" t="s">
+      <c r="D29" s="36" t="s">
         <v>833</v>
       </c>
-      <c r="D29" s="36" t="s">
-        <v>834</v>
-      </c>
       <c r="E29" s="36" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="F29" s="36" t="s">
         <v>386</v>
       </c>
       <c r="G29" s="36" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
@@ -17756,22 +17779,22 @@
         <v>1</v>
       </c>
       <c r="B30" s="36" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="C30" s="36" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="D30" s="36" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E30" s="36" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="F30" s="36" t="s">
         <v>412</v>
       </c>
       <c r="G30" s="36" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
@@ -17779,22 +17802,22 @@
         <v>2</v>
       </c>
       <c r="B31" s="36" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C31" s="36" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="D31" s="36" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="E31" s="36" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="F31" s="36" t="s">
         <v>384</v>
       </c>
       <c r="G31" s="36" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
@@ -17802,22 +17825,22 @@
         <v>3</v>
       </c>
       <c r="B32" s="36" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="C32" s="36" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="D32" s="36" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="E32" s="36" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="F32" s="36" t="s">
         <v>386</v>
       </c>
       <c r="G32" s="36" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
@@ -17825,22 +17848,22 @@
         <v>4</v>
       </c>
       <c r="B33" s="36" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="C33" s="36" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="D33" s="36" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="E33" s="36" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="F33" s="36" t="s">
         <v>386</v>
       </c>
       <c r="G33" s="36" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
@@ -17848,22 +17871,22 @@
         <v>5</v>
       </c>
       <c r="B34" s="36" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="C34" s="36" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="D34" s="36" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="E34" s="36" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="F34" s="36" t="s">
         <v>413</v>
       </c>
       <c r="G34" s="36" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
@@ -17871,22 +17894,22 @@
         <v>6</v>
       </c>
       <c r="B35" s="36" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="C35" s="36" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="D35" s="36" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="E35" s="36" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="F35" s="36" t="s">
         <v>412</v>
       </c>
       <c r="G35" s="36" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
@@ -17894,22 +17917,22 @@
         <v>7</v>
       </c>
       <c r="B36" s="36" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="C36" s="36" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="D36" s="36" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="E36" s="36" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="F36" s="36" t="s">
         <v>386</v>
       </c>
       <c r="G36" s="36" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
@@ -17917,22 +17940,22 @@
         <v>8</v>
       </c>
       <c r="B37" s="36" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="C37" s="36" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="D37" s="36" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="E37" s="36" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="F37" s="36" t="s">
         <v>413</v>
       </c>
       <c r="G37" s="36" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
@@ -17940,22 +17963,22 @@
         <v>9</v>
       </c>
       <c r="B38" s="36" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="C38" s="36" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="D38" s="36" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="E38" s="36" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="F38" s="36" t="s">
         <v>412</v>
       </c>
       <c r="G38" s="36" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
@@ -17963,22 +17986,22 @@
         <v>10</v>
       </c>
       <c r="B39" s="36" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="C39" s="36" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="D39" s="36" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="E39" s="36" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="F39" s="36" t="s">
         <v>386</v>
       </c>
       <c r="G39" s="36" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
@@ -17986,22 +18009,22 @@
         <v>11</v>
       </c>
       <c r="B40" s="36" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="C40" s="36" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="D40" s="36" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="E40" s="36" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="F40" s="36" t="s">
         <v>412</v>
       </c>
       <c r="G40" s="36" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
@@ -18009,22 +18032,22 @@
         <v>12</v>
       </c>
       <c r="B41" s="36" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="C41" s="36" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="D41" s="36" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="E41" s="36" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="F41" s="36" t="s">
         <v>386</v>
       </c>
       <c r="G41" s="36" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
@@ -18032,22 +18055,22 @@
         <v>13</v>
       </c>
       <c r="B42" s="36" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="C42" s="36" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="D42" s="36" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="E42" s="36" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="F42" s="36" t="s">
         <v>386</v>
       </c>
       <c r="G42" s="36" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
@@ -18055,22 +18078,22 @@
         <v>1</v>
       </c>
       <c r="B43" s="36" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="C43" s="36" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="D43" s="36" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="E43" s="36" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F43" s="36" t="s">
         <v>386</v>
       </c>
       <c r="G43" s="36" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
@@ -18078,22 +18101,22 @@
         <v>2</v>
       </c>
       <c r="B44" s="36" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="C44" s="36" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="D44" s="36" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="E44" s="36" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F44" s="36" t="s">
         <v>386</v>
       </c>
       <c r="G44" s="36" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.35">
@@ -18101,22 +18124,22 @@
         <v>3</v>
       </c>
       <c r="B45" s="36" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="C45" s="36" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="D45" s="36" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="E45" s="36" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F45" s="36" t="s">
         <v>386</v>
       </c>
       <c r="G45" s="36" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.35">
@@ -18124,22 +18147,22 @@
         <v>4</v>
       </c>
       <c r="B46" s="36" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="C46" s="36" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="D46" s="36" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="E46" s="36" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F46" s="36" t="s">
         <v>386</v>
       </c>
       <c r="G46" s="36" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.35">
@@ -18147,22 +18170,22 @@
         <v>5</v>
       </c>
       <c r="B47" s="36" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="C47" s="36" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="D47" s="36" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="E47" s="36" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F47" s="36" t="s">
         <v>386</v>
       </c>
       <c r="G47" s="36" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.35">
@@ -18170,22 +18193,22 @@
         <v>6</v>
       </c>
       <c r="B48" s="36" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="C48" s="36" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="D48" s="36" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="E48" s="36" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F48" s="36" t="s">
         <v>386</v>
       </c>
       <c r="G48" s="36" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.35">
@@ -18193,22 +18216,22 @@
         <v>7</v>
       </c>
       <c r="B49" s="36" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="C49" s="36" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="D49" s="36" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="E49" s="36" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F49" s="36" t="s">
         <v>384</v>
       </c>
       <c r="G49" s="36" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.35">
@@ -18216,22 +18239,22 @@
         <v>8</v>
       </c>
       <c r="B50" s="36" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="C50" s="36" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="D50" s="36" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="E50" s="36" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F50" s="36" t="s">
         <v>412</v>
       </c>
       <c r="G50" s="36" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.35">
@@ -18239,22 +18262,22 @@
         <v>9</v>
       </c>
       <c r="B51" s="36" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="C51" s="36" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="D51" s="36" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="E51" s="36" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F51" s="36" t="s">
         <v>386</v>
       </c>
       <c r="G51" s="36" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.35">
@@ -18262,22 +18285,22 @@
         <v>10</v>
       </c>
       <c r="B52" s="36" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="C52" s="36" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="D52" s="36" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="E52" s="36" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F52" s="36" t="s">
         <v>386</v>
       </c>
       <c r="G52" s="36" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.35">
@@ -18285,22 +18308,22 @@
         <v>11</v>
       </c>
       <c r="B53" s="36" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="C53" s="36" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="D53" s="36" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E53" s="36" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F53" s="36" t="s">
         <v>386</v>
       </c>
       <c r="G53" s="36" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.35">
@@ -18308,22 +18331,22 @@
         <v>12</v>
       </c>
       <c r="B54" s="36" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="C54" s="36" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="D54" s="36" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="E54" s="36" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F54" s="36" t="s">
         <v>386</v>
       </c>
       <c r="G54" s="36" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.35">
@@ -18331,22 +18354,22 @@
         <v>13</v>
       </c>
       <c r="B55" s="36" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="C55" s="36" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="D55" s="36" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="E55" s="36" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F55" s="36" t="s">
         <v>386</v>
       </c>
       <c r="G55" s="36" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.35">
@@ -18354,22 +18377,22 @@
         <v>14</v>
       </c>
       <c r="B56" s="36" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="C56" s="36" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D56" s="36" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="E56" s="36" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F56" s="36" t="s">
         <v>384</v>
       </c>
       <c r="G56" s="36" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.35">
@@ -18377,22 +18400,22 @@
         <v>15</v>
       </c>
       <c r="B57" s="36" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="C57" s="36" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D57" s="36" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="E57" s="36" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F57" s="36" t="s">
         <v>412</v>
       </c>
       <c r="G57" s="36" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.35">
@@ -18400,22 +18423,22 @@
         <v>16</v>
       </c>
       <c r="B58" s="36" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="C58" s="36" t="s">
+        <v>923</v>
+      </c>
+      <c r="D58" s="36" t="s">
         <v>924</v>
       </c>
-      <c r="D58" s="36" t="s">
-        <v>925</v>
-      </c>
       <c r="E58" s="36" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F58" s="36" t="s">
         <v>413</v>
       </c>
       <c r="G58" s="36" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.35">
@@ -18423,22 +18446,22 @@
         <v>1</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="E59" s="36" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>386</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.35">
@@ -18446,22 +18469,22 @@
         <v>2</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="E60" s="36" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>386</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.35">
@@ -18469,22 +18492,22 @@
         <v>3</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="E61" s="36" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>412</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.35">
@@ -18492,22 +18515,22 @@
         <v>4</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="D62" s="36" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="E62" s="36" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>386</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.35">
@@ -18515,22 +18538,22 @@
         <v>5</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="E63" s="36" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>413</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.35">
@@ -18538,22 +18561,22 @@
         <v>6</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="E64" s="36" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>386</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.35">
@@ -18561,22 +18584,22 @@
         <v>7</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E65" s="36" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>386</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.35">
@@ -18584,22 +18607,22 @@
         <v>8</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="D66" s="36" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="E66" s="36" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>386</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.35">
@@ -18607,22 +18630,22 @@
         <v>9</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="C67" s="36" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="E67" s="36" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>384</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.35">
@@ -18630,22 +18653,22 @@
         <v>10</v>
       </c>
       <c r="B68" s="36" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="C68" s="36" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="D68" s="36" t="s">
+        <v>953</v>
+      </c>
+      <c r="E68" s="36" t="s">
         <v>954</v>
-      </c>
-      <c r="E68" s="36" t="s">
-        <v>955</v>
       </c>
       <c r="F68" s="36" t="s">
         <v>412</v>
       </c>
       <c r="G68" s="36" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.35">
@@ -18653,22 +18676,22 @@
         <v>11</v>
       </c>
       <c r="B69" s="36" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="C69" s="36" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="D69" s="36" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="E69" s="36" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="F69" s="36" t="s">
         <v>386</v>
       </c>
       <c r="G69" s="36" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.35">
@@ -18676,22 +18699,22 @@
         <v>12</v>
       </c>
       <c r="B70" s="36" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="D70" s="36" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="E70" s="36" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>384</v>
       </c>
       <c r="G70" s="36" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.35">
@@ -18699,22 +18722,22 @@
         <v>13</v>
       </c>
       <c r="B71" s="36" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="E71" s="36" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>384</v>
       </c>
       <c r="G71" s="36" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.35">
@@ -18722,22 +18745,22 @@
         <v>14</v>
       </c>
       <c r="B72" s="36" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="E72" s="36" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>384</v>
       </c>
       <c r="G72" s="36" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.35">
@@ -18745,22 +18768,22 @@
         <v>15</v>
       </c>
       <c r="B73" s="36" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="E73" s="36" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>384</v>
       </c>
       <c r="G73" s="36" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.35">
@@ -18768,22 +18791,22 @@
         <v>16</v>
       </c>
       <c r="B74" s="36" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="E74" s="36" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="F74" s="36" t="s">
         <v>412</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.35">
@@ -18791,22 +18814,22 @@
         <v>17</v>
       </c>
       <c r="B75" s="36" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="E75" s="36" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="F75" s="36" t="s">
         <v>412</v>
       </c>
       <c r="G75" s="36" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.35">
@@ -18814,22 +18837,22 @@
         <v>18</v>
       </c>
       <c r="B76" s="36" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="E76" s="36" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="F76" s="36" t="s">
         <v>412</v>
       </c>
       <c r="G76" s="36" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.35">
@@ -18837,22 +18860,22 @@
         <v>19</v>
       </c>
       <c r="B77" s="36" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="C77" s="2" t="s">
+        <v>962</v>
+      </c>
+      <c r="D77" s="2" t="s">
         <v>963</v>
       </c>
-      <c r="D77" s="2" t="s">
-        <v>964</v>
-      </c>
       <c r="E77" s="36" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="F77" s="36" t="s">
         <v>412</v>
       </c>
       <c r="G77" s="36" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.35">
@@ -18860,22 +18883,22 @@
         <v>1</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>386</v>
       </c>
       <c r="G78" s="36" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.35">
@@ -18883,22 +18906,22 @@
         <v>2</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>413</v>
       </c>
       <c r="G79" s="36" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.35">
@@ -18906,22 +18929,22 @@
         <v>3</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>386</v>
       </c>
       <c r="G80" s="36" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.35">
@@ -18929,22 +18952,22 @@
         <v>4</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>386</v>
       </c>
       <c r="G81" s="36" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.35">
@@ -18952,22 +18975,22 @@
         <v>5</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>412</v>
       </c>
       <c r="G82" s="36" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.35">
@@ -18975,22 +18998,22 @@
         <v>6</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>386</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.35">
@@ -18998,22 +19021,22 @@
         <v>7</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>412</v>
       </c>
       <c r="G84" s="36" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.35">
@@ -19021,22 +19044,22 @@
         <v>8</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>386</v>
       </c>
       <c r="G85" s="36" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.35">
@@ -19044,22 +19067,22 @@
         <v>9</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>384</v>
       </c>
       <c r="G86" s="36" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.35">
@@ -19067,22 +19090,22 @@
         <v>10</v>
       </c>
       <c r="B87" s="36" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>413</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.35">
@@ -19090,22 +19113,22 @@
         <v>11</v>
       </c>
       <c r="B88" s="36" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>386</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.35">
@@ -19113,22 +19136,22 @@
         <v>12</v>
       </c>
       <c r="B89" s="36" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>386</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.35">
@@ -19136,22 +19159,22 @@
         <v>13</v>
       </c>
       <c r="B90" s="36" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>386</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.35">
@@ -19159,22 +19182,22 @@
         <v>14</v>
       </c>
       <c r="B91" s="36" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>412</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.35">
@@ -19182,22 +19205,22 @@
         <v>15</v>
       </c>
       <c r="B92" s="36" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>413</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.35">
@@ -19205,22 +19228,22 @@
         <v>16</v>
       </c>
       <c r="B93" s="36" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="C93" s="2" t="s">
+        <v>996</v>
+      </c>
+      <c r="D93" s="2" t="s">
         <v>997</v>
       </c>
-      <c r="D93" s="2" t="s">
-        <v>998</v>
-      </c>
       <c r="E93" s="2" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>412</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.35">
@@ -19228,22 +19251,22 @@
         <v>1</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>386</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.35">
@@ -19251,22 +19274,22 @@
         <v>2</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>412</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.35">
@@ -19274,22 +19297,22 @@
         <v>3</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>412</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.35">
@@ -19297,22 +19320,22 @@
         <v>4</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>412</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.35">
@@ -19320,22 +19343,22 @@
         <v>5</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>386</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.35">
@@ -19343,22 +19366,22 @@
         <v>6</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>412</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.35">
@@ -19366,22 +19389,22 @@
         <v>7</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>413</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.35">
@@ -19389,22 +19412,22 @@
         <v>8</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>386</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.35">
@@ -19412,22 +19435,22 @@
         <v>9</v>
       </c>
       <c r="B102" s="36" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="C102" s="36" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D102" s="36" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="E102" s="36" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="F102" s="36" t="s">
         <v>386</v>
       </c>
       <c r="G102" s="36" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.35">
@@ -19435,22 +19458,22 @@
         <v>10</v>
       </c>
       <c r="B103" s="36" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="C103" s="36" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="D103" s="36" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="E103" s="36" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="F103" s="36" t="s">
         <v>386</v>
       </c>
       <c r="G103" s="36" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.35">
@@ -19458,22 +19481,22 @@
         <v>11</v>
       </c>
       <c r="B104" s="36" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="C104" s="36" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D104" s="36" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="E104" s="36" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="F104" s="36" t="s">
         <v>384</v>
       </c>
       <c r="G104" s="36" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.35">
@@ -19481,22 +19504,22 @@
         <v>12</v>
       </c>
       <c r="B105" s="36" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="C105" s="36" t="s">
+        <v>1029</v>
+      </c>
+      <c r="D105" s="36" t="s">
         <v>1030</v>
       </c>
-      <c r="D105" s="36" t="s">
-        <v>1031</v>
-      </c>
       <c r="E105" s="36" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="F105" s="36" t="s">
         <v>384</v>
       </c>
       <c r="G105" s="36" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.35">
@@ -19504,22 +19527,22 @@
         <v>1</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>386</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.35">
@@ -19527,22 +19550,22 @@
         <v>2</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>412</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.35">
@@ -19550,22 +19573,22 @@
         <v>3</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>413</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.35">
@@ -19573,22 +19596,22 @@
         <v>4</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="C109" s="36" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>386</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.35">
@@ -19596,22 +19619,22 @@
         <v>5</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>413</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.35">
@@ -19619,22 +19642,22 @@
         <v>6</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>413</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.35">
@@ -19642,22 +19665,22 @@
         <v>7</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>386</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.35">
@@ -19665,22 +19688,22 @@
         <v>8</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="C113" s="36" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>386</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.35">
@@ -19688,22 +19711,22 @@
         <v>9</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>386</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.35">
@@ -19711,22 +19734,22 @@
         <v>10</v>
       </c>
       <c r="B115" s="36" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="C115" s="36" t="s">
+        <v>1039</v>
+      </c>
+      <c r="D115" s="36" t="s">
         <v>1040</v>
       </c>
-      <c r="D115" s="36" t="s">
-        <v>1041</v>
-      </c>
       <c r="E115" s="36" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="F115" s="36" t="s">
         <v>412</v>
       </c>
       <c r="G115" s="36" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.35">
@@ -19734,22 +19757,22 @@
         <v>11</v>
       </c>
       <c r="B116" s="36" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="C116" s="36" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="D116" s="36" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="E116" s="36" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="F116" s="36" t="s">
         <v>386</v>
       </c>
       <c r="G116" s="36" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.35">
@@ -19757,22 +19780,22 @@
         <v>12</v>
       </c>
       <c r="B117" s="36" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="C117" s="36" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="D117" s="36" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="E117" s="36" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="F117" s="36" t="s">
         <v>384</v>
       </c>
       <c r="G117" s="36" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.35">
@@ -19780,22 +19803,22 @@
         <v>1</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="F118" s="36" t="s">
         <v>386</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.35">
@@ -19803,22 +19826,22 @@
         <v>2</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="F119" s="36" t="s">
         <v>386</v>
       </c>
       <c r="G119" s="36" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.35">
@@ -19826,22 +19849,22 @@
         <v>3</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="F120" s="36" t="s">
         <v>386</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.35">
@@ -19849,22 +19872,22 @@
         <v>4</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="F121" s="36" t="s">
         <v>386</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.35">
@@ -19872,22 +19895,22 @@
         <v>5</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>384</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.35">
@@ -19895,22 +19918,22 @@
         <v>6</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>412</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.35">
@@ -19918,22 +19941,22 @@
         <v>7</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>413</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.35">
@@ -19941,22 +19964,22 @@
         <v>8</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>412</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.35">
@@ -19964,22 +19987,22 @@
         <v>9</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>386</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.35">
@@ -19987,22 +20010,22 @@
         <v>10</v>
       </c>
       <c r="B127" s="36" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="C127" s="36" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="D127" s="36" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="E127" s="36" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="F127" s="36" t="s">
         <v>386</v>
       </c>
       <c r="G127" s="36" t="s">
-        <v>1074</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.35">
@@ -20010,22 +20033,22 @@
         <v>11</v>
       </c>
       <c r="B128" s="36" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="C128" s="36" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="D128" s="36" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="E128" s="36" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="F128" s="36" t="s">
         <v>386</v>
       </c>
       <c r="G128" s="36" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.35">
@@ -20033,22 +20056,22 @@
         <v>12</v>
       </c>
       <c r="B129" s="36" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="C129" s="36" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="D129" s="36" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="E129" s="36" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="F129" s="36" t="s">
         <v>384</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.35">
@@ -20056,22 +20079,22 @@
         <v>1</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>413</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.35">
@@ -20079,22 +20102,22 @@
         <v>2</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>386</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.35">
@@ -20102,22 +20125,22 @@
         <v>3</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>386</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.35">
@@ -20125,22 +20148,22 @@
         <v>4</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>413</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.35">
@@ -20148,22 +20171,22 @@
         <v>5</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>386</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.35">
@@ -20171,22 +20194,22 @@
         <v>6</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="C135" s="36" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>413</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.35">
@@ -20194,22 +20217,22 @@
         <v>7</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>386</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.35">
@@ -20217,22 +20240,22 @@
         <v>8</v>
       </c>
       <c r="B137" s="36" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="C137" s="36" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="D137" s="36" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="E137" s="36" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="F137" s="36" t="s">
         <v>412</v>
       </c>
       <c r="G137" s="36" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.35">
@@ -20240,22 +20263,22 @@
         <v>9</v>
       </c>
       <c r="B138" s="36" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="C138" s="36" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="D138" s="36" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="E138" s="36" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="F138" s="36" t="s">
         <v>412</v>
       </c>
       <c r="G138" s="36" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.35">
@@ -20263,22 +20286,22 @@
         <v>10</v>
       </c>
       <c r="B139" s="36" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="C139" s="36" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="D139" s="36" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="E139" s="36" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="F139" s="36" t="s">
         <v>412</v>
       </c>
       <c r="G139" s="36" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.35">
@@ -20286,22 +20309,22 @@
         <v>11</v>
       </c>
       <c r="B140" s="36" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="C140" s="36" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="D140" s="36" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="E140" s="36" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="F140" s="36" t="s">
         <v>386</v>
       </c>
       <c r="G140" s="36" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.35">
@@ -20309,22 +20332,22 @@
         <v>12</v>
       </c>
       <c r="B141" s="36" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="E141" s="36" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>384</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.35">
@@ -20332,22 +20355,22 @@
         <v>13</v>
       </c>
       <c r="B142" s="36" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="E142" s="36" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>386</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.35">
@@ -20355,22 +20378,22 @@
         <v>14</v>
       </c>
       <c r="B143" s="36" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="E143" s="36" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>412</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.35">
@@ -20378,22 +20401,22 @@
         <v>15</v>
       </c>
       <c r="B144" s="36" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="D144" s="36" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="E144" s="36" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>386</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
   </sheetData>

--- a/projection/2026_team_projection.xlsx
+++ b/projection/2026_team_projection.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jaebeom.soon\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\doosan\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38C87047-A3D1-4FBD-97CD-2CFE4167C13F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="KIA" sheetId="1" r:id="rId1"/>
@@ -31,7 +30,7 @@
     <sheet name="신규 외국인 선수" sheetId="20" r:id="rId16"/>
     <sheet name="신인" sheetId="21" r:id="rId17"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -52,7 +51,7 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>tc={BAC91E37-A9E1-4FB5-9C83-05083F2ADFAE}</author>
     <author>tc={A73BB4B3-ACF2-4EEE-AE09-58299E1135F2}</author>
@@ -62,60 +61,114 @@
     <author>tc={021C2BA8-1A34-4A94-B7DB-8738E6A3BFAC}</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0B00-000001000000}">
+    <comment ref="A1" authorId="0" shapeId="0">
       <text>
-        <t xml:space="preserve">[스레드 댓글]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Noto Sans KR Medium"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">[스레드 댓글]
 사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
 댓글:
     1. 연도별 외국인 타자 WAR 평균 계산
 2. 5년간 평균 계산
 (외국인 투수 팀별 1명으로 가정)
 </t>
+        </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0B00-000002000000}">
+    <comment ref="F1" authorId="1" shapeId="0">
       <text>
-        <t>[스레드 댓글]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Noto Sans KR Medium"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t>[스레드 댓글]
 사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
 댓글:
     1. 연도별 외국인 투수 WAR 평균 계산
 2. 5년간 평균 계산
 3. 5년간 평균 / 2 = 팀 1명 외국인 투수 평균 WAR
 (외국인 투수 팀별 2명으로 가정해 2로 나눔)</t>
+        </r>
       </text>
     </comment>
-    <comment ref="A15" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0B00-000003000000}">
+    <comment ref="A15" authorId="2" shapeId="0">
       <text>
-        <t>[스레드 댓글]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Noto Sans KR Medium"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t>[스레드 댓글]
 사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
 댓글:
     활약하지 않은 시즌 WAR 3으로 통일</t>
+        </r>
       </text>
     </comment>
-    <comment ref="C17" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0B00-000004000000}">
+    <comment ref="C17" authorId="3" shapeId="0">
       <text>
-        <t>[스레드 댓글]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Noto Sans KR Medium"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t>[스레드 댓글]
 사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
 댓글:
     (05.10 기준)</t>
+        </r>
       </text>
     </comment>
-    <comment ref="A25" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0B00-000005000000}">
+    <comment ref="A25" authorId="4" shapeId="0">
       <text>
-        <t>[스레드 댓글]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Noto Sans KR Medium"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t>[스레드 댓글]
 사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
 댓글:
     - 활약하지 않은 시즌 WAR 3으로 통일
 - 와이스, 에르난데스 시즌 중 합류로 신규 외국인 선수로 가정해 2024 WAR 반영 X
 -SSG 앤더슨은 시즌 중 합류했지만 충분히 표본 쌓였다고 판단해 2024시즌 WAR 그대로 반영해 진행</t>
+        </r>
       </text>
     </comment>
-    <comment ref="C27" authorId="5" shapeId="0" xr:uid="{00000000-0006-0000-0B00-000006000000}">
+    <comment ref="C27" authorId="5" shapeId="0">
       <text>
-        <t>[스레드 댓글]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Noto Sans KR Medium"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t>[스레드 댓글]
 사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
 댓글:
     (05.10 기준)</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -123,7 +176,7 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>tc={B436F6DB-3B55-45B1-AF7A-381BC8597437}</author>
     <author>tc={F7E41CE3-7DDE-442C-A86C-CA1939FAB8B5}</author>
@@ -131,44 +184,80 @@
     <author>tc={E9A6546A-EE73-4F66-AC92-BD45DDC1B6C0}</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0C00-000001000000}">
+    <comment ref="A1" authorId="0" shapeId="0">
       <text>
-        <t xml:space="preserve">[스레드 댓글]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Noto Sans KR Medium"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">[스레드 댓글]
 사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
 댓글:
     1. 연도별 외국인 타자 WAR 평균 계산
 2. 5년간 평균 계산
 (외국인 투수 팀별 1명으로 가정)
 </t>
+        </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0C00-000002000000}">
+    <comment ref="F1" authorId="1" shapeId="0">
       <text>
-        <t>[스레드 댓글]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Noto Sans KR Medium"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t>[스레드 댓글]
 사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
 댓글:
     1. 연도별 외국인 투수 WAR 평균 계산
 2. 5년간 평균 계산
 3. 5년간 평균 / 2 = 팀 1명 외국인 투수 평균 WAR
 (외국인 투수 팀별 2명으로 가정해 2로 나눔)</t>
+        </r>
       </text>
     </comment>
-    <comment ref="A15" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0C00-000003000000}">
+    <comment ref="A15" authorId="2" shapeId="0">
       <text>
-        <t>[스레드 댓글]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Noto Sans KR Medium"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t>[스레드 댓글]
 사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
 댓글:
     활약하지 않은 시즌 WAR 3으로 통일</t>
+        </r>
       </text>
     </comment>
-    <comment ref="A24" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0C00-000004000000}">
+    <comment ref="A24" authorId="3" shapeId="0">
       <text>
-        <t>[스레드 댓글]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Noto Sans KR Medium"/>
+            <family val="2"/>
+            <charset val="129"/>
+          </rPr>
+          <t>[스레드 댓글]
 사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
 댓글:
     - 활약하지 않은 시즌 WAR 3으로 통일
 - 와이스, 에르난데스 시즌 중 합류로 신규 외국인 선수로 가정해 2024 WAR 반영 X
 -SSG 앤더슨은 시즌 중 합류했지만 충분히 표본 쌓였다고 판단해 2024시즌 WAR 그대로 반영해 진행</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -4646,7 +4735,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="0.0"/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
@@ -5389,33 +5478,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J39"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="4" width="13.3515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.64453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.87890625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="42" t="s">
         <v>244</v>
       </c>
       <c r="B2" s="43"/>
       <c r="C2" s="43"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="43"/>
       <c r="B3" s="43"/>
       <c r="C3" s="43"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
         <v>12</v>
       </c>
@@ -5447,7 +5536,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="11">
         <v>1</v>
       </c>
@@ -5479,7 +5568,7 @@
         <v>-0.04</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="11">
         <v>2</v>
       </c>
@@ -5511,7 +5600,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="11">
         <v>3</v>
       </c>
@@ -5543,7 +5632,7 @@
         <v>1.89</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="11">
         <v>4</v>
       </c>
@@ -5575,7 +5664,7 @@
         <v>1.96</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="11">
         <v>5</v>
       </c>
@@ -5607,7 +5696,7 @@
         <v>1.0900000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="11">
         <v>6</v>
       </c>
@@ -5639,7 +5728,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="11">
         <v>7</v>
       </c>
@@ -5671,7 +5760,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="11">
         <v>8</v>
       </c>
@@ -5703,7 +5792,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="11">
         <v>9</v>
       </c>
@@ -5735,7 +5824,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="11">
         <v>10</v>
       </c>
@@ -5767,7 +5856,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="11">
         <v>11</v>
       </c>
@@ -5799,7 +5888,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="11">
         <v>12</v>
       </c>
@@ -5831,7 +5920,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" s="11">
         <v>13</v>
       </c>
@@ -5863,7 +5952,7 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" s="11">
         <v>14</v>
       </c>
@@ -5895,7 +5984,7 @@
         <v>-7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" s="11">
         <v>15</v>
       </c>
@@ -5927,25 +6016,25 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="J20" s="23">
         <f>SUM(J5:J19)</f>
         <v>12.519999999999998</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" s="42" t="s">
         <v>245</v>
       </c>
       <c r="B21" s="43"/>
       <c r="C21" s="43"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" s="43"/>
       <c r="B22" s="43"/>
       <c r="C22" s="43"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" s="8" t="s">
         <v>12</v>
       </c>
@@ -5974,7 +6063,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" s="4">
         <v>1</v>
       </c>
@@ -6003,7 +6092,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" s="4">
         <v>2</v>
       </c>
@@ -6032,7 +6121,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" s="4">
         <v>3</v>
       </c>
@@ -6061,7 +6150,7 @@
         <v>1.35</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" s="4">
         <v>4</v>
       </c>
@@ -6090,7 +6179,7 @@
         <v>1.52</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" s="4">
         <v>5</v>
       </c>
@@ -6119,7 +6208,7 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" s="4">
         <v>6</v>
       </c>
@@ -6148,7 +6237,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" s="4">
         <v>7</v>
       </c>
@@ -6177,7 +6266,7 @@
         <v>1.1599999999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" s="4">
         <v>8</v>
       </c>
@@ -6206,7 +6295,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" s="4">
         <v>9</v>
       </c>
@@ -6235,7 +6324,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" s="4">
         <v>10</v>
       </c>
@@ -6264,7 +6353,7 @@
         <v>-0.51</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" s="4">
         <v>11</v>
       </c>
@@ -6293,7 +6382,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" s="4">
         <v>12</v>
       </c>
@@ -6322,7 +6411,7 @@
         <v>0.71</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" s="4">
         <v>13</v>
       </c>
@@ -6351,7 +6440,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" s="4">
         <v>14</v>
       </c>
@@ -6380,7 +6469,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" s="4">
         <v>15</v>
       </c>
@@ -6409,7 +6498,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="I39" s="23">
         <f>SUM(I24:I38)</f>
         <v>11.610000000000003</v>
@@ -6426,21 +6515,21 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="4" width="13.3515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.64453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.87890625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -6452,19 +6541,19 @@
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="42" t="s">
         <v>244</v>
       </c>
       <c r="B2" s="43"/>
       <c r="C2" s="43"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="43"/>
       <c r="B3" s="43"/>
       <c r="C3" s="43"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
         <v>12</v>
       </c>
@@ -6496,7 +6585,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="4">
         <v>1</v>
       </c>
@@ -6528,7 +6617,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="4">
         <v>2</v>
       </c>
@@ -6560,7 +6649,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="4">
         <v>3</v>
       </c>
@@ -6592,7 +6681,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="4">
         <v>4</v>
       </c>
@@ -6624,7 +6713,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="4">
         <v>5</v>
       </c>
@@ -6656,7 +6745,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="4">
         <v>6</v>
       </c>
@@ -6688,7 +6777,7 @@
         <v>-0.42</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="4">
         <v>7</v>
       </c>
@@ -6720,7 +6809,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="4">
         <v>8</v>
       </c>
@@ -6752,7 +6841,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="4">
         <v>9</v>
       </c>
@@ -6784,7 +6873,7 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="4">
         <v>10</v>
       </c>
@@ -6816,7 +6905,7 @@
         <v>-0.06</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="4">
         <v>11</v>
       </c>
@@ -6848,7 +6937,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="4">
         <v>12</v>
       </c>
@@ -6880,7 +6969,7 @@
         <v>-0.34</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" s="4">
         <v>13</v>
       </c>
@@ -6912,7 +7001,7 @@
         <v>-0.42</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" s="4">
         <v>14</v>
       </c>
@@ -6944,7 +7033,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" s="4">
         <v>15</v>
       </c>
@@ -6976,25 +7065,25 @@
         <v>-0.22</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="J20" s="23">
         <f>SUM(J5:J19)</f>
         <v>3.4200000000000008</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" s="42" t="s">
         <v>245</v>
       </c>
       <c r="B21" s="43"/>
       <c r="C21" s="43"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" s="43"/>
       <c r="B22" s="43"/>
       <c r="C22" s="43"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" s="8" t="s">
         <v>12</v>
       </c>
@@ -7023,7 +7112,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" s="4">
         <v>1</v>
       </c>
@@ -7052,7 +7141,7 @@
         <v>1.37</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" s="4">
         <v>2</v>
       </c>
@@ -7081,7 +7170,7 @@
         <v>-0.11</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" s="4">
         <v>3</v>
       </c>
@@ -7110,7 +7199,7 @@
         <v>-0.18</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" s="4">
         <v>4</v>
       </c>
@@ -7139,7 +7228,7 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" s="4">
         <v>5</v>
       </c>
@@ -7168,7 +7257,7 @@
         <v>-0.32</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" s="4">
         <v>6</v>
       </c>
@@ -7197,7 +7286,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" s="4">
         <v>7</v>
       </c>
@@ -7226,7 +7315,7 @@
         <v>-0.86</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" s="4">
         <v>8</v>
       </c>
@@ -7255,7 +7344,7 @@
         <v>-0.28000000000000003</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" s="4">
         <v>9</v>
       </c>
@@ -7284,7 +7373,7 @@
         <v>-0.36</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" s="4">
         <v>10</v>
       </c>
@@ -7313,7 +7402,7 @@
         <v>-0.41</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" s="4">
         <v>11</v>
       </c>
@@ -7342,7 +7431,7 @@
         <v>-0.28999999999999998</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" s="4">
         <v>12</v>
       </c>
@@ -7371,7 +7460,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" s="4">
         <v>13</v>
       </c>
@@ -7400,7 +7489,7 @@
         <v>-0.19</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" s="4">
         <v>14</v>
       </c>
@@ -7429,7 +7518,7 @@
         <v>-0.28999999999999998</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" s="4">
         <v>15</v>
       </c>
@@ -7458,7 +7547,7 @@
         <v>-0.66</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="I39" s="23">
         <f>SUM(I24:I38)</f>
         <v>-2.3199999999999998</v>
@@ -7475,28 +7564,28 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="42" t="s">
         <v>355</v>
       </c>
       <c r="B1" s="43"/>
       <c r="C1" s="43"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="43"/>
       <c r="B2" s="43"/>
       <c r="C2" s="43"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
         <v>12</v>
       </c>
@@ -7513,7 +7602,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="6">
         <v>1</v>
       </c>
@@ -7535,7 +7624,7 @@
       <c r="H5" s="1"/>
       <c r="I5" s="3"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="6">
         <v>2</v>
       </c>
@@ -7557,7 +7646,7 @@
       <c r="H6" s="2"/>
       <c r="I6" s="3"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="6">
         <v>3</v>
       </c>
@@ -7579,7 +7668,7 @@
       <c r="H7" s="2"/>
       <c r="I7" s="3"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="6">
         <v>4</v>
       </c>
@@ -7601,7 +7690,7 @@
       <c r="H8" s="2"/>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="6">
         <v>5</v>
       </c>
@@ -7623,7 +7712,7 @@
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="6">
         <v>6</v>
       </c>
@@ -7645,7 +7734,7 @@
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="6">
         <v>7</v>
       </c>
@@ -7667,7 +7756,7 @@
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="6">
         <v>8</v>
       </c>
@@ -7689,7 +7778,7 @@
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="6">
         <v>9</v>
       </c>
@@ -7711,7 +7800,7 @@
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="6">
         <v>10</v>
       </c>
@@ -7734,7 +7823,7 @@
       <c r="I14" s="3"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:E14">
+  <sortState ref="A5:E14">
     <sortCondition descending="1" ref="E5:E14"/>
   </sortState>
   <mergeCells count="1">
@@ -7746,16 +7835,16 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="44" t="s">
         <v>202</v>
       </c>
@@ -7769,7 +7858,7 @@
       <c r="H1" s="45"/>
       <c r="I1" s="45"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="44"/>
       <c r="B2" s="44"/>
       <c r="C2" s="44"/>
@@ -7779,7 +7868,7 @@
       <c r="H2" s="45"/>
       <c r="I2" s="45"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="27" t="s">
         <v>12</v>
       </c>
@@ -7803,7 +7892,7 @@
       <c r="I3" s="10"/>
       <c r="J3" s="10"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -7827,7 +7916,7 @@
       <c r="I4" s="10"/>
       <c r="J4" s="10"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="6">
         <v>2</v>
       </c>
@@ -7851,7 +7940,7 @@
       <c r="I5" s="10"/>
       <c r="J5" s="10"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="6">
         <v>3</v>
       </c>
@@ -7875,7 +7964,7 @@
       <c r="I6" s="10"/>
       <c r="J6" s="10"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="6">
         <v>4</v>
       </c>
@@ -7899,7 +7988,7 @@
       <c r="I7" s="10"/>
       <c r="J7" s="10"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="6">
         <v>5</v>
       </c>
@@ -7923,7 +8012,7 @@
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="24">
         <v>6</v>
       </c>
@@ -7947,7 +8036,7 @@
       <c r="I9" s="10"/>
       <c r="J9" s="10"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="6">
         <v>7</v>
       </c>
@@ -7971,7 +8060,7 @@
       <c r="I10" s="10"/>
       <c r="J10" s="10"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="6">
         <v>8</v>
       </c>
@@ -7995,7 +8084,7 @@
       <c r="I11" s="10"/>
       <c r="J11" s="10"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="6">
         <v>9</v>
       </c>
@@ -8019,7 +8108,7 @@
       <c r="I12" s="10"/>
       <c r="J12" s="10"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="6">
         <v>10</v>
       </c>
@@ -8043,7 +8132,7 @@
       <c r="I13" s="10"/>
       <c r="J13" s="10"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="44" t="s">
         <v>357</v>
       </c>
@@ -8051,13 +8140,13 @@
       <c r="C15" s="44"/>
       <c r="D15" s="44"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="44"/>
       <c r="B16" s="44"/>
       <c r="C16" s="44"/>
       <c r="D16" s="44"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="8" t="s">
         <v>13</v>
       </c>
@@ -8080,7 +8169,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="6" t="s">
         <v>204</v>
       </c>
@@ -8103,7 +8192,7 @@
         <v>2.88</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="6" t="s">
         <v>205</v>
       </c>
@@ -8126,7 +8215,7 @@
         <v>3.48</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="6" t="s">
         <v>207</v>
       </c>
@@ -8149,7 +8238,7 @@
         <v>3.21</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="11" t="s">
         <v>206</v>
       </c>
@@ -8172,7 +8261,7 @@
         <v>4.12</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="11" t="s">
         <v>208</v>
       </c>
@@ -8195,7 +8284,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="16" t="s">
         <v>225</v>
       </c>
@@ -8216,7 +8305,7 @@
       </c>
       <c r="G23" s="19"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="45" t="s">
         <v>358</v>
       </c>
@@ -8224,13 +8313,13 @@
       <c r="C25" s="45"/>
       <c r="D25" s="45"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="45"/>
       <c r="B26" s="45"/>
       <c r="C26" s="45"/>
       <c r="D26" s="45"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="8" t="s">
         <v>13</v>
       </c>
@@ -8253,7 +8342,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="6" t="s">
         <v>213</v>
       </c>
@@ -8276,7 +8365,7 @@
         <v>2.93</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="6" t="s">
         <v>214</v>
       </c>
@@ -8299,7 +8388,7 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="6" t="s">
         <v>215</v>
       </c>
@@ -8322,7 +8411,7 @@
         <v>5.18</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="6" t="s">
         <v>216</v>
       </c>
@@ -8345,7 +8434,7 @@
         <v>3.71</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="6" t="s">
         <v>217</v>
       </c>
@@ -8368,7 +8457,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" s="6" t="s">
         <v>218</v>
       </c>
@@ -8391,7 +8480,7 @@
         <v>3.64</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" s="16" t="s">
         <v>226</v>
       </c>
@@ -8412,7 +8501,7 @@
       </c>
       <c r="G34" s="16"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" s="16" t="s">
         <v>219</v>
       </c>
@@ -8433,7 +8522,7 @@
       </c>
       <c r="G35" s="16"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" s="20" t="s">
         <v>220</v>
       </c>
@@ -8468,20 +8557,20 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P39"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="12" max="14" width="13.41015625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.234375" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" s="44" t="s">
         <v>202</v>
       </c>
@@ -8501,7 +8590,7 @@
       <c r="M1" s="46"/>
       <c r="N1" s="46"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" s="44"/>
       <c r="B2" s="44"/>
       <c r="C2" s="44"/>
@@ -8515,7 +8604,7 @@
       <c r="M2" s="46"/>
       <c r="N2" s="46"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.7">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" s="12" t="s">
         <v>12</v>
       </c>
@@ -8557,7 +8646,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.7">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -8602,7 +8691,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.7">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" s="6">
         <v>2</v>
       </c>
@@ -8647,7 +8736,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.7">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" s="6">
         <v>3</v>
       </c>
@@ -8692,7 +8781,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.7">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" s="6">
         <v>4</v>
       </c>
@@ -8737,7 +8826,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.7">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" s="6">
         <v>5</v>
       </c>
@@ -8782,7 +8871,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.7">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9" s="24">
         <v>6</v>
       </c>
@@ -8827,7 +8916,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.7">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" s="6">
         <v>7</v>
       </c>
@@ -8872,7 +8961,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.7">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11" s="6">
         <v>8</v>
       </c>
@@ -8917,7 +9006,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.7">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12" s="6">
         <v>9</v>
       </c>
@@ -8962,7 +9051,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.7">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13" s="6">
         <v>10</v>
       </c>
@@ -9007,7 +9096,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.7">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15" s="44" t="s">
         <v>357</v>
       </c>
@@ -9021,7 +9110,7 @@
       <c r="M15" s="47"/>
       <c r="N15" s="47"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.7">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16" s="44"/>
       <c r="B16" s="44"/>
       <c r="C16" s="44"/>
@@ -9031,7 +9120,7 @@
       <c r="M16" s="47"/>
       <c r="N16" s="47"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.7">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A17" s="8" t="s">
         <v>13</v>
       </c>
@@ -9072,7 +9161,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.7">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A18" s="6" t="s">
         <v>204</v>
       </c>
@@ -9117,7 +9206,7 @@
         <v>34.5</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.7">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A19" s="28" t="s">
         <v>207</v>
       </c>
@@ -9162,7 +9251,7 @@
         <v>52.230000000000004</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.7">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A20" s="6" t="s">
         <v>206</v>
       </c>
@@ -9207,7 +9296,7 @@
         <v>38.859999999999992</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.7">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A21" s="29" t="s">
         <v>225</v>
       </c>
@@ -9251,7 +9340,7 @@
         <v>42.62</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.7">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A22" s="29" t="s">
         <v>205</v>
       </c>
@@ -9296,7 +9385,7 @@
         <v>53.94</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.7">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
       <c r="K23" s="4">
         <v>6</v>
       </c>
@@ -9320,7 +9409,7 @@
         <v>38.500000000000007</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.7">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A24" s="45" t="s">
         <v>358</v>
       </c>
@@ -9350,7 +9439,7 @@
         <v>39.58</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.7">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A25" s="45"/>
       <c r="B25" s="45"/>
       <c r="C25" s="45"/>
@@ -9378,7 +9467,7 @@
         <v>36.200000000000003</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.7">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A26" s="27" t="s">
         <v>13</v>
       </c>
@@ -9422,7 +9511,7 @@
         <v>39.82</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.7">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A27" s="6" t="s">
         <v>213</v>
       </c>
@@ -9467,7 +9556,7 @@
         <v>11.700000000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.7">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A28" s="6" t="s">
         <v>360</v>
       </c>
@@ -9490,7 +9579,7 @@
         <v>4.1500000000000004</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.7">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A29" s="28" t="s">
         <v>361</v>
       </c>
@@ -9531,7 +9620,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.7">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A30" s="28" t="s">
         <v>217</v>
       </c>
@@ -9572,7 +9661,7 @@
         <v>53.94</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.7">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A31" s="28" t="s">
         <v>362</v>
       </c>
@@ -9613,7 +9702,7 @@
         <v>51.480000000000004</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.7">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A32" s="28" t="s">
         <v>363</v>
       </c>
@@ -9654,7 +9743,7 @@
         <v>43.569999999999993</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.7">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A33" s="33" t="s">
         <v>372</v>
       </c>
@@ -9695,7 +9784,7 @@
         <v>39.82</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.7">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A34" s="33" t="s">
         <v>1123</v>
       </c>
@@ -9736,7 +9825,7 @@
         <v>39.58</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.7">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
       <c r="K35" s="39">
         <v>6</v>
       </c>
@@ -9756,7 +9845,7 @@
         <v>38.859999999999992</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.7">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
       <c r="K36" s="4">
         <v>7</v>
       </c>
@@ -9776,7 +9865,7 @@
         <v>38.500000000000007</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.7">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
       <c r="K37" s="4">
         <v>8</v>
       </c>
@@ -9796,7 +9885,7 @@
         <v>36.200000000000003</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.7">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
       <c r="K38" s="4">
         <v>9</v>
       </c>
@@ -9816,7 +9905,7 @@
         <v>33.849999999999994</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.7">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
       <c r="K39" s="4">
         <v>10</v>
       </c>
@@ -9837,7 +9926,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="K30:P39">
+  <sortState ref="K30:P39">
     <sortCondition descending="1" ref="P30:P39"/>
   </sortState>
   <mergeCells count="6">
@@ -9856,22 +9945,22 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H142"/>
   <sheetViews>
-    <sheetView topLeftCell="A122" workbookViewId="0">
-      <selection activeCell="G131" sqref="G131"/>
+    <sheetView tabSelected="1" topLeftCell="A129" workbookViewId="0">
+      <selection activeCell="D160" sqref="D160"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="18" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="6" width="8.87890625" style="2"/>
-    <col min="7" max="7" width="14.3515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.1171875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.87890625" style="2"/>
+    <col min="1" max="6" width="8.88671875" style="2"/>
+    <col min="7" max="7" width="14.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="36" t="s">
         <v>12</v>
       </c>
@@ -9897,7 +9986,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -9923,7 +10012,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -9949,7 +10038,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -9975,7 +10064,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -10001,7 +10090,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -10027,7 +10116,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -10053,7 +10142,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -10079,7 +10168,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -10105,7 +10194,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -10131,7 +10220,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -10157,7 +10246,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -10183,7 +10272,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -10209,7 +10298,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -10235,7 +10324,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -10261,7 +10350,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -10287,7 +10376,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -10313,7 +10402,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -10339,7 +10428,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -10365,7 +10454,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -10391,7 +10480,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -10417,7 +10506,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -10443,7 +10532,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -10469,7 +10558,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -10495,7 +10584,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -10521,7 +10610,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -10547,7 +10636,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -10573,7 +10662,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -10599,7 +10688,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -10625,7 +10714,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -10651,7 +10740,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -10677,7 +10766,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -10703,7 +10792,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -10729,7 +10818,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -10755,7 +10844,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -10781,7 +10870,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -10807,7 +10896,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -10833,7 +10922,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -10859,7 +10948,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" s="2">
         <v>38</v>
       </c>
@@ -10885,7 +10974,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" s="2">
         <v>39</v>
       </c>
@@ -10911,7 +11000,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -10937,7 +11026,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -10963,7 +11052,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" s="2">
         <v>42</v>
       </c>
@@ -10989,7 +11078,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44" s="2">
         <v>43</v>
       </c>
@@ -11015,7 +11104,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45" s="2">
         <v>44</v>
       </c>
@@ -11041,7 +11130,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46" s="2">
         <v>45</v>
       </c>
@@ -11067,7 +11156,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47" s="2">
         <v>46</v>
       </c>
@@ -11093,7 +11182,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48" s="2">
         <v>47</v>
       </c>
@@ -11119,7 +11208,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A49" s="2">
         <v>48</v>
       </c>
@@ -11145,7 +11234,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A50" s="2">
         <v>49</v>
       </c>
@@ -11171,7 +11260,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A51" s="2">
         <v>50</v>
       </c>
@@ -11197,7 +11286,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A52" s="2">
         <v>51</v>
       </c>
@@ -11223,7 +11312,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A53" s="2">
         <v>52</v>
       </c>
@@ -11249,7 +11338,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A54" s="2">
         <v>53</v>
       </c>
@@ -11275,7 +11364,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A55" s="2">
         <v>54</v>
       </c>
@@ -11301,7 +11390,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A56" s="2">
         <v>55</v>
       </c>
@@ -11327,7 +11416,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A57" s="2">
         <v>56</v>
       </c>
@@ -11353,7 +11442,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A58" s="2">
         <v>57</v>
       </c>
@@ -11379,7 +11468,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A59" s="2">
         <v>58</v>
       </c>
@@ -11405,7 +11494,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A60" s="2">
         <v>59</v>
       </c>
@@ -11431,7 +11520,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A61" s="2">
         <v>60</v>
       </c>
@@ -11457,7 +11546,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A62" s="2">
         <v>61</v>
       </c>
@@ -11483,7 +11572,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A63" s="2">
         <v>62</v>
       </c>
@@ -11509,7 +11598,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A64" s="2">
         <v>63</v>
       </c>
@@ -11535,7 +11624,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A65" s="2">
         <v>64</v>
       </c>
@@ -11561,7 +11650,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A66" s="2">
         <v>65</v>
       </c>
@@ -11587,7 +11676,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A67" s="2">
         <v>66</v>
       </c>
@@ -11613,7 +11702,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A68" s="2">
         <v>67</v>
       </c>
@@ -11639,7 +11728,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A69" s="2">
         <v>68</v>
       </c>
@@ -11665,7 +11754,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A70" s="2">
         <v>69</v>
       </c>
@@ -11691,7 +11780,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A71" s="2">
         <v>70</v>
       </c>
@@ -11717,7 +11806,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A72" s="2">
         <v>71</v>
       </c>
@@ -11743,7 +11832,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A73" s="2">
         <v>72</v>
       </c>
@@ -11769,7 +11858,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A74" s="2">
         <v>73</v>
       </c>
@@ -11795,7 +11884,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A75" s="2">
         <v>74</v>
       </c>
@@ -11821,7 +11910,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A76" s="2">
         <v>75</v>
       </c>
@@ -11847,7 +11936,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A77" s="2">
         <v>76</v>
       </c>
@@ -11873,7 +11962,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A78" s="2">
         <v>77</v>
       </c>
@@ -11899,7 +11988,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A79" s="2">
         <v>78</v>
       </c>
@@ -11925,7 +12014,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A80" s="2">
         <v>79</v>
       </c>
@@ -11951,7 +12040,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A81" s="2">
         <v>80</v>
       </c>
@@ -11977,7 +12066,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A82" s="2">
         <v>81</v>
       </c>
@@ -12003,7 +12092,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A83" s="2">
         <v>82</v>
       </c>
@@ -12029,7 +12118,10 @@
         <v>378</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A84" s="2">
+        <v>83</v>
+      </c>
       <c r="B84" s="2" t="s">
         <v>1135</v>
       </c>
@@ -12052,9 +12144,9 @@
         <v>388</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A85" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B85" s="36" t="s">
         <v>408</v>
@@ -12078,9 +12170,9 @@
         <v>414</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A86" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>505</v>
@@ -12104,9 +12196,9 @@
         <v>427</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A87" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>502</v>
@@ -12130,9 +12222,9 @@
         <v>427</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A88" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>503</v>
@@ -12156,9 +12248,9 @@
         <v>427</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A89" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>501</v>
@@ -12182,9 +12274,9 @@
         <v>427</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A90" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>500</v>
@@ -12208,9 +12300,9 @@
         <v>427</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A91" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B91" s="36" t="s">
         <v>506</v>
@@ -12234,9 +12326,9 @@
         <v>427</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A92" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>504</v>
@@ -12260,9 +12352,9 @@
         <v>427</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A93" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B93" s="36" t="s">
         <v>507</v>
@@ -12286,9 +12378,9 @@
         <v>427</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A94" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B94" s="36" t="s">
         <v>423</v>
@@ -12312,9 +12404,9 @@
         <v>378</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A95" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>499</v>
@@ -12338,9 +12430,9 @@
         <v>378</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A96" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>404</v>
@@ -12364,9 +12456,9 @@
         <v>413</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A97" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>489</v>
@@ -12390,9 +12482,9 @@
         <v>427</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A98" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>492</v>
@@ -12416,9 +12508,9 @@
         <v>427</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A99" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>486</v>
@@ -12442,9 +12534,9 @@
         <v>427</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A100" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>493</v>
@@ -12468,9 +12560,9 @@
         <v>427</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A101" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>494</v>
@@ -12494,9 +12586,9 @@
         <v>427</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A102" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>485</v>
@@ -12520,9 +12612,9 @@
         <v>427</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A103" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>491</v>
@@ -12546,9 +12638,9 @@
         <v>427</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A104" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>490</v>
@@ -12572,9 +12664,9 @@
         <v>427</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A105" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>487</v>
@@ -12598,9 +12690,9 @@
         <v>427</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A106" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>495</v>
@@ -12624,9 +12716,9 @@
         <v>427</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A107" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>488</v>
@@ -12650,9 +12742,9 @@
         <v>427</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A108" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>381</v>
@@ -12676,9 +12768,9 @@
         <v>427</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A109" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B109" s="36" t="s">
         <v>498</v>
@@ -12702,9 +12794,9 @@
         <v>378</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A110" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B110" s="36" t="s">
         <v>496</v>
@@ -12728,9 +12820,9 @@
         <v>378</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A111" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B111" s="36" t="s">
         <v>497</v>
@@ -12754,9 +12846,9 @@
         <v>378</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A112" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B112" s="36" t="s">
         <v>530</v>
@@ -12780,9 +12872,9 @@
         <v>427</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A113" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B113" s="36" t="s">
         <v>528</v>
@@ -12806,9 +12898,9 @@
         <v>427</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A114" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B114" s="36" t="s">
         <v>524</v>
@@ -12832,9 +12924,9 @@
         <v>427</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A115" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B115" s="36" t="s">
         <v>531</v>
@@ -12858,9 +12950,9 @@
         <v>427</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A116" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B116" s="36" t="s">
         <v>529</v>
@@ -12884,9 +12976,9 @@
         <v>427</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A117" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B117" s="36" t="s">
         <v>525</v>
@@ -12910,9 +13002,9 @@
         <v>427</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A118" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B118" s="36" t="s">
         <v>526</v>
@@ -12936,9 +13028,9 @@
         <v>427</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A119" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B119" s="36" t="s">
         <v>527</v>
@@ -12962,9 +13054,9 @@
         <v>427</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A120" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B120" s="36" t="s">
         <v>523</v>
@@ -12988,9 +13080,9 @@
         <v>378</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A121" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B121" s="36" t="s">
         <v>532</v>
@@ -13014,9 +13106,9 @@
         <v>533</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A122" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>392</v>
@@ -13040,9 +13132,9 @@
         <v>393</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A123" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>394</v>
@@ -13066,9 +13158,9 @@
         <v>393</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A124" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>402</v>
@@ -13092,9 +13184,9 @@
         <v>413</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A125" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B125" s="36" t="s">
         <v>409</v>
@@ -13118,9 +13210,9 @@
         <v>414</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A126" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B126" s="36" t="s">
         <v>480</v>
@@ -13144,9 +13236,9 @@
         <v>427</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A127" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B127" s="36" t="s">
         <v>483</v>
@@ -13170,9 +13262,9 @@
         <v>427</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A128" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>477</v>
@@ -13196,9 +13288,9 @@
         <v>427</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A129" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>475</v>
@@ -13222,9 +13314,9 @@
         <v>427</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A130" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B130" s="36" t="s">
         <v>479</v>
@@ -13248,9 +13340,9 @@
         <v>427</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A131" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B131" s="36" t="s">
         <v>478</v>
@@ -13274,9 +13366,9 @@
         <v>427</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A132" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B132" s="36" t="s">
         <v>481</v>
@@ -13300,9 +13392,9 @@
         <v>427</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A133" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>476</v>
@@ -13326,9 +13418,9 @@
         <v>427</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A134" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B134" s="36" t="s">
         <v>482</v>
@@ -13352,9 +13444,9 @@
         <v>427</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A135" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B135" s="36" t="s">
         <v>484</v>
@@ -13378,9 +13470,9 @@
         <v>427</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A136" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B136" s="2" t="s">
         <v>385</v>
@@ -13404,9 +13496,9 @@
         <v>427</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A137" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B137" s="36" t="s">
         <v>383</v>
@@ -13430,9 +13522,9 @@
         <v>427</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A138" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B138" s="36" t="s">
         <v>422</v>
@@ -13456,9 +13548,9 @@
         <v>424</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A139" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B139" s="36" t="s">
         <v>474</v>
@@ -13482,9 +13574,9 @@
         <v>378</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A140" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B140" s="36" t="s">
         <v>553</v>
@@ -13508,9 +13600,9 @@
         <v>427</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A141" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B141" s="36" t="s">
         <v>613</v>
@@ -13534,9 +13626,9 @@
         <v>427</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A142" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B142" s="2" t="s">
         <v>1137</v>
@@ -13561,32 +13653,33 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H140">
+  <sortState ref="A2:H140">
     <sortCondition ref="D2:D140"/>
     <sortCondition ref="H2:H140"/>
     <sortCondition ref="B2:B140"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView topLeftCell="A88" workbookViewId="0">
       <selection activeCell="D102" sqref="D102"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="18" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="6" width="8.87890625" style="10"/>
-    <col min="7" max="7" width="20.52734375" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.87890625" style="10"/>
+    <col min="1" max="6" width="8.88671875" style="10"/>
+    <col min="7" max="7" width="20.5546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="36" t="s">
         <v>12</v>
       </c>
@@ -13609,7 +13702,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="36">
         <v>1</v>
       </c>
@@ -13632,7 +13725,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="36">
         <v>2</v>
       </c>
@@ -13655,7 +13748,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="36">
         <v>3</v>
       </c>
@@ -13678,7 +13771,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="36">
         <v>4</v>
       </c>
@@ -13701,7 +13794,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="36">
         <v>5</v>
       </c>
@@ -13724,7 +13817,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="36">
         <v>6</v>
       </c>
@@ -13747,7 +13840,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="36">
         <v>7</v>
       </c>
@@ -13770,7 +13863,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="36">
         <v>8</v>
       </c>
@@ -13793,7 +13886,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="36">
         <v>9</v>
       </c>
@@ -13816,7 +13909,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="36">
         <v>1</v>
       </c>
@@ -13839,7 +13932,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="36">
         <v>2</v>
       </c>
@@ -13862,7 +13955,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="36">
         <v>3</v>
       </c>
@@ -13885,7 +13978,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="36">
         <v>1</v>
       </c>
@@ -13908,7 +14001,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="36">
         <v>2</v>
       </c>
@@ -13931,7 +14024,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="36">
         <v>3</v>
       </c>
@@ -13954,7 +14047,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="36">
         <v>4</v>
       </c>
@@ -13977,7 +14070,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="36">
         <v>5</v>
       </c>
@@ -14000,7 +14093,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="36">
         <v>6</v>
       </c>
@@ -14023,7 +14116,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="36">
         <v>7</v>
       </c>
@@ -14046,7 +14139,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="36">
         <v>8</v>
       </c>
@@ -14069,7 +14162,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="36">
         <v>9</v>
       </c>
@@ -14092,7 +14185,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="36">
         <v>10</v>
       </c>
@@ -14115,7 +14208,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="36">
         <v>11</v>
       </c>
@@ -14138,7 +14231,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="36">
         <v>12</v>
       </c>
@@ -14161,7 +14254,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="36">
         <v>13</v>
       </c>
@@ -14184,7 +14277,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="36">
         <v>1</v>
       </c>
@@ -14207,7 +14300,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="36">
         <v>2</v>
       </c>
@@ -14230,7 +14323,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="36">
         <v>3</v>
       </c>
@@ -14253,7 +14346,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="36">
         <v>4</v>
       </c>
@@ -14276,7 +14369,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="36">
         <v>5</v>
       </c>
@@ -14299,7 +14392,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="36">
         <v>6</v>
       </c>
@@ -14322,7 +14415,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" s="36">
         <v>7</v>
       </c>
@@ -14345,7 +14438,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" s="36">
         <v>8</v>
       </c>
@@ -14368,7 +14461,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" s="36">
         <v>1</v>
       </c>
@@ -14391,7 +14484,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" s="36">
         <v>2</v>
       </c>
@@ -14414,7 +14507,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" s="36">
         <v>3</v>
       </c>
@@ -14437,7 +14530,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" s="36">
         <v>4</v>
       </c>
@@ -14460,7 +14553,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" s="36">
         <v>5</v>
       </c>
@@ -14483,7 +14576,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" s="36">
         <v>6</v>
       </c>
@@ -14506,7 +14599,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" s="36">
         <v>7</v>
       </c>
@@ -14529,7 +14622,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" s="36">
         <v>8</v>
       </c>
@@ -14552,7 +14645,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" s="36">
         <v>9</v>
       </c>
@@ -14575,7 +14668,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" s="36">
         <v>10</v>
       </c>
@@ -14598,7 +14691,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" s="36">
         <v>11</v>
       </c>
@@ -14621,7 +14714,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" s="36">
         <v>12</v>
       </c>
@@ -14644,7 +14737,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" s="36">
         <v>13</v>
       </c>
@@ -14667,7 +14760,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" s="36">
         <v>14</v>
       </c>
@@ -14690,7 +14783,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49" s="36">
         <v>15</v>
       </c>
@@ -14713,7 +14806,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50" s="36">
         <v>16</v>
       </c>
@@ -14736,7 +14829,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51" s="36">
         <v>17</v>
       </c>
@@ -14759,7 +14852,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52" s="36">
         <v>18</v>
       </c>
@@ -14782,7 +14875,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53" s="36">
         <v>1</v>
       </c>
@@ -14805,7 +14898,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54" s="36">
         <v>2</v>
       </c>
@@ -14828,7 +14921,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55" s="36">
         <v>3</v>
       </c>
@@ -14851,7 +14944,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56" s="36">
         <v>4</v>
       </c>
@@ -14874,7 +14967,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57" s="36">
         <v>5</v>
       </c>
@@ -14897,7 +14990,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58" s="36">
         <v>6</v>
       </c>
@@ -14920,7 +15013,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A59" s="36">
         <v>7</v>
       </c>
@@ -14943,7 +15036,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60" s="36">
         <v>8</v>
       </c>
@@ -14966,7 +15059,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A61" s="36">
         <v>9</v>
       </c>
@@ -14989,7 +15082,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A62" s="36">
         <v>10</v>
       </c>
@@ -15012,7 +15105,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A63" s="36">
         <v>11</v>
       </c>
@@ -15035,7 +15128,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A64" s="36">
         <v>12</v>
       </c>
@@ -15058,7 +15151,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A65" s="36">
         <v>13</v>
       </c>
@@ -15081,7 +15174,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A66" s="36">
         <v>1</v>
       </c>
@@ -15104,7 +15197,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A67" s="36">
         <v>2</v>
       </c>
@@ -15127,7 +15220,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A68" s="36">
         <v>3</v>
       </c>
@@ -15150,7 +15243,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A69" s="36">
         <v>4</v>
       </c>
@@ -15173,7 +15266,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A70" s="36">
         <v>5</v>
       </c>
@@ -15196,7 +15289,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A71" s="36">
         <v>1</v>
       </c>
@@ -15219,7 +15312,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A72" s="36">
         <v>2</v>
       </c>
@@ -15242,7 +15335,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A73" s="36">
         <v>3</v>
       </c>
@@ -15265,7 +15358,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A74" s="36">
         <v>4</v>
       </c>
@@ -15288,7 +15381,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A75" s="36">
         <v>5</v>
       </c>
@@ -15311,7 +15404,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A76" s="36">
         <v>6</v>
       </c>
@@ -15334,7 +15427,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A77" s="36">
         <v>7</v>
       </c>
@@ -15357,7 +15450,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A78" s="36">
         <v>8</v>
       </c>
@@ -15380,7 +15473,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A79" s="36">
         <v>9</v>
       </c>
@@ -15403,7 +15496,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A80" s="36">
         <v>10</v>
       </c>
@@ -15426,7 +15519,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A81" s="36">
         <v>11</v>
       </c>
@@ -15449,7 +15542,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A82" s="36">
         <v>12</v>
       </c>
@@ -15472,7 +15565,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A83" s="36">
         <v>13</v>
       </c>
@@ -15495,7 +15588,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A84" s="36">
         <v>1</v>
       </c>
@@ -15518,7 +15611,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A85" s="36">
         <v>2</v>
       </c>
@@ -15541,7 +15634,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A86" s="36">
         <v>3</v>
       </c>
@@ -15564,7 +15657,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A87" s="36">
         <v>4</v>
       </c>
@@ -15587,7 +15680,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A88" s="36">
         <v>5</v>
       </c>
@@ -15610,7 +15703,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A89" s="36">
         <v>6</v>
       </c>
@@ -15633,7 +15726,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A90" s="36">
         <v>7</v>
       </c>
@@ -15656,7 +15749,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A91" s="36">
         <v>8</v>
       </c>
@@ -15679,7 +15772,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A92" s="36">
         <v>9</v>
       </c>
@@ -15702,7 +15795,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A93" s="36">
         <v>10</v>
       </c>
@@ -15725,7 +15818,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A94" s="36">
         <v>11</v>
       </c>
@@ -15748,7 +15841,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A95" s="36">
         <v>1</v>
       </c>
@@ -15771,7 +15864,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A96" s="36">
         <v>2</v>
       </c>
@@ -15794,7 +15887,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A97" s="36">
         <v>3</v>
       </c>
@@ -15817,7 +15910,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A98" s="36">
         <v>4</v>
       </c>
@@ -15840,7 +15933,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A99" s="36">
         <v>5</v>
       </c>
@@ -15863,7 +15956,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A100" s="36">
         <v>6</v>
       </c>
@@ -15886,7 +15979,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A101" s="36">
         <v>7</v>
       </c>
@@ -15909,7 +16002,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A102" s="36">
         <v>8</v>
       </c>
@@ -15932,7 +16025,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A103" s="36">
         <v>9</v>
       </c>
@@ -15955,7 +16048,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A104" s="36">
         <v>10</v>
       </c>
@@ -15979,7 +16072,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G104">
+  <sortState ref="A2:G104">
     <sortCondition ref="D2:D104"/>
     <sortCondition ref="F2:F104"/>
     <sortCondition ref="E2:E104"/>
@@ -15991,27 +16084,27 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="18" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.87890625" style="10"/>
-    <col min="2" max="2" width="11.1171875" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.76171875" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="8.87890625" style="10"/>
-    <col min="7" max="7" width="10.234375" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.234375" style="10" customWidth="1"/>
-    <col min="9" max="9" width="30.52734375" style="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.87890625" style="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.87890625" style="10"/>
+    <col min="1" max="1" width="8.88671875" style="10"/>
+    <col min="2" max="2" width="11.109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.77734375" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="8.88671875" style="10"/>
+    <col min="7" max="7" width="10.21875" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.21875" style="10" customWidth="1"/>
+    <col min="9" max="9" width="30.5546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.88671875" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="36" t="s">
         <v>12</v>
       </c>
@@ -16046,7 +16139,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -16081,7 +16174,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -16116,7 +16209,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -16151,7 +16244,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -16186,7 +16279,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -16221,7 +16314,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -16256,7 +16349,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -16291,7 +16384,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -16326,7 +16419,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -16361,7 +16454,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="36">
         <v>10</v>
       </c>
@@ -16396,7 +16489,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="36">
         <v>11</v>
       </c>
@@ -16431,7 +16524,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" s="36">
         <v>12</v>
       </c>
@@ -16466,7 +16559,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" s="36">
         <v>13</v>
       </c>
@@ -16501,7 +16594,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" s="36">
         <v>14</v>
       </c>
@@ -16536,7 +16629,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" s="36">
         <v>15</v>
       </c>
@@ -16571,7 +16664,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" s="36">
         <v>16</v>
       </c>
@@ -16606,7 +16699,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" s="36">
         <v>17</v>
       </c>
@@ -16641,7 +16734,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" s="36">
         <v>18</v>
       </c>
@@ -16676,7 +16769,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" s="36">
         <v>19</v>
       </c>
@@ -16711,7 +16804,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" s="36">
         <v>20</v>
       </c>
@@ -16746,7 +16839,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" s="36">
         <v>21</v>
       </c>
@@ -16781,7 +16874,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" s="36">
         <v>22</v>
       </c>
@@ -16816,7 +16909,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" s="36">
         <v>23</v>
       </c>
@@ -16851,7 +16944,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" s="36">
         <v>24</v>
       </c>
@@ -16886,7 +16979,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" s="36">
         <v>25</v>
       </c>
@@ -16921,7 +17014,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.7">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" s="36">
         <v>26</v>
       </c>
@@ -16963,24 +17056,24 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G144"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E16" sqref="E16:E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="18" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.87890625" style="2"/>
+    <col min="1" max="1" width="8.88671875" style="2"/>
     <col min="2" max="2" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.87890625" style="2"/>
-    <col min="4" max="4" width="36.41015625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.1171875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.87890625" style="2"/>
+    <col min="3" max="3" width="8.88671875" style="2"/>
+    <col min="4" max="4" width="36.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="36" t="s">
         <v>12</v>
       </c>
@@ -17003,7 +17096,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -17026,7 +17119,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -17049,7 +17142,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -17072,7 +17165,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -17095,7 +17188,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -17118,7 +17211,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -17141,7 +17234,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -17164,7 +17257,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -17187,7 +17280,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -17210,7 +17303,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -17233,7 +17326,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -17256,7 +17349,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -17279,7 +17372,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -17302,7 +17395,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -17325,7 +17418,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>1</v>
       </c>
@@ -17348,7 +17441,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>2</v>
       </c>
@@ -17371,7 +17464,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>3</v>
       </c>
@@ -17394,7 +17487,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>4</v>
       </c>
@@ -17417,7 +17510,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>5</v>
       </c>
@@ -17440,7 +17533,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>6</v>
       </c>
@@ -17463,7 +17556,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <v>7</v>
       </c>
@@ -17486,7 +17579,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <v>8</v>
       </c>
@@ -17509,7 +17602,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <v>9</v>
       </c>
@@ -17532,7 +17625,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <v>10</v>
       </c>
@@ -17555,7 +17648,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
         <v>11</v>
       </c>
@@ -17578,7 +17671,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
         <v>12</v>
       </c>
@@ -17601,7 +17694,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
         <v>13</v>
       </c>
@@ -17624,7 +17717,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="2">
         <v>14</v>
       </c>
@@ -17647,7 +17740,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="2">
         <v>1</v>
       </c>
@@ -17670,7 +17763,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="2">
         <v>2</v>
       </c>
@@ -17693,7 +17786,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="2">
         <v>3</v>
       </c>
@@ -17716,7 +17809,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" s="2">
         <v>4</v>
       </c>
@@ -17739,7 +17832,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" s="2">
         <v>5</v>
       </c>
@@ -17762,7 +17855,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" s="2">
         <v>6</v>
       </c>
@@ -17785,7 +17878,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" s="2">
         <v>7</v>
       </c>
@@ -17808,7 +17901,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" s="2">
         <v>8</v>
       </c>
@@ -17831,7 +17924,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" s="2">
         <v>9</v>
       </c>
@@ -17854,7 +17947,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" s="2">
         <v>10</v>
       </c>
@@ -17877,7 +17970,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" s="2">
         <v>11</v>
       </c>
@@ -17900,7 +17993,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" s="2">
         <v>12</v>
       </c>
@@ -17923,7 +18016,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" s="2">
         <v>13</v>
       </c>
@@ -17946,7 +18039,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" s="2">
         <v>1</v>
       </c>
@@ -17969,7 +18062,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" s="2">
         <v>2</v>
       </c>
@@ -17992,7 +18085,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" s="2">
         <v>3</v>
       </c>
@@ -18015,7 +18108,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" s="2">
         <v>4</v>
       </c>
@@ -18038,7 +18131,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" s="2">
         <v>5</v>
       </c>
@@ -18061,7 +18154,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" s="2">
         <v>6</v>
       </c>
@@ -18084,7 +18177,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49" s="2">
         <v>7</v>
       </c>
@@ -18107,7 +18200,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50" s="2">
         <v>8</v>
       </c>
@@ -18130,7 +18223,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51" s="2">
         <v>9</v>
       </c>
@@ -18153,7 +18246,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52" s="2">
         <v>10</v>
       </c>
@@ -18176,7 +18269,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53" s="2">
         <v>11</v>
       </c>
@@ -18199,7 +18292,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54" s="2">
         <v>12</v>
       </c>
@@ -18222,7 +18315,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55" s="2">
         <v>13</v>
       </c>
@@ -18245,7 +18338,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56" s="2">
         <v>14</v>
       </c>
@@ -18268,7 +18361,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57" s="2">
         <v>15</v>
       </c>
@@ -18291,7 +18384,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58" s="2">
         <v>16</v>
       </c>
@@ -18314,7 +18407,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A59" s="36">
         <v>1</v>
       </c>
@@ -18337,7 +18430,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60" s="36">
         <v>2</v>
       </c>
@@ -18360,7 +18453,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A61" s="36">
         <v>3</v>
       </c>
@@ -18383,7 +18476,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A62" s="36">
         <v>4</v>
       </c>
@@ -18406,7 +18499,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A63" s="36">
         <v>5</v>
       </c>
@@ -18429,7 +18522,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A64" s="36">
         <v>6</v>
       </c>
@@ -18452,7 +18545,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A65" s="36">
         <v>7</v>
       </c>
@@ -18475,7 +18568,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A66" s="36">
         <v>8</v>
       </c>
@@ -18498,7 +18591,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A67" s="36">
         <v>9</v>
       </c>
@@ -18521,7 +18614,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A68" s="36">
         <v>10</v>
       </c>
@@ -18544,7 +18637,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A69" s="36">
         <v>11</v>
       </c>
@@ -18567,7 +18660,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A70" s="36">
         <v>12</v>
       </c>
@@ -18590,7 +18683,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A71" s="36">
         <v>13</v>
       </c>
@@ -18613,7 +18706,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A72" s="36">
         <v>14</v>
       </c>
@@ -18636,7 +18729,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A73" s="36">
         <v>15</v>
       </c>
@@ -18659,7 +18752,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A74" s="36">
         <v>16</v>
       </c>
@@ -18682,7 +18775,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A75" s="36">
         <v>17</v>
       </c>
@@ -18705,7 +18798,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A76" s="36">
         <v>18</v>
       </c>
@@ -18728,7 +18821,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A77" s="36">
         <v>19</v>
       </c>
@@ -18751,7 +18844,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A78" s="36">
         <v>1</v>
       </c>
@@ -18774,7 +18867,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A79" s="36">
         <v>2</v>
       </c>
@@ -18797,7 +18890,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A80" s="36">
         <v>3</v>
       </c>
@@ -18820,7 +18913,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A81" s="36">
         <v>4</v>
       </c>
@@ -18843,7 +18936,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A82" s="36">
         <v>5</v>
       </c>
@@ -18866,7 +18959,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A83" s="36">
         <v>6</v>
       </c>
@@ -18889,7 +18982,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A84" s="36">
         <v>7</v>
       </c>
@@ -18912,7 +19005,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A85" s="36">
         <v>8</v>
       </c>
@@ -18935,7 +19028,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A86" s="36">
         <v>9</v>
       </c>
@@ -18958,7 +19051,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A87" s="36">
         <v>10</v>
       </c>
@@ -18981,7 +19074,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A88" s="36">
         <v>11</v>
       </c>
@@ -19004,7 +19097,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A89" s="36">
         <v>12</v>
       </c>
@@ -19027,7 +19120,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A90" s="36">
         <v>13</v>
       </c>
@@ -19050,7 +19143,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A91" s="36">
         <v>14</v>
       </c>
@@ -19073,7 +19166,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A92" s="36">
         <v>15</v>
       </c>
@@ -19096,7 +19189,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A93" s="36">
         <v>16</v>
       </c>
@@ -19119,7 +19212,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A94" s="36">
         <v>1</v>
       </c>
@@ -19142,7 +19235,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A95" s="36">
         <v>2</v>
       </c>
@@ -19165,7 +19258,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A96" s="36">
         <v>3</v>
       </c>
@@ -19188,7 +19281,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A97" s="36">
         <v>4</v>
       </c>
@@ -19211,7 +19304,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A98" s="36">
         <v>5</v>
       </c>
@@ -19234,7 +19327,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A99" s="36">
         <v>6</v>
       </c>
@@ -19257,7 +19350,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A100" s="36">
         <v>7</v>
       </c>
@@ -19280,7 +19373,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A101" s="36">
         <v>8</v>
       </c>
@@ -19303,7 +19396,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A102" s="36">
         <v>9</v>
       </c>
@@ -19326,7 +19419,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A103" s="36">
         <v>10</v>
       </c>
@@ -19349,7 +19442,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A104" s="36">
         <v>11</v>
       </c>
@@ -19372,7 +19465,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A105" s="36">
         <v>12</v>
       </c>
@@ -19395,7 +19488,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A106" s="36">
         <v>1</v>
       </c>
@@ -19418,7 +19511,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A107" s="36">
         <v>2</v>
       </c>
@@ -19441,7 +19534,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A108" s="36">
         <v>3</v>
       </c>
@@ -19464,7 +19557,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A109" s="36">
         <v>4</v>
       </c>
@@ -19487,7 +19580,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A110" s="36">
         <v>5</v>
       </c>
@@ -19510,7 +19603,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A111" s="36">
         <v>6</v>
       </c>
@@ -19533,7 +19626,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A112" s="36">
         <v>7</v>
       </c>
@@ -19556,7 +19649,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A113" s="36">
         <v>8</v>
       </c>
@@ -19579,7 +19672,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A114" s="36">
         <v>9</v>
       </c>
@@ -19602,7 +19695,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A115" s="36">
         <v>10</v>
       </c>
@@ -19625,7 +19718,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A116" s="36">
         <v>11</v>
       </c>
@@ -19648,7 +19741,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A117" s="36">
         <v>12</v>
       </c>
@@ -19671,7 +19764,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A118" s="36">
         <v>1</v>
       </c>
@@ -19694,7 +19787,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A119" s="36">
         <v>2</v>
       </c>
@@ -19717,7 +19810,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A120" s="36">
         <v>3</v>
       </c>
@@ -19740,7 +19833,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A121" s="36">
         <v>4</v>
       </c>
@@ -19763,7 +19856,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A122" s="36">
         <v>5</v>
       </c>
@@ -19786,7 +19879,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A123" s="36">
         <v>6</v>
       </c>
@@ -19809,7 +19902,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A124" s="36">
         <v>7</v>
       </c>
@@ -19832,7 +19925,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A125" s="36">
         <v>8</v>
       </c>
@@ -19855,7 +19948,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A126" s="36">
         <v>9</v>
       </c>
@@ -19878,7 +19971,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A127" s="36">
         <v>10</v>
       </c>
@@ -19901,7 +19994,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A128" s="36">
         <v>11</v>
       </c>
@@ -19924,7 +20017,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A129" s="36">
         <v>12</v>
       </c>
@@ -19947,7 +20040,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A130" s="36">
         <v>1</v>
       </c>
@@ -19970,7 +20063,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A131" s="36">
         <v>2</v>
       </c>
@@ -19993,7 +20086,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A132" s="36">
         <v>3</v>
       </c>
@@ -20016,7 +20109,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A133" s="36">
         <v>4</v>
       </c>
@@ -20039,7 +20132,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A134" s="36">
         <v>5</v>
       </c>
@@ -20062,7 +20155,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A135" s="36">
         <v>6</v>
       </c>
@@ -20085,7 +20178,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A136" s="36">
         <v>7</v>
       </c>
@@ -20108,7 +20201,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A137" s="36">
         <v>8</v>
       </c>
@@ -20131,7 +20224,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A138" s="36">
         <v>9</v>
       </c>
@@ -20154,7 +20247,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A139" s="36">
         <v>10</v>
       </c>
@@ -20177,7 +20270,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A140" s="36">
         <v>11</v>
       </c>
@@ -20200,7 +20293,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A141" s="36">
         <v>12</v>
       </c>
@@ -20223,7 +20316,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A142" s="36">
         <v>13</v>
       </c>
@@ -20246,7 +20339,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A143" s="36">
         <v>14</v>
       </c>
@@ -20269,7 +20362,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.7">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A144" s="36">
         <v>15</v>
       </c>
@@ -20299,33 +20392,33 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J39"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="4" width="13.3515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.64453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.87890625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="42" t="s">
         <v>244</v>
       </c>
       <c r="B2" s="43"/>
       <c r="C2" s="43"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="43"/>
       <c r="B3" s="43"/>
       <c r="C3" s="43"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="12" t="s">
         <v>12</v>
       </c>
@@ -20357,7 +20450,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="6">
         <v>1</v>
       </c>
@@ -20389,7 +20482,7 @@
         <v>4.37</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="6">
         <v>2</v>
       </c>
@@ -20421,7 +20514,7 @@
         <v>3.86</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="6">
         <v>3</v>
       </c>
@@ -20453,7 +20546,7 @@
         <v>3.43</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="6">
         <v>4</v>
       </c>
@@ -20485,7 +20578,7 @@
         <v>3.38</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="6">
         <v>5</v>
       </c>
@@ -20517,7 +20610,7 @@
         <v>2.13</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="6">
         <v>6</v>
       </c>
@@ -20549,7 +20642,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="6">
         <v>7</v>
       </c>
@@ -20581,7 +20674,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="6">
         <v>8</v>
       </c>
@@ -20613,7 +20706,7 @@
         <v>2.48</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="6">
         <v>9</v>
       </c>
@@ -20645,7 +20738,7 @@
         <v>0.66</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="6">
         <v>10</v>
       </c>
@@ -20677,7 +20770,7 @@
         <v>-0.03</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="6">
         <v>11</v>
       </c>
@@ -20709,7 +20802,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="6">
         <v>12</v>
       </c>
@@ -20741,7 +20834,7 @@
         <v>-0.26</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" s="6">
         <v>13</v>
       </c>
@@ -20773,7 +20866,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" s="6">
         <v>14</v>
       </c>
@@ -20805,7 +20898,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" s="6">
         <v>15</v>
       </c>
@@ -20837,25 +20930,25 @@
         <v>-0.14000000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="J20" s="23">
         <f>SUM(J5:J19)</f>
         <v>25.299999999999994</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" s="42" t="s">
         <v>245</v>
       </c>
       <c r="B21" s="43"/>
       <c r="C21" s="43"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" s="43"/>
       <c r="B22" s="43"/>
       <c r="C22" s="43"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" s="8" t="s">
         <v>12</v>
       </c>
@@ -20884,7 +20977,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" s="4">
         <v>1</v>
       </c>
@@ -20913,7 +21006,7 @@
         <v>4.9800000000000004</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" s="4">
         <v>2</v>
       </c>
@@ -20942,7 +21035,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" s="4">
         <v>3</v>
       </c>
@@ -20971,7 +21064,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" s="4">
         <v>4</v>
       </c>
@@ -21000,7 +21093,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" s="4">
         <v>5</v>
       </c>
@@ -21029,7 +21122,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" s="4">
         <v>6</v>
       </c>
@@ -21058,7 +21151,7 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" s="4">
         <v>7</v>
       </c>
@@ -21087,7 +21180,7 @@
         <v>1.36</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" s="4">
         <v>8</v>
       </c>
@@ -21116,7 +21209,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" s="4">
         <v>9</v>
       </c>
@@ -21145,7 +21238,7 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" s="4">
         <v>10</v>
       </c>
@@ -21174,7 +21267,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" s="4">
         <v>11</v>
       </c>
@@ -21203,7 +21296,7 @@
         <v>1.42</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" s="4">
         <v>12</v>
       </c>
@@ -21232,7 +21325,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" s="4">
         <v>13</v>
       </c>
@@ -21261,7 +21354,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" s="4">
         <v>14</v>
       </c>
@@ -21290,7 +21383,7 @@
         <v>-0.01</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" s="4">
         <v>15</v>
       </c>
@@ -21319,7 +21412,7 @@
         <v>-0.09</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="I39" s="23">
         <f>SUM(I24:I38)</f>
         <v>14.160000000000002</v>
@@ -21336,21 +21429,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="4" width="13.3515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.64453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.87890625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -21362,19 +21455,19 @@
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="42" t="s">
         <v>244</v>
       </c>
       <c r="B2" s="43"/>
       <c r="C2" s="43"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="43"/>
       <c r="B3" s="43"/>
       <c r="C3" s="43"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="12" t="s">
         <v>12</v>
       </c>
@@ -21406,7 +21499,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="4">
         <v>1</v>
       </c>
@@ -21438,7 +21531,7 @@
         <v>3.43</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="4">
         <v>2</v>
       </c>
@@ -21470,7 +21563,7 @@
         <v>2.54</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="4">
         <v>3</v>
       </c>
@@ -21502,7 +21595,7 @@
         <v>5.62</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="4">
         <v>4</v>
       </c>
@@ -21534,7 +21627,7 @@
         <v>2.09</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="4">
         <v>5</v>
       </c>
@@ -21566,7 +21659,7 @@
         <v>1.1299999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="4">
         <v>6</v>
       </c>
@@ -21598,7 +21691,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="4">
         <v>7</v>
       </c>
@@ -21630,7 +21723,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="4">
         <v>8</v>
       </c>
@@ -21662,7 +21755,7 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="4">
         <v>9</v>
       </c>
@@ -21694,7 +21787,7 @@
         <v>-0.54</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="4">
         <v>10</v>
       </c>
@@ -21726,7 +21819,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="4">
         <v>11</v>
       </c>
@@ -21758,7 +21851,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="4">
         <v>12</v>
       </c>
@@ -21790,7 +21883,7 @@
         <v>-0.17</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" s="4">
         <v>13</v>
       </c>
@@ -21822,7 +21915,7 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" s="4">
         <v>14</v>
       </c>
@@ -21854,7 +21947,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" s="4">
         <v>15</v>
       </c>
@@ -21886,25 +21979,25 @@
         <v>-0.33</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="J20" s="23">
         <f>SUM(J5:J19)</f>
         <v>18.379999999999995</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" s="42" t="s">
         <v>245</v>
       </c>
       <c r="B21" s="43"/>
       <c r="C21" s="43"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" s="43"/>
       <c r="B22" s="43"/>
       <c r="C22" s="43"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" s="8" t="s">
         <v>12</v>
       </c>
@@ -21933,7 +22026,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" s="4">
         <v>1</v>
       </c>
@@ -21962,7 +22055,7 @@
         <v>1.46</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" s="4">
         <v>2</v>
       </c>
@@ -21991,7 +22084,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" s="4">
         <v>3</v>
       </c>
@@ -22020,7 +22113,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" s="4">
         <v>4</v>
       </c>
@@ -22049,7 +22142,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" s="4">
         <v>5</v>
       </c>
@@ -22078,7 +22171,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" s="4">
         <v>6</v>
       </c>
@@ -22107,7 +22200,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" s="4">
         <v>7</v>
       </c>
@@ -22136,7 +22229,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" s="4">
         <v>8</v>
       </c>
@@ -22165,7 +22258,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" s="4">
         <v>9</v>
       </c>
@@ -22194,7 +22287,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" s="4">
         <v>10</v>
       </c>
@@ -22223,7 +22316,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" s="4">
         <v>11</v>
       </c>
@@ -22252,7 +22345,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" s="4">
         <v>12</v>
       </c>
@@ -22281,7 +22374,7 @@
         <v>-0.08</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" s="4">
         <v>13</v>
       </c>
@@ -22310,7 +22403,7 @@
         <v>-0.09</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" s="4">
         <v>14</v>
       </c>
@@ -22339,7 +22432,7 @@
         <v>-0.06</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" s="4">
         <v>15</v>
       </c>
@@ -22368,7 +22461,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="I39" s="23">
         <f>SUM(I24:I38)</f>
         <v>9.3300000000000018</v>
@@ -22385,33 +22478,33 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J39"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="4" width="13.3515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.64453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.87890625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="42" t="s">
         <v>244</v>
       </c>
       <c r="B2" s="43"/>
       <c r="C2" s="43"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="43"/>
       <c r="B3" s="43"/>
       <c r="C3" s="43"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
         <v>12</v>
       </c>
@@ -22443,7 +22536,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="4">
         <v>1</v>
       </c>
@@ -22475,7 +22568,7 @@
         <v>4.25</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="4">
         <v>2</v>
       </c>
@@ -22507,7 +22600,7 @@
         <v>2.82</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="4">
         <v>3</v>
       </c>
@@ -22539,7 +22632,7 @@
         <v>2.63</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="4">
         <v>4</v>
       </c>
@@ -22571,7 +22664,7 @@
         <v>3.02</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="4">
         <v>5</v>
       </c>
@@ -22603,7 +22696,7 @@
         <v>3.86</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="4">
         <v>6</v>
       </c>
@@ -22635,7 +22728,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="4">
         <v>7</v>
       </c>
@@ -22667,7 +22760,7 @@
         <v>2.11</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="4">
         <v>8</v>
       </c>
@@ -22699,7 +22792,7 @@
         <v>2.91</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="4">
         <v>9</v>
       </c>
@@ -22731,7 +22824,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="4">
         <v>10</v>
       </c>
@@ -22763,7 +22856,7 @@
         <v>-7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="4">
         <v>11</v>
       </c>
@@ -22795,7 +22888,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="4">
         <v>12</v>
       </c>
@@ -22827,7 +22920,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" s="4">
         <v>13</v>
       </c>
@@ -22859,7 +22952,7 @@
         <v>-0.12</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" s="4">
         <v>14</v>
       </c>
@@ -22891,7 +22984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" s="4">
         <v>15</v>
       </c>
@@ -22923,25 +23016,25 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="J20" s="23">
         <f>SUM(J5:J19)</f>
         <v>25.319999999999997</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" s="42" t="s">
         <v>245</v>
       </c>
       <c r="B21" s="43"/>
       <c r="C21" s="43"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" s="43"/>
       <c r="B22" s="43"/>
       <c r="C22" s="43"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" s="12" t="s">
         <v>12</v>
       </c>
@@ -22970,7 +23063,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" s="4">
         <v>1</v>
       </c>
@@ -22999,7 +23092,7 @@
         <v>3.61</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" s="4">
         <v>2</v>
       </c>
@@ -23028,7 +23121,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" s="4">
         <v>3</v>
       </c>
@@ -23057,7 +23150,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" s="4">
         <v>4</v>
       </c>
@@ -23086,7 +23179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" s="4">
         <v>5</v>
       </c>
@@ -23115,7 +23208,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" s="4">
         <v>6</v>
       </c>
@@ -23144,7 +23237,7 @@
         <v>1.02</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" s="4">
         <v>7</v>
       </c>
@@ -23173,7 +23266,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" s="4">
         <v>8</v>
       </c>
@@ -23202,7 +23295,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" s="4">
         <v>9</v>
       </c>
@@ -23231,7 +23324,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" s="4">
         <v>10</v>
       </c>
@@ -23260,7 +23353,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" s="4">
         <v>11</v>
       </c>
@@ -23289,7 +23382,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" s="4">
         <v>12</v>
       </c>
@@ -23318,7 +23411,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" s="4">
         <v>13</v>
       </c>
@@ -23347,7 +23440,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" s="4">
         <v>14</v>
       </c>
@@ -23376,7 +23469,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" s="4">
         <v>15</v>
       </c>
@@ -23405,7 +23498,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="I39" s="23">
         <f>SUM(I24:I38)</f>
         <v>14.96</v>
@@ -23422,21 +23515,21 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="4" width="13.3515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.64453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.87890625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -23448,19 +23541,19 @@
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="42" t="s">
         <v>244</v>
       </c>
       <c r="B2" s="43"/>
       <c r="C2" s="43"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="43"/>
       <c r="B3" s="43"/>
       <c r="C3" s="43"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="12" t="s">
         <v>12</v>
       </c>
@@ -23492,7 +23585,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="4">
         <v>1</v>
       </c>
@@ -23524,7 +23617,7 @@
         <v>1.71</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="4">
         <v>2</v>
       </c>
@@ -23556,7 +23649,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="4">
         <v>3</v>
       </c>
@@ -23588,7 +23681,7 @@
         <v>1.84</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="4">
         <v>4</v>
       </c>
@@ -23620,7 +23713,7 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="4">
         <v>5</v>
       </c>
@@ -23652,7 +23745,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="4">
         <v>6</v>
       </c>
@@ -23684,7 +23777,7 @@
         <v>1.32</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="4">
         <v>7</v>
       </c>
@@ -23716,7 +23809,7 @@
         <v>1.1200000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="4">
         <v>8</v>
       </c>
@@ -23748,7 +23841,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="4">
         <v>9</v>
       </c>
@@ -23780,7 +23873,7 @@
         <v>0.69</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="4">
         <v>10</v>
       </c>
@@ -23812,7 +23905,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="4">
         <v>11</v>
       </c>
@@ -23844,7 +23937,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="4">
         <v>12</v>
       </c>
@@ -23876,7 +23969,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" s="4">
         <v>13</v>
       </c>
@@ -23908,7 +24001,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" s="4">
         <v>14</v>
       </c>
@@ -23940,7 +24033,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" s="4">
         <v>15</v>
       </c>
@@ -23972,25 +24065,25 @@
         <v>-0.04</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="J20" s="23">
         <f>SUM(J5:J19)</f>
         <v>14.080000000000002</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" s="42" t="s">
         <v>245</v>
       </c>
       <c r="B21" s="43"/>
       <c r="C21" s="43"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" s="43"/>
       <c r="B22" s="43"/>
       <c r="C22" s="43"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" s="12" t="s">
         <v>12</v>
       </c>
@@ -24019,7 +24112,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" s="4">
         <v>1</v>
       </c>
@@ -24048,7 +24141,7 @@
         <v>2.71</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" s="4">
         <v>2</v>
       </c>
@@ -24077,7 +24170,7 @@
         <v>2.15</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" s="4">
         <v>3</v>
       </c>
@@ -24106,7 +24199,7 @@
         <v>2.87</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" s="4">
         <v>4</v>
       </c>
@@ -24135,7 +24228,7 @@
         <v>1.56</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" s="4">
         <v>5</v>
       </c>
@@ -24164,7 +24257,7 @@
         <v>1.19</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" s="4">
         <v>6</v>
       </c>
@@ -24193,7 +24286,7 @@
         <v>1.1100000000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" s="4">
         <v>7</v>
       </c>
@@ -24222,7 +24315,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" s="4">
         <v>8</v>
       </c>
@@ -24251,7 +24344,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" s="4">
         <v>9</v>
       </c>
@@ -24280,7 +24373,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" s="4">
         <v>10</v>
       </c>
@@ -24309,7 +24402,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" s="4">
         <v>11</v>
       </c>
@@ -24338,7 +24431,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" s="4">
         <v>12</v>
       </c>
@@ -24367,7 +24460,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" s="4">
         <v>13</v>
       </c>
@@ -24396,7 +24489,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" s="4">
         <v>14</v>
       </c>
@@ -24425,7 +24518,7 @@
         <v>-0.08</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" s="4">
         <v>15</v>
       </c>
@@ -24454,7 +24547,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="I39" s="23">
         <f>SUM(I24:I38)</f>
         <v>14.739999999999998</v>
@@ -24471,21 +24564,21 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="4" width="13.3515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.64453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.87890625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -24497,19 +24590,19 @@
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="42" t="s">
         <v>244</v>
       </c>
       <c r="B2" s="43"/>
       <c r="C2" s="43"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="43"/>
       <c r="B3" s="43"/>
       <c r="C3" s="43"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
         <v>12</v>
       </c>
@@ -24541,7 +24634,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="11">
         <v>1</v>
       </c>
@@ -24573,7 +24666,7 @@
         <v>1.89</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="11">
         <v>2</v>
       </c>
@@ -24605,7 +24698,7 @@
         <v>3.65</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="11">
         <v>3</v>
       </c>
@@ -24637,7 +24730,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="11">
         <v>4</v>
       </c>
@@ -24669,7 +24762,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="11">
         <v>5</v>
       </c>
@@ -24701,7 +24794,7 @@
         <v>1.48</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="11">
         <v>6</v>
       </c>
@@ -24733,7 +24826,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="11">
         <v>7</v>
       </c>
@@ -24765,7 +24858,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="11">
         <v>8</v>
       </c>
@@ -24797,7 +24890,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="11">
         <v>9</v>
       </c>
@@ -24829,7 +24922,7 @@
         <v>-0.01</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="11">
         <v>10</v>
       </c>
@@ -24861,7 +24954,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="11">
         <v>11</v>
       </c>
@@ -24893,7 +24986,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="11">
         <v>12</v>
       </c>
@@ -24925,7 +25018,7 @@
         <v>-0.01</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" s="11">
         <v>13</v>
       </c>
@@ -24957,7 +25050,7 @@
         <v>-0.45</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" s="11">
         <v>14</v>
       </c>
@@ -24989,7 +25082,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" s="11">
         <v>15</v>
       </c>
@@ -25021,25 +25114,25 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="J20" s="23">
         <f>SUM(J5:J19)</f>
         <v>14.040000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" s="42" t="s">
         <v>245</v>
       </c>
       <c r="B21" s="43"/>
       <c r="C21" s="43"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" s="43"/>
       <c r="B22" s="43"/>
       <c r="C22" s="43"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" s="8" t="s">
         <v>12</v>
       </c>
@@ -25068,7 +25161,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" s="4">
         <v>1</v>
       </c>
@@ -25097,7 +25190,7 @@
         <v>2.58</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" s="4">
         <v>2</v>
       </c>
@@ -25126,7 +25219,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" s="4">
         <v>3</v>
       </c>
@@ -25155,7 +25248,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" s="4">
         <v>4</v>
       </c>
@@ -25184,7 +25277,7 @@
         <v>1.71</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" s="4">
         <v>5</v>
       </c>
@@ -25213,7 +25306,7 @@
         <v>2.39</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" s="4">
         <v>6</v>
       </c>
@@ -25242,7 +25335,7 @@
         <v>0.71</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" s="4">
         <v>7</v>
       </c>
@@ -25271,7 +25364,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" s="4">
         <v>8</v>
       </c>
@@ -25300,7 +25393,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" s="4">
         <v>9</v>
       </c>
@@ -25329,7 +25422,7 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" s="4">
         <v>10</v>
       </c>
@@ -25358,7 +25451,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" s="4">
         <v>11</v>
       </c>
@@ -25387,7 +25480,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" s="4">
         <v>12</v>
       </c>
@@ -25416,7 +25509,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" s="4">
         <v>13</v>
       </c>
@@ -25445,7 +25538,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" s="4">
         <v>14</v>
       </c>
@@ -25474,7 +25567,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" s="4">
         <v>15</v>
       </c>
@@ -25503,7 +25596,7 @@
         <v>-0.11</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="I39" s="23">
         <f>SUM(I24:I38)</f>
         <v>14.200000000000001</v>
@@ -25520,21 +25613,21 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="4" width="13.3515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.64453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.87890625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -25546,19 +25639,19 @@
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="42" t="s">
         <v>244</v>
       </c>
       <c r="B2" s="43"/>
       <c r="C2" s="43"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="43"/>
       <c r="B3" s="43"/>
       <c r="C3" s="43"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
         <v>12</v>
       </c>
@@ -25590,7 +25683,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="4">
         <v>1</v>
       </c>
@@ -25622,7 +25715,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="4">
         <v>2</v>
       </c>
@@ -25654,7 +25747,7 @@
         <v>1.96</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="4">
         <v>3</v>
       </c>
@@ -25686,7 +25779,7 @@
         <v>2.56</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="4">
         <v>4</v>
       </c>
@@ -25718,7 +25811,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="4">
         <v>5</v>
       </c>
@@ -25750,7 +25843,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="4">
         <v>6</v>
       </c>
@@ -25782,7 +25875,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="4">
         <v>7</v>
       </c>
@@ -25814,7 +25907,7 @@
         <v>1.43</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="4">
         <v>8</v>
       </c>
@@ -25846,7 +25939,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="4">
         <v>9</v>
       </c>
@@ -25878,7 +25971,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="4">
         <v>10</v>
       </c>
@@ -25910,7 +26003,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="4">
         <v>11</v>
       </c>
@@ -25942,7 +26035,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="4">
         <v>12</v>
       </c>
@@ -25974,7 +26067,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" s="4">
         <v>13</v>
       </c>
@@ -26006,7 +26099,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" s="4">
         <v>14</v>
       </c>
@@ -26038,7 +26131,7 @@
         <v>0.59</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" s="4">
         <v>15</v>
       </c>
@@ -26070,25 +26163,25 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="J20" s="23">
         <f>SUM(J5:J19)</f>
         <v>14.63</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" s="42" t="s">
         <v>245</v>
       </c>
       <c r="B21" s="43"/>
       <c r="C21" s="43"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" s="43"/>
       <c r="B22" s="43"/>
       <c r="C22" s="43"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" s="8" t="s">
         <v>12</v>
       </c>
@@ -26117,7 +26210,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" s="4">
         <v>1</v>
       </c>
@@ -26146,7 +26239,7 @@
         <v>2.5499999999999998</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" s="4">
         <v>2</v>
       </c>
@@ -26175,7 +26268,7 @@
         <v>1.84</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" s="4">
         <v>3</v>
       </c>
@@ -26204,7 +26297,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" s="4">
         <v>4</v>
       </c>
@@ -26233,7 +26326,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" s="4">
         <v>5</v>
       </c>
@@ -26262,7 +26355,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" s="4">
         <v>6</v>
       </c>
@@ -26291,7 +26384,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" s="4">
         <v>7</v>
       </c>
@@ -26320,7 +26413,7 @@
         <v>1.32</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" s="4">
         <v>8</v>
       </c>
@@ -26349,7 +26442,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" s="4">
         <v>9</v>
       </c>
@@ -26378,7 +26471,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" s="4">
         <v>10</v>
       </c>
@@ -26407,7 +26500,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" s="4">
         <v>11</v>
       </c>
@@ -26436,7 +26529,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" s="4">
         <v>12</v>
       </c>
@@ -26465,7 +26558,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" s="4">
         <v>13</v>
       </c>
@@ -26494,7 +26587,7 @@
         <v>-0.04</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" s="4">
         <v>14</v>
       </c>
@@ -26523,7 +26616,7 @@
         <v>-0.05</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" s="4">
         <v>15</v>
       </c>
@@ -26552,7 +26645,7 @@
         <v>-0.12</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="I39" s="23">
         <f>SUM(I24:I38)</f>
         <v>10.500000000000002</v>
@@ -26569,21 +26662,21 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="4" width="13.3515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.64453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.87890625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -26595,19 +26688,19 @@
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="42" t="s">
         <v>244</v>
       </c>
       <c r="B2" s="43"/>
       <c r="C2" s="43"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="43"/>
       <c r="B3" s="43"/>
       <c r="C3" s="43"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
         <v>12</v>
       </c>
@@ -26639,7 +26732,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="11">
         <v>1</v>
       </c>
@@ -26671,7 +26764,7 @@
         <v>4.03</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="11">
         <v>2</v>
       </c>
@@ -26703,7 +26796,7 @@
         <v>1.94</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="11">
         <v>3</v>
       </c>
@@ -26735,7 +26828,7 @@
         <v>1.1399999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="11">
         <v>4</v>
       </c>
@@ -26767,7 +26860,7 @@
         <v>1.26</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="11">
         <v>5</v>
       </c>
@@ -26799,7 +26892,7 @@
         <v>1.96</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="11">
         <v>6</v>
       </c>
@@ -26831,7 +26924,7 @@
         <v>1.47</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="11">
         <v>7</v>
       </c>
@@ -26863,7 +26956,7 @@
         <v>2.35</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="11">
         <v>8</v>
       </c>
@@ -26895,7 +26988,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="11">
         <v>9</v>
       </c>
@@ -26927,7 +27020,7 @@
         <v>1.06</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="11">
         <v>10</v>
       </c>
@@ -26959,7 +27052,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="11">
         <v>11</v>
       </c>
@@ -26991,7 +27084,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="11">
         <v>12</v>
       </c>
@@ -27023,7 +27116,7 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" s="11">
         <v>13</v>
       </c>
@@ -27055,7 +27148,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" s="11">
         <v>14</v>
       </c>
@@ -27087,7 +27180,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" s="11">
         <v>15</v>
       </c>
@@ -27119,25 +27212,25 @@
         <v>-0.12</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="J20" s="23">
         <f>SUM(J5:J19)</f>
         <v>19.169999999999998</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" s="42" t="s">
         <v>245</v>
       </c>
       <c r="B21" s="43"/>
       <c r="C21" s="43"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" s="43"/>
       <c r="B22" s="43"/>
       <c r="C22" s="43"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" s="8" t="s">
         <v>12</v>
       </c>
@@ -27166,7 +27259,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" s="4">
         <v>1</v>
       </c>
@@ -27195,7 +27288,7 @@
         <v>3.17</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" s="4">
         <v>2</v>
       </c>
@@ -27224,7 +27317,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" s="4">
         <v>3</v>
       </c>
@@ -27253,7 +27346,7 @@
         <v>1.55</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" s="4">
         <v>4</v>
       </c>
@@ -27282,7 +27375,7 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" s="4">
         <v>5</v>
       </c>
@@ -27311,7 +27404,7 @@
         <v>1.36</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" s="4">
         <v>6</v>
       </c>
@@ -27340,7 +27433,7 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" s="4">
         <v>7</v>
       </c>
@@ -27369,7 +27462,7 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" s="4">
         <v>8</v>
       </c>
@@ -27398,7 +27491,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" s="4">
         <v>9</v>
       </c>
@@ -27427,7 +27520,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" s="4">
         <v>10</v>
       </c>
@@ -27456,7 +27549,7 @@
         <v>1.17</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" s="4">
         <v>11</v>
       </c>
@@ -27485,7 +27578,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" s="4">
         <v>12</v>
       </c>
@@ -27514,7 +27607,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" s="4">
         <v>13</v>
       </c>
@@ -27543,7 +27636,7 @@
         <v>-0.02</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" s="4">
         <v>14</v>
       </c>
@@ -27572,7 +27665,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" s="4">
         <v>15</v>
       </c>
@@ -27601,7 +27694,7 @@
         <v>-0.16</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="I39" s="23">
         <f>SUM(I24:I38)</f>
         <v>12.45</v>
@@ -27618,21 +27711,21 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="4" width="13.3515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.64453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.87890625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -27644,19 +27737,19 @@
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="42" t="s">
         <v>244</v>
       </c>
       <c r="B2" s="43"/>
       <c r="C2" s="43"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="43"/>
       <c r="B3" s="43"/>
       <c r="C3" s="43"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
         <v>12</v>
       </c>
@@ -27688,7 +27781,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="4">
         <v>1</v>
       </c>
@@ -27720,7 +27813,7 @@
         <v>4.21</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="4">
         <v>2</v>
       </c>
@@ -27752,7 +27845,7 @@
         <v>2.4900000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="4">
         <v>3</v>
       </c>
@@ -27784,7 +27877,7 @@
         <v>4.1399999999999997</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="4">
         <v>4</v>
       </c>
@@ -27816,7 +27909,7 @@
         <v>2.35</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="4">
         <v>5</v>
       </c>
@@ -27848,7 +27941,7 @@
         <v>2.06</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="4">
         <v>6</v>
       </c>
@@ -27880,7 +27973,7 @@
         <v>2.2400000000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="4">
         <v>7</v>
       </c>
@@ -27912,7 +28005,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="4">
         <v>8</v>
       </c>
@@ -27944,7 +28037,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="4">
         <v>9</v>
       </c>
@@ -27976,7 +28069,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="4">
         <v>10</v>
       </c>
@@ -28008,7 +28101,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="4">
         <v>11</v>
       </c>
@@ -28040,7 +28133,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="4">
         <v>12</v>
       </c>
@@ -28072,7 +28165,7 @@
         <v>-7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" s="4">
         <v>13</v>
       </c>
@@ -28104,7 +28197,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" s="4">
         <v>14</v>
       </c>
@@ -28136,7 +28229,7 @@
         <v>-0.24</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" s="4">
         <v>15</v>
       </c>
@@ -28168,25 +28261,25 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="J20" s="23">
         <f>SUM(J5:J19)</f>
         <v>20.230000000000008</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" s="42" t="s">
         <v>245</v>
       </c>
       <c r="B21" s="43"/>
       <c r="C21" s="43"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" s="43"/>
       <c r="B22" s="43"/>
       <c r="C22" s="43"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" s="8" t="s">
         <v>12</v>
       </c>
@@ -28215,7 +28308,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" s="4">
         <v>1</v>
       </c>
@@ -28244,7 +28337,7 @@
         <v>1.91</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" s="4">
         <v>2</v>
       </c>
@@ -28273,7 +28366,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" s="4">
         <v>3</v>
       </c>
@@ -28302,7 +28395,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" s="4">
         <v>4</v>
       </c>
@@ -28331,7 +28424,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" s="4">
         <v>5</v>
       </c>
@@ -28360,7 +28453,7 @@
         <v>1.32</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" s="4">
         <v>6</v>
       </c>
@@ -28389,7 +28482,7 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" s="4">
         <v>7</v>
       </c>
@@ -28418,7 +28511,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" s="4">
         <v>8</v>
       </c>
@@ -28447,7 +28540,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" s="4">
         <v>9</v>
       </c>
@@ -28476,7 +28569,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" s="4">
         <v>10</v>
       </c>
@@ -28505,7 +28598,7 @@
         <v>1.45</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" s="4">
         <v>11</v>
       </c>
@@ -28534,7 +28627,7 @@
         <v>-0.22</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" s="4">
         <v>12</v>
       </c>
@@ -28563,7 +28656,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" s="4">
         <v>13</v>
       </c>
@@ -28592,7 +28685,7 @@
         <v>-0.19</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" s="4">
         <v>14</v>
       </c>
@@ -28621,7 +28714,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" s="4">
         <v>15</v>
       </c>
@@ -28650,7 +28743,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="I39" s="23">
         <f>SUM(I24:I38)</f>
         <v>7.5099999999999989</v>

--- a/projection/2026_team_projection.xlsx
+++ b/projection/2026_team_projection.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\doosan\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="KIA" sheetId="1" r:id="rId1"/>
@@ -30,7 +25,7 @@
     <sheet name="신규 외국인 선수" sheetId="20" r:id="rId16"/>
     <sheet name="신인" sheetId="21" r:id="rId17"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -61,7 +56,7 @@
     <author>tc={021C2BA8-1A34-4A94-B7DB-8738E6A3BFAC}</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -81,7 +76,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="1" shapeId="0">
+    <comment ref="F1" authorId="1">
       <text>
         <r>
           <rPr>
@@ -101,7 +96,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A15" authorId="2" shapeId="0">
+    <comment ref="A15" authorId="2">
       <text>
         <r>
           <rPr>
@@ -118,7 +113,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C17" authorId="3" shapeId="0">
+    <comment ref="C17" authorId="3">
       <text>
         <r>
           <rPr>
@@ -135,7 +130,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A25" authorId="4" shapeId="0">
+    <comment ref="A25" authorId="4">
       <text>
         <r>
           <rPr>
@@ -154,7 +149,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C27" authorId="5" shapeId="0">
+    <comment ref="C27" authorId="5">
       <text>
         <r>
           <rPr>
@@ -184,7 +179,7 @@
     <author>tc={E9A6546A-EE73-4F66-AC92-BD45DDC1B6C0}</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -204,7 +199,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="1" shapeId="0">
+    <comment ref="F1" authorId="1">
       <text>
         <r>
           <rPr>
@@ -224,7 +219,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A15" authorId="2" shapeId="0">
+    <comment ref="A15" authorId="2">
       <text>
         <r>
           <rPr>
@@ -241,7 +236,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A24" authorId="3" shapeId="0">
+    <comment ref="A24" authorId="3">
       <text>
         <r>
           <rPr>
@@ -265,7 +260,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3506" uniqueCount="1142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3512" uniqueCount="1150">
   <si>
     <t>김도영</t>
   </si>
@@ -4731,11 +4726,43 @@
   <si>
     <t>강재민</t>
   </si>
+  <si>
+    <t>은퇴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>울산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>양수호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KIA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>투수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보상선수 (김범수)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="0.0"/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
@@ -5415,7 +5442,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -9946,10 +9973,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H142"/>
+  <dimension ref="A1:H143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A129" workbookViewId="0">
-      <selection activeCell="D160" sqref="D160"/>
+    <sheetView topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -10182,7 +10209,7 @@
         <v>194</v>
       </c>
       <c r="E9" s="37" t="s">
-        <v>380</v>
+        <v>1143</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>411</v>
@@ -10217,7 +10244,7 @@
         <v>380</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>427</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
@@ -10251,76 +10278,76 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>401</v>
+        <v>1144</v>
       </c>
       <c r="C12" s="2">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>195</v>
+        <v>1145</v>
+      </c>
+      <c r="E12" s="37" t="s">
+        <v>1146</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>384</v>
+        <v>1147</v>
       </c>
       <c r="G12" s="37" t="s">
-        <v>380</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>412</v>
+        <v>1148</v>
+      </c>
+      <c r="H12" s="36" t="s">
+        <v>1149</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13" s="36" t="s">
-        <v>407</v>
+      <c r="B13" s="2" t="s">
+        <v>401</v>
       </c>
       <c r="C13" s="2">
         <v>25</v>
       </c>
-      <c r="D13" s="36" t="s">
+      <c r="D13" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="E13" s="36" t="s">
+      <c r="E13" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="F13" s="36" t="s">
-        <v>410</v>
+      <c r="F13" s="2" t="s">
+        <v>384</v>
       </c>
       <c r="G13" s="37" t="s">
         <v>380</v>
       </c>
-      <c r="H13" s="36" t="s">
-        <v>413</v>
+      <c r="H13" s="2" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>13</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>403</v>
+      <c r="B14" s="36" t="s">
+        <v>407</v>
       </c>
       <c r="C14" s="2">
-        <v>31</v>
-      </c>
-      <c r="D14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="36" t="s">
         <v>356</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="F14" s="2" t="s">
+      <c r="E14" s="36" t="s">
+        <v>195</v>
+      </c>
+      <c r="F14" s="36" t="s">
         <v>410</v>
       </c>
       <c r="G14" s="37" t="s">
         <v>380</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="H14" s="36" t="s">
         <v>413</v>
       </c>
     </row>
@@ -10329,51 +10356,51 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>389</v>
+        <v>403</v>
       </c>
       <c r="C15" s="2">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>356</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>391</v>
+        <v>410</v>
+      </c>
+      <c r="G15" s="37" t="s">
+        <v>380</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>388</v>
+        <v>413</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="B16" s="36" t="s">
-        <v>395</v>
+      <c r="B16" s="2" t="s">
+        <v>389</v>
       </c>
       <c r="C16" s="2">
         <v>27</v>
       </c>
-      <c r="D16" s="36" t="s">
+      <c r="D16" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="E16" s="37" t="s">
-        <v>380</v>
-      </c>
-      <c r="F16" s="36" t="s">
-        <v>384</v>
-      </c>
-      <c r="G16" s="37" t="s">
-        <v>380</v>
-      </c>
-      <c r="H16" s="36" t="s">
-        <v>427</v>
+      <c r="E16" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
@@ -10381,10 +10408,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="36" t="s">
-        <v>461</v>
+        <v>395</v>
       </c>
       <c r="C17" s="2">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D17" s="36" t="s">
         <v>356</v>
@@ -10393,7 +10420,7 @@
         <v>380</v>
       </c>
       <c r="F17" s="36" t="s">
-        <v>410</v>
+        <v>384</v>
       </c>
       <c r="G17" s="37" t="s">
         <v>380</v>
@@ -10406,25 +10433,25 @@
       <c r="A18" s="2">
         <v>17</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>426</v>
+      <c r="B18" s="36" t="s">
+        <v>461</v>
       </c>
       <c r="C18" s="2">
-        <v>26</v>
-      </c>
-      <c r="D18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="36" t="s">
         <v>356</v>
       </c>
       <c r="E18" s="37" t="s">
-        <v>1134</v>
-      </c>
-      <c r="F18" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="F18" s="36" t="s">
         <v>410</v>
       </c>
       <c r="G18" s="37" t="s">
         <v>380</v>
       </c>
-      <c r="H18" s="2" t="s">
+      <c r="H18" s="36" t="s">
         <v>427</v>
       </c>
     </row>
@@ -10432,25 +10459,25 @@
       <c r="A19" s="2">
         <v>18</v>
       </c>
-      <c r="B19" s="36" t="s">
-        <v>462</v>
+      <c r="B19" s="2" t="s">
+        <v>426</v>
       </c>
       <c r="C19" s="2">
-        <v>21</v>
-      </c>
-      <c r="D19" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>356</v>
       </c>
       <c r="E19" s="37" t="s">
-        <v>380</v>
-      </c>
-      <c r="F19" s="36" t="s">
+        <v>1134</v>
+      </c>
+      <c r="F19" s="2" t="s">
         <v>410</v>
       </c>
       <c r="G19" s="37" t="s">
         <v>380</v>
       </c>
-      <c r="H19" s="36" t="s">
+      <c r="H19" s="2" t="s">
         <v>427</v>
       </c>
     </row>
@@ -10459,19 +10486,19 @@
         <v>19</v>
       </c>
       <c r="B20" s="36" t="s">
-        <v>454</v>
+        <v>462</v>
       </c>
       <c r="C20" s="2">
-        <v>24</v>
-      </c>
-      <c r="D20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="36" t="s">
         <v>356</v>
       </c>
       <c r="E20" s="37" t="s">
         <v>380</v>
       </c>
-      <c r="F20" s="2" t="s">
-        <v>384</v>
+      <c r="F20" s="36" t="s">
+        <v>410</v>
       </c>
       <c r="G20" s="37" t="s">
         <v>380</v>
@@ -10484,11 +10511,11 @@
       <c r="A21" s="2">
         <v>20</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>452</v>
+      <c r="B21" s="36" t="s">
+        <v>454</v>
       </c>
       <c r="C21" s="2">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>356</v>
@@ -10510,20 +10537,20 @@
       <c r="A22" s="2">
         <v>21</v>
       </c>
-      <c r="B22" s="36" t="s">
-        <v>459</v>
+      <c r="B22" s="2" t="s">
+        <v>452</v>
       </c>
       <c r="C22" s="2">
-        <v>35</v>
-      </c>
-      <c r="D22" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>356</v>
       </c>
       <c r="E22" s="37" t="s">
         <v>380</v>
       </c>
-      <c r="F22" s="36" t="s">
-        <v>411</v>
+      <c r="F22" s="2" t="s">
+        <v>384</v>
       </c>
       <c r="G22" s="37" t="s">
         <v>380</v>
@@ -10536,20 +10563,20 @@
       <c r="A23" s="2">
         <v>22</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>455</v>
+      <c r="B23" s="36" t="s">
+        <v>459</v>
       </c>
       <c r="C23" s="2">
-        <v>23</v>
-      </c>
-      <c r="D23" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" s="36" t="s">
         <v>356</v>
       </c>
       <c r="E23" s="37" t="s">
         <v>380</v>
       </c>
-      <c r="F23" s="2" t="s">
-        <v>384</v>
+      <c r="F23" s="36" t="s">
+        <v>411</v>
       </c>
       <c r="G23" s="37" t="s">
         <v>380</v>
@@ -10563,10 +10590,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C24" s="2">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>356</v>
@@ -10588,11 +10615,11 @@
       <c r="A25" s="2">
         <v>24</v>
       </c>
-      <c r="B25" s="36" t="s">
-        <v>451</v>
+      <c r="B25" s="2" t="s">
+        <v>457</v>
       </c>
       <c r="C25" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>356</v>
@@ -10615,19 +10642,19 @@
         <v>25</v>
       </c>
       <c r="B26" s="36" t="s">
-        <v>464</v>
+        <v>451</v>
       </c>
       <c r="C26" s="2">
-        <v>20</v>
-      </c>
-      <c r="D26" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>356</v>
       </c>
       <c r="E26" s="37" t="s">
         <v>380</v>
       </c>
-      <c r="F26" s="36" t="s">
-        <v>410</v>
+      <c r="F26" s="2" t="s">
+        <v>384</v>
       </c>
       <c r="G26" s="37" t="s">
         <v>380</v>
@@ -10640,20 +10667,20 @@
       <c r="A27" s="2">
         <v>26</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>456</v>
+      <c r="B27" s="36" t="s">
+        <v>464</v>
       </c>
       <c r="C27" s="2">
-        <v>29</v>
-      </c>
-      <c r="D27" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27" s="36" t="s">
         <v>356</v>
       </c>
       <c r="E27" s="37" t="s">
         <v>380</v>
       </c>
-      <c r="F27" s="2" t="s">
-        <v>384</v>
+      <c r="F27" s="36" t="s">
+        <v>410</v>
       </c>
       <c r="G27" s="37" t="s">
         <v>380</v>
@@ -10667,10 +10694,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="C28" s="2">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>356</v>
@@ -10692,19 +10719,19 @@
       <c r="A29" s="2">
         <v>28</v>
       </c>
-      <c r="B29" s="36" t="s">
-        <v>458</v>
+      <c r="B29" s="2" t="s">
+        <v>453</v>
       </c>
       <c r="C29" s="2">
-        <v>24</v>
-      </c>
-      <c r="D29" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>356</v>
       </c>
       <c r="E29" s="37" t="s">
         <v>380</v>
       </c>
-      <c r="F29" s="36" t="s">
+      <c r="F29" s="2" t="s">
         <v>384</v>
       </c>
       <c r="G29" s="37" t="s">
@@ -10719,25 +10746,25 @@
         <v>29</v>
       </c>
       <c r="B30" s="36" t="s">
-        <v>420</v>
+        <v>458</v>
       </c>
       <c r="C30" s="2">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D30" s="36" t="s">
         <v>356</v>
       </c>
-      <c r="E30" s="36" t="s">
-        <v>193</v>
+      <c r="E30" s="37" t="s">
+        <v>380</v>
       </c>
       <c r="F30" s="36" t="s">
-        <v>410</v>
+        <v>384</v>
       </c>
       <c r="G30" s="37" t="s">
         <v>380</v>
       </c>
       <c r="H30" s="36" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.35">
@@ -10745,25 +10772,25 @@
         <v>30</v>
       </c>
       <c r="B31" s="36" t="s">
-        <v>460</v>
+        <v>420</v>
       </c>
       <c r="C31" s="2">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D31" s="36" t="s">
         <v>356</v>
       </c>
-      <c r="E31" s="37" t="s">
-        <v>380</v>
+      <c r="E31" s="36" t="s">
+        <v>193</v>
       </c>
       <c r="F31" s="36" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="G31" s="37" t="s">
         <v>380</v>
       </c>
-      <c r="H31" s="2" t="s">
-        <v>378</v>
+      <c r="H31" s="36" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.35">
@@ -10771,10 +10798,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="36" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="C32" s="2">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D32" s="36" t="s">
         <v>356</v>
@@ -10783,7 +10810,7 @@
         <v>380</v>
       </c>
       <c r="F32" s="36" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="G32" s="37" t="s">
         <v>380</v>
@@ -10796,20 +10823,20 @@
       <c r="A33" s="2">
         <v>32</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>377</v>
+      <c r="B33" s="36" t="s">
+        <v>463</v>
       </c>
       <c r="C33" s="2">
-        <v>39</v>
-      </c>
-      <c r="D33" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D33" s="36" t="s">
         <v>356</v>
       </c>
       <c r="E33" s="37" t="s">
         <v>380</v>
       </c>
-      <c r="F33" s="2" t="s">
-        <v>379</v>
+      <c r="F33" s="36" t="s">
+        <v>410</v>
       </c>
       <c r="G33" s="37" t="s">
         <v>380</v>
@@ -10823,25 +10850,25 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>395</v>
+        <v>377</v>
       </c>
       <c r="C34" s="2">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>196</v>
+        <v>356</v>
+      </c>
+      <c r="E34" s="37" t="s">
+        <v>380</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="G34" s="37" t="s">
         <v>380</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>393</v>
+        <v>378</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.35">
@@ -10849,10 +10876,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="C35" s="2">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>198</v>
@@ -10867,7 +10894,7 @@
         <v>380</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>412</v>
+        <v>393</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.35">
@@ -10875,50 +10902,50 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>444</v>
+        <v>399</v>
       </c>
       <c r="C36" s="2">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="E36" s="37" t="s">
-        <v>380</v>
+      <c r="E36" s="2" t="s">
+        <v>196</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>411</v>
+        <v>384</v>
       </c>
       <c r="G36" s="37" t="s">
         <v>380</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>427</v>
+        <v>412</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" s="2">
         <v>36</v>
       </c>
-      <c r="B37" s="36" t="s">
-        <v>450</v>
+      <c r="B37" s="2" t="s">
+        <v>444</v>
       </c>
       <c r="C37" s="2">
-        <v>29</v>
-      </c>
-      <c r="D37" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="D37" s="2" t="s">
         <v>198</v>
       </c>
       <c r="E37" s="37" t="s">
-        <v>1134</v>
-      </c>
-      <c r="F37" s="36" t="s">
-        <v>410</v>
+        <v>380</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>411</v>
       </c>
       <c r="G37" s="37" t="s">
         <v>380</v>
       </c>
-      <c r="H37" s="36" t="s">
+      <c r="H37" s="2" t="s">
         <v>427</v>
       </c>
     </row>
@@ -10927,19 +10954,19 @@
         <v>37</v>
       </c>
       <c r="B38" s="36" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C38" s="2">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D38" s="36" t="s">
         <v>198</v>
       </c>
       <c r="E38" s="37" t="s">
-        <v>380</v>
+        <v>1134</v>
       </c>
       <c r="F38" s="36" t="s">
-        <v>384</v>
+        <v>410</v>
       </c>
       <c r="G38" s="37" t="s">
         <v>380</v>
@@ -10952,25 +10979,25 @@
       <c r="A39" s="2">
         <v>38</v>
       </c>
-      <c r="B39" s="2" t="s">
-        <v>442</v>
+      <c r="B39" s="36" t="s">
+        <v>447</v>
       </c>
       <c r="C39" s="2">
-        <v>24</v>
-      </c>
-      <c r="D39" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D39" s="36" t="s">
         <v>198</v>
       </c>
       <c r="E39" s="37" t="s">
         <v>380</v>
       </c>
-      <c r="F39" s="2" t="s">
+      <c r="F39" s="36" t="s">
         <v>384</v>
       </c>
       <c r="G39" s="37" t="s">
         <v>380</v>
       </c>
-      <c r="H39" s="2" t="s">
+      <c r="H39" s="36" t="s">
         <v>427</v>
       </c>
     </row>
@@ -10979,10 +11006,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="C40" s="2">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>198</v>
@@ -10991,7 +11018,7 @@
         <v>380</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>410</v>
+        <v>384</v>
       </c>
       <c r="G40" s="37" t="s">
         <v>380</v>
@@ -11004,25 +11031,25 @@
       <c r="A41" s="2">
         <v>40</v>
       </c>
-      <c r="B41" s="36" t="s">
-        <v>448</v>
+      <c r="B41" s="2" t="s">
+        <v>445</v>
       </c>
       <c r="C41" s="2">
         <v>28</v>
       </c>
-      <c r="D41" s="36" t="s">
+      <c r="D41" s="2" t="s">
         <v>198</v>
       </c>
       <c r="E41" s="37" t="s">
         <v>380</v>
       </c>
-      <c r="F41" s="36" t="s">
-        <v>382</v>
+      <c r="F41" s="2" t="s">
+        <v>410</v>
       </c>
       <c r="G41" s="37" t="s">
         <v>380</v>
       </c>
-      <c r="H41" s="36" t="s">
+      <c r="H41" s="2" t="s">
         <v>427</v>
       </c>
     </row>
@@ -11030,25 +11057,25 @@
       <c r="A42" s="2">
         <v>41</v>
       </c>
-      <c r="B42" s="2" t="s">
-        <v>441</v>
+      <c r="B42" s="36" t="s">
+        <v>448</v>
       </c>
       <c r="C42" s="2">
         <v>28</v>
       </c>
-      <c r="D42" s="2" t="s">
+      <c r="D42" s="36" t="s">
         <v>198</v>
       </c>
       <c r="E42" s="37" t="s">
         <v>380</v>
       </c>
-      <c r="F42" s="2" t="s">
-        <v>384</v>
+      <c r="F42" s="36" t="s">
+        <v>382</v>
       </c>
       <c r="G42" s="37" t="s">
         <v>380</v>
       </c>
-      <c r="H42" s="2" t="s">
+      <c r="H42" s="36" t="s">
         <v>427</v>
       </c>
     </row>
@@ -11056,25 +11083,25 @@
       <c r="A43" s="2">
         <v>42</v>
       </c>
-      <c r="B43" s="36" t="s">
-        <v>446</v>
+      <c r="B43" s="2" t="s">
+        <v>441</v>
       </c>
       <c r="C43" s="2">
-        <v>33</v>
-      </c>
-      <c r="D43" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="D43" s="2" t="s">
         <v>198</v>
       </c>
       <c r="E43" s="37" t="s">
         <v>380</v>
       </c>
-      <c r="F43" s="36" t="s">
+      <c r="F43" s="2" t="s">
         <v>384</v>
       </c>
       <c r="G43" s="37" t="s">
         <v>380</v>
       </c>
-      <c r="H43" s="36" t="s">
+      <c r="H43" s="2" t="s">
         <v>427</v>
       </c>
     </row>
@@ -11082,51 +11109,51 @@
       <c r="A44" s="2">
         <v>43</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>440</v>
+      <c r="B44" s="36" t="s">
+        <v>446</v>
       </c>
       <c r="C44" s="2">
-        <v>28</v>
-      </c>
-      <c r="D44" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D44" s="36" t="s">
         <v>198</v>
       </c>
       <c r="E44" s="37" t="s">
         <v>380</v>
       </c>
-      <c r="F44" s="2" t="s">
+      <c r="F44" s="36" t="s">
         <v>384</v>
       </c>
       <c r="G44" s="37" t="s">
         <v>380</v>
       </c>
-      <c r="H44" s="2" t="s">
-        <v>427</v>
+      <c r="H44" s="36" t="s">
+        <v>1142</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45" s="2">
         <v>44</v>
       </c>
-      <c r="B45" s="36" t="s">
-        <v>449</v>
+      <c r="B45" s="2" t="s">
+        <v>440</v>
       </c>
       <c r="C45" s="2">
-        <v>30</v>
-      </c>
-      <c r="D45" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="D45" s="2" t="s">
         <v>198</v>
       </c>
       <c r="E45" s="37" t="s">
         <v>380</v>
       </c>
-      <c r="F45" s="36" t="s">
-        <v>411</v>
+      <c r="F45" s="2" t="s">
+        <v>384</v>
       </c>
       <c r="G45" s="37" t="s">
         <v>380</v>
       </c>
-      <c r="H45" s="36" t="s">
+      <c r="H45" s="2" t="s">
         <v>427</v>
       </c>
     </row>
@@ -11134,25 +11161,25 @@
       <c r="A46" s="2">
         <v>45</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>443</v>
+      <c r="B46" s="36" t="s">
+        <v>449</v>
       </c>
       <c r="C46" s="2">
-        <v>24</v>
-      </c>
-      <c r="D46" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D46" s="36" t="s">
         <v>198</v>
       </c>
       <c r="E46" s="37" t="s">
         <v>380</v>
       </c>
-      <c r="F46" s="2" t="s">
-        <v>384</v>
+      <c r="F46" s="36" t="s">
+        <v>411</v>
       </c>
       <c r="G46" s="37" t="s">
         <v>380</v>
       </c>
-      <c r="H46" s="2" t="s">
+      <c r="H46" s="36" t="s">
         <v>427</v>
       </c>
     </row>
@@ -11161,10 +11188,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>612</v>
+        <v>443</v>
       </c>
       <c r="C47" s="2">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>198</v>
@@ -11172,14 +11199,14 @@
       <c r="E47" s="37" t="s">
         <v>380</v>
       </c>
-      <c r="F47" s="36" t="s">
-        <v>411</v>
+      <c r="F47" s="2" t="s">
+        <v>384</v>
       </c>
       <c r="G47" s="37" t="s">
         <v>380</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>378</v>
+        <v>427</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.35">
@@ -11187,25 +11214,25 @@
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>396</v>
+        <v>612</v>
       </c>
       <c r="C48" s="2">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>410</v>
+        <v>198</v>
+      </c>
+      <c r="E48" s="37" t="s">
+        <v>380</v>
+      </c>
+      <c r="F48" s="36" t="s">
+        <v>411</v>
       </c>
       <c r="G48" s="37" t="s">
         <v>380</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>393</v>
+        <v>378</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.35">
@@ -11213,51 +11240,51 @@
         <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C49" s="2">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>193</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>197</v>
+        <v>356</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>384</v>
+        <v>410</v>
       </c>
       <c r="G49" s="37" t="s">
         <v>380</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>412</v>
+        <v>393</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A50" s="2">
         <v>49</v>
       </c>
-      <c r="B50" s="36" t="s">
-        <v>469</v>
+      <c r="B50" s="2" t="s">
+        <v>398</v>
       </c>
       <c r="C50" s="2">
-        <v>25</v>
-      </c>
-      <c r="D50" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="D50" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="E50" s="37" t="s">
-        <v>380</v>
-      </c>
-      <c r="F50" s="36" t="s">
-        <v>382</v>
+      <c r="E50" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>384</v>
       </c>
       <c r="G50" s="37" t="s">
         <v>380</v>
       </c>
-      <c r="H50" s="36" t="s">
-        <v>427</v>
+      <c r="H50" s="2" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.35">
@@ -11265,19 +11292,19 @@
         <v>50</v>
       </c>
       <c r="B51" s="36" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="C51" s="2">
-        <v>27</v>
-      </c>
-      <c r="D51" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D51" s="36" t="s">
         <v>193</v>
       </c>
       <c r="E51" s="37" t="s">
         <v>380</v>
       </c>
-      <c r="F51" s="2" t="s">
-        <v>384</v>
+      <c r="F51" s="36" t="s">
+        <v>382</v>
       </c>
       <c r="G51" s="37" t="s">
         <v>380</v>
@@ -11290,11 +11317,11 @@
       <c r="A52" s="2">
         <v>51</v>
       </c>
-      <c r="B52" s="2" t="s">
-        <v>466</v>
+      <c r="B52" s="36" t="s">
+        <v>465</v>
       </c>
       <c r="C52" s="2">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>193</v>
@@ -11316,20 +11343,20 @@
       <c r="A53" s="2">
         <v>52</v>
       </c>
-      <c r="B53" s="36" t="s">
-        <v>468</v>
+      <c r="B53" s="2" t="s">
+        <v>466</v>
       </c>
       <c r="C53" s="2">
-        <v>28</v>
-      </c>
-      <c r="D53" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="D53" s="2" t="s">
         <v>193</v>
       </c>
       <c r="E53" s="37" t="s">
-        <v>1134</v>
-      </c>
-      <c r="F53" s="36" t="s">
-        <v>410</v>
+        <v>380</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>384</v>
       </c>
       <c r="G53" s="37" t="s">
         <v>380</v>
@@ -11342,26 +11369,26 @@
       <c r="A54" s="2">
         <v>53</v>
       </c>
-      <c r="B54" s="2" t="s">
-        <v>552</v>
+      <c r="B54" s="36" t="s">
+        <v>468</v>
       </c>
       <c r="C54" s="2">
-        <v>24</v>
-      </c>
-      <c r="D54" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D54" s="36" t="s">
         <v>193</v>
       </c>
-      <c r="E54" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>384</v>
+      <c r="E54" s="37" t="s">
+        <v>1134</v>
+      </c>
+      <c r="F54" s="36" t="s">
+        <v>410</v>
       </c>
       <c r="G54" s="37" t="s">
         <v>380</v>
       </c>
       <c r="H54" s="36" t="s">
-        <v>416</v>
+        <v>427</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.35">
@@ -11369,25 +11396,25 @@
         <v>54</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>425</v>
+        <v>552</v>
       </c>
       <c r="C55" s="2">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="E55" s="37" t="s">
-        <v>380</v>
-      </c>
-      <c r="F55" s="36" t="s">
-        <v>411</v>
+      <c r="E55" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>384</v>
       </c>
       <c r="G55" s="37" t="s">
         <v>380</v>
       </c>
-      <c r="H55" s="2" t="s">
-        <v>378</v>
+      <c r="H55" s="36" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.35">
@@ -11395,10 +11422,10 @@
         <v>55</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>467</v>
+        <v>425</v>
       </c>
       <c r="C56" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>193</v>
@@ -11406,8 +11433,8 @@
       <c r="E56" s="37" t="s">
         <v>380</v>
       </c>
-      <c r="F56" s="2" t="s">
-        <v>384</v>
+      <c r="F56" s="36" t="s">
+        <v>411</v>
       </c>
       <c r="G56" s="37" t="s">
         <v>380</v>
@@ -11421,25 +11448,25 @@
         <v>56</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>739</v>
+        <v>467</v>
       </c>
       <c r="C57" s="2">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="E57" s="36" t="s">
-        <v>199</v>
+      <c r="E57" s="37" t="s">
+        <v>380</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="G57" s="37" t="s">
         <v>380</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>740</v>
+        <v>378</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.35">
@@ -11447,25 +11474,25 @@
         <v>57</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>1128</v>
+        <v>739</v>
       </c>
       <c r="C58" s="2">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>1129</v>
+        <v>193</v>
       </c>
       <c r="E58" s="36" t="s">
-        <v>1130</v>
+        <v>199</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>1131</v>
+        <v>382</v>
       </c>
       <c r="G58" s="37" t="s">
-        <v>1132</v>
+        <v>380</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>1133</v>
+        <v>740</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.35">
@@ -11473,25 +11500,25 @@
         <v>58</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>432</v>
+        <v>1128</v>
       </c>
       <c r="C59" s="2">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="E59" s="37" t="s">
-        <v>380</v>
-      </c>
-      <c r="F59" s="36" t="s">
-        <v>410</v>
+        <v>1129</v>
+      </c>
+      <c r="E59" s="36" t="s">
+        <v>1130</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>1131</v>
       </c>
       <c r="G59" s="37" t="s">
-        <v>380</v>
+        <v>1132</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>427</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.35">
@@ -11499,10 +11526,10 @@
         <v>59</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C60" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>195</v>
@@ -11510,8 +11537,8 @@
       <c r="E60" s="37" t="s">
         <v>380</v>
       </c>
-      <c r="F60" s="2" t="s">
-        <v>384</v>
+      <c r="F60" s="36" t="s">
+        <v>410</v>
       </c>
       <c r="G60" s="37" t="s">
         <v>380</v>
@@ -11525,7 +11552,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C61" s="2">
         <v>25</v>
@@ -11551,10 +11578,10 @@
         <v>61</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>1115</v>
+        <v>430</v>
       </c>
       <c r="C62" s="2">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>195</v>
@@ -11563,13 +11590,13 @@
         <v>380</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>410</v>
+        <v>384</v>
       </c>
       <c r="G62" s="37" t="s">
         <v>380</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>1116</v>
+        <v>427</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.35">
@@ -11577,25 +11604,25 @@
         <v>62</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>400</v>
+        <v>1115</v>
       </c>
       <c r="C63" s="2">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>199</v>
+        <v>195</v>
+      </c>
+      <c r="E63" s="37" t="s">
+        <v>380</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>382</v>
+        <v>410</v>
       </c>
       <c r="G63" s="37" t="s">
         <v>380</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>412</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.35">
@@ -11603,19 +11630,19 @@
         <v>63</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="C64" s="2">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>197</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>411</v>
+        <v>382</v>
       </c>
       <c r="G64" s="37" t="s">
         <v>380</v>
@@ -11629,51 +11656,51 @@
         <v>64</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="C65" s="2">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>197</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>356</v>
+        <v>200</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>384</v>
+        <v>411</v>
       </c>
       <c r="G65" s="37" t="s">
         <v>380</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A66" s="2">
         <v>65</v>
       </c>
-      <c r="B66" s="36" t="s">
-        <v>518</v>
+      <c r="B66" s="2" t="s">
+        <v>405</v>
       </c>
       <c r="C66" s="2">
-        <v>27</v>
-      </c>
-      <c r="D66" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="D66" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="E66" s="37" t="s">
-        <v>380</v>
-      </c>
-      <c r="F66" s="36" t="s">
-        <v>411</v>
+      <c r="E66" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>384</v>
       </c>
       <c r="G66" s="37" t="s">
         <v>380</v>
       </c>
-      <c r="H66" s="36" t="s">
-        <v>427</v>
+      <c r="H66" s="2" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.35">
@@ -11681,10 +11708,10 @@
         <v>66</v>
       </c>
       <c r="B67" s="36" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C67" s="2">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D67" s="36" t="s">
         <v>197</v>
@@ -11707,19 +11734,19 @@
         <v>67</v>
       </c>
       <c r="B68" s="36" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="C68" s="2">
-        <v>43</v>
-      </c>
-      <c r="D68" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D68" s="36" t="s">
         <v>197</v>
       </c>
       <c r="E68" s="37" t="s">
         <v>380</v>
       </c>
-      <c r="F68" s="2" t="s">
-        <v>384</v>
+      <c r="F68" s="36" t="s">
+        <v>411</v>
       </c>
       <c r="G68" s="37" t="s">
         <v>380</v>
@@ -11733,18 +11760,18 @@
         <v>68</v>
       </c>
       <c r="B69" s="36" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C69" s="2">
-        <v>24</v>
-      </c>
-      <c r="D69" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="D69" s="2" t="s">
         <v>197</v>
       </c>
       <c r="E69" s="37" t="s">
         <v>380</v>
       </c>
-      <c r="F69" s="36" t="s">
+      <c r="F69" s="2" t="s">
         <v>384</v>
       </c>
       <c r="G69" s="37" t="s">
@@ -11759,7 +11786,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="36" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="C70" s="2">
         <v>24</v>
@@ -11771,7 +11798,7 @@
         <v>380</v>
       </c>
       <c r="F70" s="36" t="s">
-        <v>410</v>
+        <v>384</v>
       </c>
       <c r="G70" s="37" t="s">
         <v>380</v>
@@ -11784,20 +11811,20 @@
       <c r="A71" s="2">
         <v>70</v>
       </c>
-      <c r="B71" s="2" t="s">
-        <v>510</v>
+      <c r="B71" s="36" t="s">
+        <v>520</v>
       </c>
       <c r="C71" s="2">
-        <v>26</v>
-      </c>
-      <c r="D71" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D71" s="36" t="s">
         <v>197</v>
       </c>
       <c r="E71" s="37" t="s">
-        <v>1134</v>
-      </c>
-      <c r="F71" s="2" t="s">
-        <v>384</v>
+        <v>380</v>
+      </c>
+      <c r="F71" s="36" t="s">
+        <v>410</v>
       </c>
       <c r="G71" s="37" t="s">
         <v>380</v>
@@ -11811,7 +11838,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C72" s="2">
         <v>26</v>
@@ -11820,7 +11847,7 @@
         <v>197</v>
       </c>
       <c r="E72" s="37" t="s">
-        <v>380</v>
+        <v>1134</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>384</v>
@@ -11837,10 +11864,10 @@
         <v>72</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C73" s="2">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>197</v>
@@ -11863,10 +11890,10 @@
         <v>73</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="C74" s="2">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>197</v>
@@ -11888,20 +11915,20 @@
       <c r="A75" s="2">
         <v>74</v>
       </c>
-      <c r="B75" s="36" t="s">
-        <v>519</v>
+      <c r="B75" s="2" t="s">
+        <v>511</v>
       </c>
       <c r="C75" s="2">
-        <v>25</v>
-      </c>
-      <c r="D75" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="D75" s="2" t="s">
         <v>197</v>
       </c>
       <c r="E75" s="37" t="s">
-        <v>1134</v>
-      </c>
-      <c r="F75" s="36" t="s">
-        <v>410</v>
+        <v>380</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>384</v>
       </c>
       <c r="G75" s="37" t="s">
         <v>380</v>
@@ -11915,16 +11942,16 @@
         <v>75</v>
       </c>
       <c r="B76" s="36" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C76" s="2">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D76" s="36" t="s">
         <v>197</v>
       </c>
       <c r="E76" s="37" t="s">
-        <v>380</v>
+        <v>1134</v>
       </c>
       <c r="F76" s="36" t="s">
         <v>410</v>
@@ -11940,20 +11967,20 @@
       <c r="A77" s="2">
         <v>76</v>
       </c>
-      <c r="B77" s="2" t="s">
-        <v>509</v>
+      <c r="B77" s="36" t="s">
+        <v>521</v>
       </c>
       <c r="C77" s="2">
-        <v>25</v>
-      </c>
-      <c r="D77" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D77" s="36" t="s">
         <v>197</v>
       </c>
       <c r="E77" s="37" t="s">
-        <v>1134</v>
-      </c>
-      <c r="F77" s="2" t="s">
-        <v>384</v>
+        <v>380</v>
+      </c>
+      <c r="F77" s="36" t="s">
+        <v>410</v>
       </c>
       <c r="G77" s="37" t="s">
         <v>380</v>
@@ -11967,7 +11994,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="C78" s="2">
         <v>25</v>
@@ -11976,7 +12003,7 @@
         <v>197</v>
       </c>
       <c r="E78" s="37" t="s">
-        <v>380</v>
+        <v>1134</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>384</v>
@@ -11992,52 +12019,52 @@
       <c r="A79" s="2">
         <v>78</v>
       </c>
-      <c r="B79" s="36" t="s">
-        <v>418</v>
+      <c r="B79" s="2" t="s">
+        <v>514</v>
       </c>
       <c r="C79" s="2">
-        <v>20</v>
-      </c>
-      <c r="D79" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="D79" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="E79" s="36" t="s">
-        <v>194</v>
-      </c>
-      <c r="F79" s="36" t="s">
+      <c r="E79" s="37" t="s">
+        <v>380</v>
+      </c>
+      <c r="F79" s="2" t="s">
         <v>384</v>
       </c>
       <c r="G79" s="37" t="s">
         <v>380</v>
       </c>
       <c r="H79" s="36" t="s">
-        <v>419</v>
+        <v>427</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A80" s="2">
         <v>79</v>
       </c>
-      <c r="B80" s="2" t="s">
-        <v>429</v>
+      <c r="B80" s="36" t="s">
+        <v>418</v>
       </c>
       <c r="C80" s="2">
-        <v>38</v>
-      </c>
-      <c r="D80" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D80" s="36" t="s">
         <v>197</v>
       </c>
-      <c r="E80" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="F80" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="G80" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="H80" s="2" t="s">
-        <v>439</v>
+      <c r="E80" s="36" t="s">
+        <v>194</v>
+      </c>
+      <c r="F80" s="36" t="s">
+        <v>384</v>
+      </c>
+      <c r="G80" s="37" t="s">
+        <v>380</v>
+      </c>
+      <c r="H80" s="36" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.35">
@@ -12045,36 +12072,36 @@
         <v>80</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>1106</v>
+        <v>429</v>
       </c>
       <c r="C81" s="2">
-        <v>26</v>
-      </c>
-      <c r="D81" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="D81" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="E81" s="37" t="s">
-        <v>380</v>
+      <c r="E81" s="2" t="s">
+        <v>195</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="G81" s="37" t="s">
-        <v>380</v>
-      </c>
-      <c r="H81" s="36" t="s">
-        <v>378</v>
+        <v>411</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="H81" s="2" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A82" s="2">
         <v>81</v>
       </c>
-      <c r="B82" s="36" t="s">
-        <v>522</v>
+      <c r="B82" s="2" t="s">
+        <v>1106</v>
       </c>
       <c r="C82" s="2">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D82" s="36" t="s">
         <v>197</v>
@@ -12082,8 +12109,8 @@
       <c r="E82" s="37" t="s">
         <v>380</v>
       </c>
-      <c r="F82" s="36" t="s">
-        <v>410</v>
+      <c r="F82" s="2" t="s">
+        <v>384</v>
       </c>
       <c r="G82" s="37" t="s">
         <v>380</v>
@@ -12096,20 +12123,20 @@
       <c r="A83" s="2">
         <v>82</v>
       </c>
-      <c r="B83" s="2" t="s">
-        <v>508</v>
+      <c r="B83" s="36" t="s">
+        <v>522</v>
       </c>
       <c r="C83" s="2">
-        <v>31</v>
-      </c>
-      <c r="D83" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D83" s="36" t="s">
         <v>197</v>
       </c>
       <c r="E83" s="37" t="s">
         <v>380</v>
       </c>
-      <c r="F83" s="2" t="s">
-        <v>384</v>
+      <c r="F83" s="36" t="s">
+        <v>410</v>
       </c>
       <c r="G83" s="37" t="s">
         <v>380</v>
@@ -12123,77 +12150,77 @@
         <v>83</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>1135</v>
+        <v>508</v>
       </c>
       <c r="C84" s="2">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>197</v>
       </c>
       <c r="E84" s="37" t="s">
-        <v>194</v>
+        <v>380</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>384</v>
       </c>
       <c r="G84" s="37" t="s">
-        <v>1136</v>
-      </c>
-      <c r="H84" s="2" t="s">
-        <v>388</v>
+        <v>380</v>
+      </c>
+      <c r="H84" s="36" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A85" s="2">
         <v>84</v>
       </c>
-      <c r="B85" s="36" t="s">
-        <v>408</v>
+      <c r="B85" s="2" t="s">
+        <v>1135</v>
       </c>
       <c r="C85" s="2">
-        <v>32</v>
-      </c>
-      <c r="D85" s="36" t="s">
-        <v>196</v>
-      </c>
-      <c r="E85" s="36" t="s">
-        <v>200</v>
-      </c>
-      <c r="F85" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E85" s="37" t="s">
+        <v>194</v>
+      </c>
+      <c r="F85" s="2" t="s">
         <v>384</v>
       </c>
       <c r="G85" s="37" t="s">
-        <v>380</v>
-      </c>
-      <c r="H85" s="36" t="s">
-        <v>414</v>
+        <v>1136</v>
+      </c>
+      <c r="H85" s="2" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A86" s="2">
         <v>85</v>
       </c>
-      <c r="B86" s="2" t="s">
-        <v>505</v>
+      <c r="B86" s="36" t="s">
+        <v>408</v>
       </c>
       <c r="C86" s="2">
-        <v>28</v>
-      </c>
-      <c r="D86" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D86" s="36" t="s">
         <v>196</v>
       </c>
-      <c r="E86" s="37" t="s">
-        <v>1134</v>
-      </c>
-      <c r="F86" s="2" t="s">
+      <c r="E86" s="36" t="s">
+        <v>200</v>
+      </c>
+      <c r="F86" s="36" t="s">
         <v>384</v>
       </c>
       <c r="G86" s="37" t="s">
         <v>380</v>
       </c>
       <c r="H86" s="36" t="s">
-        <v>427</v>
+        <v>414</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.35">
@@ -12201,16 +12228,16 @@
         <v>86</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="C87" s="2">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>196</v>
       </c>
       <c r="E87" s="37" t="s">
-        <v>380</v>
+        <v>1134</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>384</v>
@@ -12227,10 +12254,10 @@
         <v>87</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C88" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>196</v>
@@ -12253,7 +12280,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="C89" s="2">
         <v>25</v>
@@ -12265,7 +12292,7 @@
         <v>380</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="G89" s="37" t="s">
         <v>380</v>
@@ -12279,10 +12306,10 @@
         <v>89</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C90" s="2">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>196</v>
@@ -12291,7 +12318,7 @@
         <v>380</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G90" s="37" t="s">
         <v>380</v>
@@ -12304,19 +12331,19 @@
       <c r="A91" s="2">
         <v>90</v>
       </c>
-      <c r="B91" s="36" t="s">
-        <v>506</v>
+      <c r="B91" s="2" t="s">
+        <v>500</v>
       </c>
       <c r="C91" s="2">
-        <v>32</v>
-      </c>
-      <c r="D91" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="D91" s="2" t="s">
         <v>196</v>
       </c>
       <c r="E91" s="37" t="s">
         <v>380</v>
       </c>
-      <c r="F91" s="36" t="s">
+      <c r="F91" s="2" t="s">
         <v>384</v>
       </c>
       <c r="G91" s="37" t="s">
@@ -12330,20 +12357,20 @@
       <c r="A92" s="2">
         <v>91</v>
       </c>
-      <c r="B92" s="2" t="s">
-        <v>504</v>
+      <c r="B92" s="36" t="s">
+        <v>506</v>
       </c>
       <c r="C92" s="2">
-        <v>24</v>
-      </c>
-      <c r="D92" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D92" s="36" t="s">
         <v>196</v>
       </c>
       <c r="E92" s="37" t="s">
         <v>380</v>
       </c>
       <c r="F92" s="36" t="s">
-        <v>411</v>
+        <v>384</v>
       </c>
       <c r="G92" s="37" t="s">
         <v>380</v>
@@ -12356,20 +12383,20 @@
       <c r="A93" s="2">
         <v>92</v>
       </c>
-      <c r="B93" s="36" t="s">
-        <v>507</v>
+      <c r="B93" s="2" t="s">
+        <v>504</v>
       </c>
       <c r="C93" s="2">
-        <v>28</v>
-      </c>
-      <c r="D93" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="D93" s="2" t="s">
         <v>196</v>
       </c>
       <c r="E93" s="37" t="s">
         <v>380</v>
       </c>
       <c r="F93" s="36" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="G93" s="37" t="s">
         <v>380</v>
@@ -12383,10 +12410,10 @@
         <v>93</v>
       </c>
       <c r="B94" s="36" t="s">
-        <v>423</v>
+        <v>507</v>
       </c>
       <c r="C94" s="2">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="D94" s="36" t="s">
         <v>196</v>
@@ -12401,27 +12428,27 @@
         <v>380</v>
       </c>
       <c r="H94" s="36" t="s">
-        <v>378</v>
+        <v>427</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A95" s="2">
         <v>94</v>
       </c>
-      <c r="B95" s="2" t="s">
-        <v>499</v>
+      <c r="B95" s="36" t="s">
+        <v>423</v>
       </c>
       <c r="C95" s="2">
-        <v>40</v>
-      </c>
-      <c r="D95" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D95" s="36" t="s">
         <v>196</v>
       </c>
       <c r="E95" s="37" t="s">
         <v>380</v>
       </c>
-      <c r="F95" s="2" t="s">
-        <v>384</v>
+      <c r="F95" s="36" t="s">
+        <v>410</v>
       </c>
       <c r="G95" s="37" t="s">
         <v>380</v>
@@ -12435,16 +12462,16 @@
         <v>95</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>404</v>
+        <v>499</v>
       </c>
       <c r="C96" s="2">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="E96" s="2" t="s">
         <v>196</v>
+      </c>
+      <c r="E96" s="37" t="s">
+        <v>380</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>384</v>
@@ -12452,8 +12479,8 @@
       <c r="G96" s="37" t="s">
         <v>380</v>
       </c>
-      <c r="H96" s="2" t="s">
-        <v>413</v>
+      <c r="H96" s="36" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.35">
@@ -12461,25 +12488,25 @@
         <v>96</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>489</v>
+        <v>404</v>
       </c>
       <c r="C97" s="2">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="E97" s="37" t="s">
-        <v>380</v>
+      <c r="E97" s="2" t="s">
+        <v>196</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>410</v>
+        <v>384</v>
       </c>
       <c r="G97" s="37" t="s">
         <v>380</v>
       </c>
-      <c r="H97" s="36" t="s">
-        <v>427</v>
+      <c r="H97" s="2" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.35">
@@ -12487,10 +12514,10 @@
         <v>97</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="C98" s="2">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>199</v>
@@ -12513,10 +12540,10 @@
         <v>98</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="C99" s="2">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>199</v>
@@ -12525,7 +12552,7 @@
         <v>380</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>384</v>
+        <v>410</v>
       </c>
       <c r="G99" s="37" t="s">
         <v>380</v>
@@ -12539,10 +12566,10 @@
         <v>99</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="C100" s="2">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="D100" s="2" t="s">
         <v>199</v>
@@ -12551,7 +12578,7 @@
         <v>380</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>410</v>
+        <v>384</v>
       </c>
       <c r="G100" s="37" t="s">
         <v>380</v>
@@ -12565,10 +12592,10 @@
         <v>100</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C101" s="2">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D101" s="2" t="s">
         <v>199</v>
@@ -12577,7 +12604,7 @@
         <v>380</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="G101" s="37" t="s">
         <v>380</v>
@@ -12591,10 +12618,10 @@
         <v>101</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
       <c r="C102" s="2">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="D102" s="2" t="s">
         <v>199</v>
@@ -12603,7 +12630,7 @@
         <v>380</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>384</v>
+        <v>411</v>
       </c>
       <c r="G102" s="37" t="s">
         <v>380</v>
@@ -12617,10 +12644,10 @@
         <v>102</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="C103" s="2">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="D103" s="2" t="s">
         <v>199</v>
@@ -12629,7 +12656,7 @@
         <v>380</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>410</v>
+        <v>384</v>
       </c>
       <c r="G103" s="37" t="s">
         <v>380</v>
@@ -12643,16 +12670,16 @@
         <v>103</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C104" s="2">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D104" s="2" t="s">
         <v>199</v>
       </c>
       <c r="E104" s="37" t="s">
-        <v>1134</v>
+        <v>380</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>410</v>
@@ -12669,19 +12696,19 @@
         <v>104</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="C105" s="2">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="D105" s="2" t="s">
         <v>199</v>
       </c>
       <c r="E105" s="37" t="s">
-        <v>380</v>
+        <v>1134</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>384</v>
+        <v>410</v>
       </c>
       <c r="G105" s="37" t="s">
         <v>380</v>
@@ -12695,10 +12722,10 @@
         <v>105</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="C106" s="2">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="D106" s="2" t="s">
         <v>199</v>
@@ -12707,7 +12734,7 @@
         <v>380</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>411</v>
+        <v>384</v>
       </c>
       <c r="G106" s="37" t="s">
         <v>380</v>
@@ -12721,10 +12748,10 @@
         <v>106</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>488</v>
+        <v>495</v>
       </c>
       <c r="C107" s="2">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="D107" s="2" t="s">
         <v>199</v>
@@ -12733,7 +12760,7 @@
         <v>380</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>384</v>
+        <v>411</v>
       </c>
       <c r="G107" s="37" t="s">
         <v>380</v>
@@ -12747,24 +12774,24 @@
         <v>107</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>381</v>
+        <v>488</v>
       </c>
       <c r="C108" s="2">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D108" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="E108" s="2" t="s">
-        <v>198</v>
+      <c r="E108" s="37" t="s">
+        <v>380</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="G108" s="37" t="s">
         <v>380</v>
       </c>
-      <c r="H108" s="2" t="s">
+      <c r="H108" s="36" t="s">
         <v>427</v>
       </c>
     </row>
@@ -12772,26 +12799,26 @@
       <c r="A109" s="2">
         <v>108</v>
       </c>
-      <c r="B109" s="36" t="s">
-        <v>498</v>
+      <c r="B109" s="2" t="s">
+        <v>381</v>
       </c>
       <c r="C109" s="2">
-        <v>40</v>
-      </c>
-      <c r="D109" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="D109" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="E109" s="37" t="s">
-        <v>380</v>
-      </c>
-      <c r="F109" s="36" t="s">
-        <v>410</v>
+      <c r="E109" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>382</v>
       </c>
       <c r="G109" s="37" t="s">
         <v>380</v>
       </c>
-      <c r="H109" s="36" t="s">
-        <v>378</v>
+      <c r="H109" s="2" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.35">
@@ -12799,10 +12826,10 @@
         <v>109</v>
       </c>
       <c r="B110" s="36" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="C110" s="2">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D110" s="36" t="s">
         <v>199</v>
@@ -12811,7 +12838,7 @@
         <v>380</v>
       </c>
       <c r="F110" s="36" t="s">
-        <v>384</v>
+        <v>410</v>
       </c>
       <c r="G110" s="37" t="s">
         <v>380</v>
@@ -12825,10 +12852,10 @@
         <v>110</v>
       </c>
       <c r="B111" s="36" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C111" s="2">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D111" s="36" t="s">
         <v>199</v>
@@ -12851,25 +12878,25 @@
         <v>111</v>
       </c>
       <c r="B112" s="36" t="s">
-        <v>530</v>
+        <v>497</v>
       </c>
       <c r="C112" s="2">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D112" s="36" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E112" s="37" t="s">
         <v>380</v>
       </c>
       <c r="F112" s="36" t="s">
-        <v>411</v>
+        <v>384</v>
       </c>
       <c r="G112" s="37" t="s">
         <v>380</v>
       </c>
       <c r="H112" s="36" t="s">
-        <v>427</v>
+        <v>378</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.35">
@@ -12877,19 +12904,19 @@
         <v>112</v>
       </c>
       <c r="B113" s="36" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="C113" s="2">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="D113" s="36" t="s">
         <v>200</v>
       </c>
       <c r="E113" s="37" t="s">
-        <v>380</v>
+        <v>1143</v>
       </c>
       <c r="F113" s="36" t="s">
-        <v>384</v>
+        <v>411</v>
       </c>
       <c r="G113" s="37" t="s">
         <v>380</v>
@@ -12903,10 +12930,10 @@
         <v>113</v>
       </c>
       <c r="B114" s="36" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="C114" s="2">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D114" s="36" t="s">
         <v>200</v>
@@ -12929,19 +12956,19 @@
         <v>114</v>
       </c>
       <c r="B115" s="36" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="C115" s="2">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D115" s="36" t="s">
         <v>200</v>
       </c>
       <c r="E115" s="37" t="s">
-        <v>1134</v>
+        <v>380</v>
       </c>
       <c r="F115" s="36" t="s">
-        <v>411</v>
+        <v>384</v>
       </c>
       <c r="G115" s="37" t="s">
         <v>380</v>
@@ -12955,19 +12982,19 @@
         <v>115</v>
       </c>
       <c r="B116" s="36" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="C116" s="2">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D116" s="36" t="s">
         <v>200</v>
       </c>
       <c r="E116" s="37" t="s">
-        <v>380</v>
+        <v>1134</v>
       </c>
       <c r="F116" s="36" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="G116" s="37" t="s">
         <v>380</v>
@@ -12981,10 +13008,10 @@
         <v>116</v>
       </c>
       <c r="B117" s="36" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="C117" s="2">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D117" s="36" t="s">
         <v>200</v>
@@ -12993,7 +13020,7 @@
         <v>380</v>
       </c>
       <c r="F117" s="36" t="s">
-        <v>384</v>
+        <v>410</v>
       </c>
       <c r="G117" s="37" t="s">
         <v>380</v>
@@ -13007,10 +13034,10 @@
         <v>117</v>
       </c>
       <c r="B118" s="36" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C118" s="2">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D118" s="36" t="s">
         <v>200</v>
@@ -13033,10 +13060,10 @@
         <v>118</v>
       </c>
       <c r="B119" s="36" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C119" s="2">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D119" s="36" t="s">
         <v>200</v>
@@ -13059,10 +13086,10 @@
         <v>119</v>
       </c>
       <c r="B120" s="36" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="C120" s="2">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="D120" s="36" t="s">
         <v>200</v>
@@ -13071,13 +13098,13 @@
         <v>380</v>
       </c>
       <c r="F120" s="36" t="s">
-        <v>410</v>
+        <v>384</v>
       </c>
       <c r="G120" s="37" t="s">
         <v>380</v>
       </c>
       <c r="H120" s="36" t="s">
-        <v>378</v>
+        <v>427</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.35">
@@ -13085,51 +13112,51 @@
         <v>120</v>
       </c>
       <c r="B121" s="36" t="s">
-        <v>532</v>
+        <v>523</v>
       </c>
       <c r="C121" s="2">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D121" s="36" t="s">
         <v>200</v>
       </c>
-      <c r="E121" s="36" t="s">
-        <v>534</v>
+      <c r="E121" s="37" t="s">
+        <v>380</v>
       </c>
       <c r="F121" s="36" t="s">
         <v>410</v>
       </c>
       <c r="G121" s="37" t="s">
-        <v>535</v>
+        <v>380</v>
       </c>
       <c r="H121" s="36" t="s">
-        <v>533</v>
+        <v>378</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A122" s="2">
         <v>121</v>
       </c>
-      <c r="B122" s="2" t="s">
-        <v>392</v>
+      <c r="B122" s="36" t="s">
+        <v>532</v>
       </c>
       <c r="C122" s="2">
-        <v>36</v>
-      </c>
-      <c r="D122" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="E122" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D122" s="36" t="s">
         <v>200</v>
       </c>
-      <c r="F122" s="2" t="s">
-        <v>379</v>
+      <c r="E122" s="36" t="s">
+        <v>534</v>
+      </c>
+      <c r="F122" s="36" t="s">
+        <v>410</v>
       </c>
       <c r="G122" s="37" t="s">
-        <v>380</v>
-      </c>
-      <c r="H122" s="2" t="s">
-        <v>393</v>
+        <v>535</v>
+      </c>
+      <c r="H122" s="36" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.35">
@@ -13137,7 +13164,7 @@
         <v>122</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C123" s="2">
         <v>36</v>
@@ -13146,10 +13173,10 @@
         <v>201</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="G123" s="37" t="s">
         <v>380</v>
@@ -13163,16 +13190,16 @@
         <v>123</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="C124" s="2">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="D124" s="2" t="s">
         <v>201</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>384</v>
@@ -13181,33 +13208,33 @@
         <v>380</v>
       </c>
       <c r="H124" s="2" t="s">
-        <v>413</v>
+        <v>393</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A125" s="2">
         <v>124</v>
       </c>
-      <c r="B125" s="36" t="s">
-        <v>409</v>
+      <c r="B125" s="2" t="s">
+        <v>402</v>
       </c>
       <c r="C125" s="2">
-        <v>25</v>
-      </c>
-      <c r="D125" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="D125" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="E125" s="36" t="s">
-        <v>197</v>
-      </c>
-      <c r="F125" s="36" t="s">
-        <v>411</v>
+      <c r="E125" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>384</v>
       </c>
       <c r="G125" s="37" t="s">
         <v>380</v>
       </c>
-      <c r="H125" s="36" t="s">
-        <v>414</v>
+      <c r="H125" s="2" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.35">
@@ -13215,25 +13242,25 @@
         <v>125</v>
       </c>
       <c r="B126" s="36" t="s">
-        <v>480</v>
+        <v>409</v>
       </c>
       <c r="C126" s="2">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D126" s="36" t="s">
         <v>201</v>
       </c>
-      <c r="E126" s="37" t="s">
-        <v>380</v>
+      <c r="E126" s="36" t="s">
+        <v>197</v>
       </c>
       <c r="F126" s="36" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="G126" s="37" t="s">
         <v>380</v>
       </c>
       <c r="H126" s="36" t="s">
-        <v>427</v>
+        <v>414</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.35">
@@ -13241,10 +13268,10 @@
         <v>126</v>
       </c>
       <c r="B127" s="36" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="C127" s="2">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D127" s="36" t="s">
         <v>201</v>
@@ -13266,20 +13293,20 @@
       <c r="A128" s="2">
         <v>127</v>
       </c>
-      <c r="B128" s="2" t="s">
-        <v>477</v>
+      <c r="B128" s="36" t="s">
+        <v>483</v>
       </c>
       <c r="C128" s="2">
-        <v>25</v>
-      </c>
-      <c r="D128" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D128" s="36" t="s">
         <v>201</v>
       </c>
       <c r="E128" s="37" t="s">
-        <v>1134</v>
-      </c>
-      <c r="F128" s="2" t="s">
-        <v>384</v>
+        <v>380</v>
+      </c>
+      <c r="F128" s="36" t="s">
+        <v>410</v>
       </c>
       <c r="G128" s="37" t="s">
         <v>380</v>
@@ -13293,16 +13320,16 @@
         <v>128</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="C129" s="2">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D129" s="2" t="s">
         <v>201</v>
       </c>
       <c r="E129" s="37" t="s">
-        <v>380</v>
+        <v>1134</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>384</v>
@@ -13318,20 +13345,20 @@
       <c r="A130" s="2">
         <v>129</v>
       </c>
-      <c r="B130" s="36" t="s">
-        <v>479</v>
+      <c r="B130" s="2" t="s">
+        <v>475</v>
       </c>
       <c r="C130" s="2">
-        <v>29</v>
-      </c>
-      <c r="D130" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D130" s="2" t="s">
         <v>201</v>
       </c>
       <c r="E130" s="37" t="s">
-        <v>380</v>
-      </c>
-      <c r="F130" s="36" t="s">
-        <v>410</v>
+        <v>1143</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>384</v>
       </c>
       <c r="G130" s="37" t="s">
         <v>380</v>
@@ -13345,19 +13372,19 @@
         <v>130</v>
       </c>
       <c r="B131" s="36" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C131" s="2">
-        <v>24</v>
-      </c>
-      <c r="D131" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D131" s="36" t="s">
         <v>201</v>
       </c>
       <c r="E131" s="37" t="s">
         <v>380</v>
       </c>
-      <c r="F131" s="2" t="s">
-        <v>382</v>
+      <c r="F131" s="36" t="s">
+        <v>410</v>
       </c>
       <c r="G131" s="37" t="s">
         <v>380</v>
@@ -13371,19 +13398,19 @@
         <v>131</v>
       </c>
       <c r="B132" s="36" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="C132" s="2">
-        <v>32</v>
-      </c>
-      <c r="D132" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="D132" s="2" t="s">
         <v>201</v>
       </c>
       <c r="E132" s="37" t="s">
         <v>380</v>
       </c>
-      <c r="F132" s="36" t="s">
-        <v>384</v>
+      <c r="F132" s="2" t="s">
+        <v>382</v>
       </c>
       <c r="G132" s="37" t="s">
         <v>380</v>
@@ -13396,45 +13423,45 @@
       <c r="A133" s="2">
         <v>132</v>
       </c>
-      <c r="B133" s="2" t="s">
-        <v>476</v>
+      <c r="B133" s="36" t="s">
+        <v>481</v>
       </c>
       <c r="C133" s="2">
-        <v>24</v>
-      </c>
-      <c r="D133" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D133" s="36" t="s">
         <v>201</v>
       </c>
       <c r="E133" s="37" t="s">
         <v>380</v>
       </c>
-      <c r="F133" s="2" t="s">
+      <c r="F133" s="36" t="s">
         <v>384</v>
       </c>
       <c r="G133" s="37" t="s">
         <v>380</v>
       </c>
       <c r="H133" s="36" t="s">
-        <v>427</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A134" s="2">
         <v>133</v>
       </c>
-      <c r="B134" s="36" t="s">
-        <v>482</v>
+      <c r="B134" s="2" t="s">
+        <v>476</v>
       </c>
       <c r="C134" s="2">
-        <v>32</v>
-      </c>
-      <c r="D134" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="D134" s="2" t="s">
         <v>201</v>
       </c>
       <c r="E134" s="37" t="s">
         <v>380</v>
       </c>
-      <c r="F134" s="36" t="s">
+      <c r="F134" s="2" t="s">
         <v>384</v>
       </c>
       <c r="G134" s="37" t="s">
@@ -13449,10 +13476,10 @@
         <v>134</v>
       </c>
       <c r="B135" s="36" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C135" s="2">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D135" s="36" t="s">
         <v>201</v>
@@ -13461,7 +13488,7 @@
         <v>380</v>
       </c>
       <c r="F135" s="36" t="s">
-        <v>410</v>
+        <v>384</v>
       </c>
       <c r="G135" s="37" t="s">
         <v>380</v>
@@ -13474,25 +13501,25 @@
       <c r="A136" s="2">
         <v>135</v>
       </c>
-      <c r="B136" s="2" t="s">
-        <v>385</v>
+      <c r="B136" s="36" t="s">
+        <v>484</v>
       </c>
       <c r="C136" s="2">
-        <v>24</v>
-      </c>
-      <c r="D136" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D136" s="36" t="s">
         <v>201</v>
       </c>
-      <c r="E136" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="F136" s="2" t="s">
-        <v>379</v>
+      <c r="E136" s="37" t="s">
+        <v>380</v>
+      </c>
+      <c r="F136" s="36" t="s">
+        <v>410</v>
       </c>
       <c r="G136" s="37" t="s">
         <v>380</v>
       </c>
-      <c r="H136" s="2" t="s">
+      <c r="H136" s="36" t="s">
         <v>427</v>
       </c>
     </row>
@@ -13500,25 +13527,25 @@
       <c r="A137" s="2">
         <v>136</v>
       </c>
-      <c r="B137" s="36" t="s">
-        <v>383</v>
+      <c r="B137" s="2" t="s">
+        <v>385</v>
       </c>
       <c r="C137" s="2">
-        <v>39</v>
-      </c>
-      <c r="D137" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="D137" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="E137" s="36" t="s">
-        <v>198</v>
-      </c>
-      <c r="F137" s="36" t="s">
-        <v>384</v>
+      <c r="E137" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="F137" s="2" t="s">
+        <v>379</v>
       </c>
       <c r="G137" s="37" t="s">
         <v>380</v>
       </c>
-      <c r="H137" s="36" t="s">
+      <c r="H137" s="2" t="s">
         <v>427</v>
       </c>
     </row>
@@ -13527,16 +13554,16 @@
         <v>137</v>
       </c>
       <c r="B138" s="36" t="s">
-        <v>422</v>
+        <v>383</v>
       </c>
       <c r="C138" s="2">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D138" s="36" t="s">
         <v>201</v>
       </c>
       <c r="E138" s="36" t="s">
-        <v>356</v>
+        <v>198</v>
       </c>
       <c r="F138" s="36" t="s">
         <v>384</v>
@@ -13545,7 +13572,7 @@
         <v>380</v>
       </c>
       <c r="H138" s="36" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.35">
@@ -13553,16 +13580,16 @@
         <v>138</v>
       </c>
       <c r="B139" s="36" t="s">
-        <v>474</v>
+        <v>422</v>
       </c>
       <c r="C139" s="2">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D139" s="36" t="s">
         <v>201</v>
       </c>
-      <c r="E139" s="37" t="s">
-        <v>380</v>
+      <c r="E139" s="36" t="s">
+        <v>356</v>
       </c>
       <c r="F139" s="36" t="s">
         <v>384</v>
@@ -13571,7 +13598,7 @@
         <v>380</v>
       </c>
       <c r="H139" s="36" t="s">
-        <v>378</v>
+        <v>424</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.35">
@@ -13579,16 +13606,16 @@
         <v>139</v>
       </c>
       <c r="B140" s="36" t="s">
-        <v>553</v>
+        <v>474</v>
       </c>
       <c r="C140" s="2">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="D140" s="36" t="s">
-        <v>554</v>
-      </c>
-      <c r="E140" s="36" t="s">
-        <v>195</v>
+        <v>201</v>
+      </c>
+      <c r="E140" s="37" t="s">
+        <v>380</v>
       </c>
       <c r="F140" s="36" t="s">
         <v>384</v>
@@ -13597,7 +13624,7 @@
         <v>380</v>
       </c>
       <c r="H140" s="36" t="s">
-        <v>427</v>
+        <v>378</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.35">
@@ -13605,19 +13632,19 @@
         <v>140</v>
       </c>
       <c r="B141" s="36" t="s">
-        <v>613</v>
+        <v>553</v>
       </c>
       <c r="C141" s="2">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D141" s="36" t="s">
         <v>554</v>
       </c>
       <c r="E141" s="36" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F141" s="36" t="s">
-        <v>410</v>
+        <v>384</v>
       </c>
       <c r="G141" s="37" t="s">
         <v>380</v>
@@ -13630,25 +13657,51 @@
       <c r="A142" s="2">
         <v>141</v>
       </c>
-      <c r="B142" s="2" t="s">
+      <c r="B142" s="36" t="s">
+        <v>613</v>
+      </c>
+      <c r="C142" s="2">
+        <v>26</v>
+      </c>
+      <c r="D142" s="36" t="s">
+        <v>554</v>
+      </c>
+      <c r="E142" s="36" t="s">
+        <v>197</v>
+      </c>
+      <c r="F142" s="36" t="s">
+        <v>410</v>
+      </c>
+      <c r="G142" s="37" t="s">
+        <v>380</v>
+      </c>
+      <c r="H142" s="36" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A143" s="2">
+        <v>142</v>
+      </c>
+      <c r="B143" s="2" t="s">
         <v>1137</v>
       </c>
-      <c r="C142" s="2">
+      <c r="C143" s="2">
         <v>31</v>
       </c>
-      <c r="D142" s="2" t="s">
+      <c r="D143" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="E142" s="2" t="s">
+      <c r="E143" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="F142" s="2" t="s">
+      <c r="F143" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="G142" s="2" t="s">
+      <c r="G143" s="2" t="s">
         <v>1138</v>
       </c>
-      <c r="H142" s="2" t="s">
+      <c r="H143" s="2" t="s">
         <v>388</v>
       </c>
     </row>
@@ -16087,7 +16140,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
